--- a/code/basic_network_results.xlsx
+++ b/code/basic_network_results.xlsx
@@ -8016,19 +8016,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.09813389193797E-11</v>
+        <v>4.098133891924775E-11</v>
       </c>
       <c r="C2">
         <v>-1.42275053398029E-05</v>
       </c>
       <c r="D2">
-        <v>-3.083248756236337E-11</v>
+        <v>-3.083248756271781E-11</v>
       </c>
       <c r="E2">
         <v>1.396512717727895E-05</v>
       </c>
       <c r="F2">
-        <v>1.014885135701632E-11</v>
+        <v>1.014885135652994E-11</v>
       </c>
       <c r="G2">
         <v>-2.623781625239564E-07</v>
@@ -8063,22 +8063,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-8.185680781600415E-15</v>
+        <v>-8.185680778910691E-15</v>
       </c>
       <c r="C3">
-        <v>-2.16016828656432E-07</v>
+        <v>-2.160168286564321E-07</v>
       </c>
       <c r="D3">
-        <v>9.453234868987248E-15</v>
+        <v>9.453234873736014E-15</v>
       </c>
       <c r="E3">
         <v>1.451656662571507E-07</v>
       </c>
       <c r="F3">
-        <v>1.267554087386833E-15</v>
+        <v>1.267554094825322E-15</v>
       </c>
       <c r="G3">
-        <v>-7.085116239928131E-08</v>
+        <v>-7.085116239928133E-08</v>
       </c>
       <c r="H3">
         <v>2.853971802965264E-07</v>
@@ -8110,22 +8110,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.082613373613899E-11</v>
+        <v>3.082613373619628E-11</v>
       </c>
       <c r="C4">
         <v>-1.374911034021749E-05</v>
       </c>
       <c r="D4">
-        <v>-2.53145442374384E-11</v>
+        <v>-2.531454423759961E-11</v>
       </c>
       <c r="E4">
         <v>1.359765873335399E-05</v>
       </c>
       <c r="F4">
-        <v>5.511589498700595E-12</v>
+        <v>5.511589498596664E-12</v>
       </c>
       <c r="G4">
-        <v>-1.51451606863502E-07</v>
+        <v>-1.514516068635003E-07</v>
       </c>
       <c r="H4">
         <v>1.816505383909083E-05</v>
@@ -8157,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.151828822323315E-16</v>
+        <v>9.151828837173984E-16</v>
       </c>
       <c r="C5">
         <v>-6.420868738007444E-08</v>
@@ -8169,7 +8169,7 @@
         <v>5.098784960533612E-15</v>
       </c>
       <c r="F5">
-        <v>-4.480352247698567E-16</v>
+        <v>-4.480352232847897E-16</v>
       </c>
       <c r="G5">
         <v>-6.420868228128948E-08</v>
@@ -8204,7 +8204,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-6.754131467390485E-16</v>
+        <v>-6.754131478112221E-16</v>
       </c>
       <c r="C6">
         <v>-8.095698448042656E-08</v>
@@ -8216,7 +8216,7 @@
         <v>-5.098784961603385E-15</v>
       </c>
       <c r="F6">
-        <v>6.87804957215927E-16</v>
+        <v>6.878049561437534E-16</v>
       </c>
       <c r="G6">
         <v>-8.095698957921152E-08</v>
@@ -8251,22 +8251,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.276109684549545E-15</v>
+        <v>7.276109689535014E-15</v>
       </c>
       <c r="C7">
         <v>-2.198546108093676E-07</v>
       </c>
       <c r="D7">
-        <v>-6.52633598520963E-15</v>
+        <v>-6.526335984547522E-15</v>
       </c>
       <c r="E7">
         <v>1.511440112822906E-07</v>
       </c>
       <c r="F7">
-        <v>7.497736993399156E-16</v>
+        <v>7.497737049874915E-16</v>
       </c>
       <c r="G7">
-        <v>-6.871059952707701E-08</v>
+        <v>-6.871059952707704E-08</v>
       </c>
       <c r="H7">
         <v>2.904675638661617E-07</v>
@@ -8298,19 +8298,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.530633423507186E-11</v>
+        <v>2.530633423546632E-11</v>
       </c>
       <c r="C8">
         <v>-1.337780412416012E-05</v>
       </c>
       <c r="D8">
-        <v>-1.663038572226116E-11</v>
+        <v>-1.663038572204579E-11</v>
       </c>
       <c r="E8">
         <v>1.31239682519247E-05</v>
       </c>
       <c r="F8">
-        <v>8.675948512810701E-12</v>
+        <v>8.675948513420537E-12</v>
       </c>
       <c r="G8">
         <v>-2.538358722354198E-07</v>
@@ -8345,7 +8345,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.519337477734566E-15</v>
+        <v>-5.519337480074251E-15</v>
       </c>
       <c r="C9">
         <v>-7.382325302128423E-08</v>
@@ -8357,7 +8357,7 @@
         <v>3.231000987715296E-15</v>
       </c>
       <c r="F9">
-        <v>-3.651552627704082E-15</v>
+        <v>-3.651552630043767E-15</v>
       </c>
       <c r="G9">
         <v>-7.382324979028325E-08</v>
@@ -8392,7 +8392,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-6.911008752103004E-15</v>
+        <v>-6.911008750130596E-15</v>
       </c>
       <c r="C10">
         <v>-7.73207537685836E-08</v>
@@ -8404,7 +8404,7 @@
         <v>-2.522843567278955E-16</v>
       </c>
       <c r="F10">
-        <v>-2.746115339363656E-15</v>
+        <v>-2.746115337391248E-15</v>
       </c>
       <c r="G10">
         <v>-7.732075402086796E-08</v>
@@ -8439,22 +8439,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.292259873230269E-14</v>
+        <v>-1.292259873266313E-14</v>
       </c>
       <c r="C11">
         <v>-1.959569276349526E-07</v>
       </c>
       <c r="D11">
-        <v>1.135111958844124E-14</v>
+        <v>1.135111958963643E-14</v>
       </c>
       <c r="E11">
         <v>9.686797690221796E-08</v>
       </c>
       <c r="F11">
-        <v>-1.571479143861451E-15</v>
+        <v>-1.571479143026697E-15</v>
       </c>
       <c r="G11">
-        <v>-9.90889507327346E-08</v>
+        <v>-9.908895073273462E-08</v>
       </c>
       <c r="H11">
         <v>2.588943904836847E-07</v>
@@ -8486,31 +8486,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.663429692654126E-11</v>
+        <v>1.663429692696395E-11</v>
       </c>
       <c r="C12">
         <v>-1.292801132123578E-05</v>
       </c>
       <c r="D12">
-        <v>-1.148138744095365E-11</v>
+        <v>-1.148138744135849E-11</v>
       </c>
       <c r="E12">
         <v>1.276751474019483E-05</v>
       </c>
       <c r="F12">
-        <v>5.152909485587611E-12</v>
+        <v>5.152909485605457E-12</v>
       </c>
       <c r="G12">
-        <v>-1.604965810409547E-07</v>
+        <v>-1.604965810409563E-07</v>
       </c>
       <c r="H12">
-        <v>1.708023110780431E-05</v>
+        <v>1.708023110780432E-05</v>
       </c>
       <c r="I12">
         <v>1.686818514329259E-05</v>
       </c>
       <c r="J12">
-        <v>1.708023110780431E-05</v>
+        <v>1.708023110780432E-05</v>
       </c>
       <c r="K12">
         <v>1.050470892526017</v>
@@ -8525,7 +8525,7 @@
         <v>-30.03151168734117</v>
       </c>
       <c r="O12">
-        <v>0.001708023110780431</v>
+        <v>0.001708023110780432</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -8533,7 +8533,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.07655313673443E-14</v>
+        <v>2.076553136836356E-14</v>
       </c>
       <c r="C13">
         <v>-4.843400050320938E-08</v>
@@ -8545,7 +8545,7 @@
         <v>1.009148438748866E-15</v>
       </c>
       <c r="F13">
-        <v>4.10595664076865E-15</v>
+        <v>4.105956641787909E-15</v>
       </c>
       <c r="G13">
         <v>-4.843399949406094E-08</v>
@@ -8580,7 +8580,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.07655313673443E-14</v>
+        <v>2.076553136836356E-14</v>
       </c>
       <c r="C14">
         <v>-4.843400050320938E-08</v>
@@ -8592,7 +8592,7 @@
         <v>1.009148438748866E-15</v>
       </c>
       <c r="F14">
-        <v>4.10595664076865E-15</v>
+        <v>4.105956641787909E-15</v>
       </c>
       <c r="G14">
         <v>-4.843399949406094E-08</v>
@@ -8627,19 +8627,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.144485848865277E-11</v>
+        <v>1.14448584882742E-11</v>
       </c>
       <c r="C15">
         <v>-1.112002240404237E-05</v>
       </c>
       <c r="D15">
-        <v>-8.920839470807093E-12</v>
+        <v>-8.920839470607602E-12</v>
       </c>
       <c r="E15">
         <v>1.1014459088354E-05</v>
       </c>
       <c r="F15">
-        <v>2.52401901784568E-12</v>
+        <v>2.524019017666599E-12</v>
       </c>
       <c r="G15">
         <v>-1.055633156883713E-07</v>
@@ -8674,19 +8674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-3.402718014006276E-15</v>
+        <v>-3.40271796764969E-15</v>
       </c>
       <c r="C16">
         <v>-1.647492360486717E-06</v>
       </c>
       <c r="D16">
-        <v>1.315533064309081E-14</v>
+        <v>1.315533063940145E-14</v>
       </c>
       <c r="E16">
         <v>1.4714092164535E-06</v>
       </c>
       <c r="F16">
-        <v>9.752612629084531E-15</v>
+        <v>9.752612671751761E-15</v>
       </c>
       <c r="G16">
         <v>-1.76083144033217E-07</v>
@@ -8721,19 +8721,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-3.134830726014333E-14</v>
+        <v>-3.134830731048498E-14</v>
       </c>
       <c r="C17">
         <v>-1.13588740194434E-06</v>
       </c>
       <c r="D17">
-        <v>1.382370650113772E-14</v>
+        <v>1.382370648084655E-14</v>
       </c>
       <c r="E17">
         <v>1.085820220812636E-06</v>
       </c>
       <c r="F17">
-        <v>-1.75246007590056E-14</v>
+        <v>-1.752460082963842E-14</v>
       </c>
       <c r="G17">
         <v>-5.006718113170347E-08</v>
@@ -8768,19 +8768,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.920187296095289E-12</v>
+        <v>8.920187296244007E-12</v>
       </c>
       <c r="C18">
         <v>-9.878571883447623E-06</v>
       </c>
       <c r="D18">
-        <v>-5.109955585940937E-12</v>
+        <v>-5.109955585607104E-12</v>
       </c>
       <c r="E18">
         <v>9.540367061093257E-06</v>
       </c>
       <c r="F18">
-        <v>3.810231710154352E-12</v>
+        <v>3.810231710636903E-12</v>
       </c>
       <c r="G18">
         <v>-3.382048223543667E-07</v>
@@ -8815,22 +8815,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.096291129254912E-14</v>
+        <v>3.096291129134554E-14</v>
       </c>
       <c r="C19">
-        <v>-9.136727444305209E-07</v>
+        <v>-9.13672744430521E-07</v>
       </c>
       <c r="D19">
-        <v>-2.297399686016592E-14</v>
+        <v>-2.297399684708428E-14</v>
       </c>
       <c r="E19">
         <v>7.205582590530687E-07</v>
       </c>
       <c r="F19">
-        <v>7.9889144323832E-15</v>
+        <v>7.988914444261258E-15</v>
       </c>
       <c r="G19">
-        <v>-1.931144853774522E-07</v>
+        <v>-1.931144853774523E-07</v>
       </c>
       <c r="H19">
         <v>1.207126112157671E-06</v>
@@ -8862,7 +8862,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.54095405206848E-15</v>
+        <v>2.540954046749538E-15</v>
       </c>
       <c r="C20">
         <v>-1.721474541679387E-07</v>
@@ -8874,7 +8874,7 @@
         <v>-6.816049324478064E-16</v>
       </c>
       <c r="F20">
-        <v>-8.440267881004579E-18</v>
+        <v>-8.440273199946564E-18</v>
       </c>
       <c r="G20">
         <v>-1.721474548495436E-07</v>
@@ -8909,19 +8909,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.399326468301636E-14</v>
+        <v>-1.399326468056339E-14</v>
       </c>
       <c r="C21">
         <v>-2.744344474627507E-07</v>
       </c>
       <c r="D21">
-        <v>1.763146628698414E-14</v>
+        <v>1.763146629149239E-14</v>
       </c>
       <c r="E21">
         <v>1.402263229872253E-07</v>
       </c>
       <c r="F21">
-        <v>3.638201603967774E-15</v>
+        <v>3.638201610929005E-15</v>
       </c>
       <c r="G21">
         <v>-1.342081244755254E-07</v>
@@ -8956,31 +8956,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.269504735442932E-14</v>
+        <v>-1.26950473452514E-14</v>
       </c>
       <c r="C22">
         <v>-4.461238378432435E-07</v>
       </c>
       <c r="D22">
-        <v>1.656378277898242E-14</v>
+        <v>1.656378277772044E-14</v>
       </c>
       <c r="E22">
         <v>2.501548633183739E-07</v>
       </c>
       <c r="F22">
-        <v>3.868735424553094E-15</v>
+        <v>3.868735432469033E-15</v>
       </c>
       <c r="G22">
         <v>-1.959689745248696E-07</v>
       </c>
       <c r="H22">
-        <v>5.89409867697088E-07</v>
+        <v>5.894098676970881E-07</v>
       </c>
       <c r="I22">
         <v>3.304995879815335E-07</v>
       </c>
       <c r="J22">
-        <v>5.89409867697088E-07</v>
+        <v>5.894098676970881E-07</v>
       </c>
       <c r="K22">
         <v>1.050471004277341</v>
@@ -9003,19 +9003,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-6.215676685932095E-15</v>
+        <v>-6.215676684888911E-15</v>
       </c>
       <c r="C23">
         <v>-2.501548305038016E-07</v>
       </c>
       <c r="D23">
-        <v>9.41324157972537E-15</v>
+        <v>9.413241576774873E-15</v>
       </c>
       <c r="E23">
         <v>1.252863820954363E-07</v>
       </c>
       <c r="F23">
-        <v>3.197564893793275E-15</v>
+        <v>3.197564891885962E-15</v>
       </c>
       <c r="G23">
         <v>-1.248684484083653E-07</v>
@@ -9050,7 +9050,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.903382979378238E-15</v>
+        <v>2.903382977536576E-15</v>
       </c>
       <c r="C24">
         <v>-8.260634912216915E-08</v>
@@ -9059,10 +9059,10 @@
         <v>-3.66031431953965E-15</v>
       </c>
       <c r="E24">
-        <v>8.582077751504288E-15</v>
+        <v>8.582077751504286E-15</v>
       </c>
       <c r="F24">
-        <v>-7.56931340161412E-16</v>
+        <v>-7.56931342003074E-16</v>
       </c>
       <c r="G24">
         <v>-8.26063405400914E-08</v>
@@ -9097,7 +9097,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.549092807846842E-15</v>
+        <v>2.549092808770904E-15</v>
       </c>
       <c r="C25">
         <v>-5.76199861318324E-08</v>
@@ -9109,10 +9109,10 @@
         <v>6.96657812568926E-15</v>
       </c>
       <c r="F25">
-        <v>-2.045116239404974E-15</v>
+        <v>-2.045116238480911E-15</v>
       </c>
       <c r="G25">
-        <v>-5.761997916525428E-08</v>
+        <v>-5.761997916525427E-08</v>
       </c>
       <c r="H25">
         <v>7.612637004685558E-08</v>
@@ -9144,7 +9144,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.121453705751397E-15</v>
+        <v>2.121453704781906E-15</v>
       </c>
       <c r="C26">
         <v>-8.539303881873476E-08</v>
@@ -9156,7 +9156,7 @@
         <v>-4.84649887130092E-15</v>
       </c>
       <c r="F26">
-        <v>-6.802304678668368E-16</v>
+        <v>-6.802304688363279E-16</v>
       </c>
       <c r="G26">
         <v>-8.539304366523363E-08</v>
@@ -9191,7 +9191,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-8.228431477434238E-15</v>
+        <v>-8.228431477719793E-15</v>
       </c>
       <c r="C27">
         <v>-3.989333010041472E-08</v>
@@ -9203,7 +9203,7 @@
         <v>-3.735578888504779E-15</v>
       </c>
       <c r="F27">
-        <v>-1.766432977729926E-15</v>
+        <v>-1.766432978015481E-15</v>
       </c>
       <c r="G27">
         <v>-3.989333383599361E-08</v>
@@ -9238,19 +9238,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.670170879975396E-14</v>
+        <v>3.67017088255529E-14</v>
       </c>
       <c r="C28">
         <v>-1.248985546885921E-06</v>
       </c>
       <c r="D28">
-        <v>-2.745985354385286E-14</v>
+        <v>-2.74598535216951E-14</v>
       </c>
       <c r="E28">
         <v>1.101401385183E-06</v>
       </c>
       <c r="F28">
-        <v>9.241855255901095E-15</v>
+        <v>9.241855303857799E-15</v>
       </c>
       <c r="G28">
         <v>-1.475841617029206E-07</v>
@@ -9285,7 +9285,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.22148469330461E-15</v>
+        <v>1.221484698013776E-15</v>
       </c>
       <c r="C29">
         <v>-2.22423730348098E-07</v>
@@ -9297,7 +9297,7 @@
         <v>2.082446938899066E-15</v>
       </c>
       <c r="F29">
-        <v>1.347629124771869E-15</v>
+        <v>1.347629129481035E-15</v>
       </c>
       <c r="G29">
         <v>-2.224237282656511E-07</v>
@@ -9332,19 +9332,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-4.168635671629936E-15</v>
+        <v>-4.168635677473822E-15</v>
       </c>
       <c r="C30">
         <v>-3.311632655762818E-07</v>
       </c>
       <c r="D30">
-        <v>1.087737826973687E-14</v>
+        <v>1.08773782660664E-14</v>
       </c>
       <c r="E30">
         <v>1.81800893247479E-07</v>
       </c>
       <c r="F30">
-        <v>6.708742598106932E-15</v>
+        <v>6.70874258859258E-15</v>
       </c>
       <c r="G30">
         <v>-1.493623723288028E-07</v>
@@ -9371,7 +9371,7 @@
         <v>-30.03151378604203</v>
       </c>
       <c r="O30">
-        <v>4.375262779279306E-05</v>
+        <v>4.375262779279307E-05</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -9379,28 +9379,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.74935678041045E-14</v>
+        <v>4.749356777867769E-14</v>
       </c>
       <c r="C31">
         <v>-7.702381406325931E-07</v>
       </c>
       <c r="D31">
-        <v>-4.333839098308063E-14</v>
+        <v>-4.333839100868203E-14</v>
       </c>
       <c r="E31">
-        <v>6.006231545398117E-07</v>
+        <v>6.006231545398118E-07</v>
       </c>
       <c r="F31">
-        <v>4.155176821023877E-15</v>
+        <v>4.155176769995658E-15</v>
       </c>
       <c r="G31">
-        <v>-1.696149860927814E-07</v>
+        <v>-1.696149860927813E-07</v>
       </c>
       <c r="H31">
         <v>1.017623214346167E-06</v>
       </c>
       <c r="I31">
-        <v>7.935312870098294E-07</v>
+        <v>7.935312870098296E-07</v>
       </c>
       <c r="J31">
         <v>1.017623214346167E-06</v>
@@ -9426,7 +9426,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.343510291241649E-15</v>
+        <v>1.343510288261588E-15</v>
       </c>
       <c r="C32">
         <v>-8.295429843678438E-08</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.343510291241649E-15</v>
+        <v>1.343510288261588E-15</v>
       </c>
       <c r="G32">
         <v>-8.295429843678438E-08</v>
@@ -9473,7 +9473,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-3.171864663476494E-15</v>
+        <v>-3.171864662906934E-15</v>
       </c>
       <c r="C33">
         <v>-9.884659034262869E-08</v>
@@ -9485,7 +9485,7 @@
         <v>-4.417182829036742E-15</v>
       </c>
       <c r="F33">
-        <v>7.407403034739504E-16</v>
+        <v>7.407403040435095E-16</v>
       </c>
       <c r="G33">
         <v>-9.884659475981151E-08</v>
@@ -9520,7 +9520,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-2.906591970316356E-16</v>
+        <v>-2.906591994742453E-16</v>
       </c>
       <c r="C34">
         <v>-2.214866333346845E-07</v>
@@ -9532,7 +9532,7 @@
         <v>-1.261444557580816E-16</v>
       </c>
       <c r="F34">
-        <v>1.791787758216501E-15</v>
+        <v>1.791787755773892E-15</v>
       </c>
       <c r="G34">
         <v>-2.21486633460829E-07</v>
@@ -9567,19 +9567,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-2.119234699128761E-14</v>
+        <v>-2.119234700135232E-14</v>
       </c>
       <c r="C35">
         <v>-3.79136500975877E-07</v>
       </c>
       <c r="D35">
-        <v>4.69123296399432E-14</v>
+        <v>4.691232963293379E-14</v>
       </c>
       <c r="E35">
         <v>2.906892121136216E-07</v>
       </c>
       <c r="F35">
-        <v>2.571998264865559E-14</v>
+        <v>2.571998263158147E-14</v>
       </c>
       <c r="G35">
         <v>-8.844728886225538E-08</v>
@@ -9614,19 +9614,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.356316728592517E-15</v>
+        <v>3.356316737223604E-15</v>
       </c>
       <c r="C36">
         <v>-2.906892034541561E-07</v>
       </c>
       <c r="D36">
-        <v>-2.524755407220078E-16</v>
+        <v>-2.524755401527824E-16</v>
       </c>
       <c r="E36">
         <v>1.272391421204309E-07</v>
       </c>
       <c r="F36">
-        <v>3.10384118787051E-15</v>
+        <v>3.103841197070822E-15</v>
       </c>
       <c r="G36">
         <v>-1.634500613337252E-07</v>
@@ -9661,10 +9661,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-8.455838992055471E-15</v>
+        <v>-8.4558389929703E-15</v>
       </c>
       <c r="C37">
-        <v>-6.361957472053149E-08</v>
+        <v>-6.36195747205315E-08</v>
       </c>
       <c r="D37">
         <v>6.966576991960111E-15</v>
@@ -9673,19 +9673,19 @@
         <v>4.594210391482432E-15</v>
       </c>
       <c r="F37">
-        <v>-1.48926200009536E-15</v>
+        <v>-1.48926200101019E-15</v>
       </c>
       <c r="G37">
-        <v>-6.361957012632109E-08</v>
+        <v>-6.361957012632111E-08</v>
       </c>
       <c r="H37">
-        <v>8.405290824228282E-08</v>
+        <v>8.405290824228283E-08</v>
       </c>
       <c r="I37">
         <v>1.102532124345964E-14</v>
       </c>
       <c r="J37">
-        <v>8.405290824228282E-08</v>
+        <v>8.405290824228283E-08</v>
       </c>
       <c r="K37">
         <v>1.050470979402002</v>
@@ -9708,10 +9708,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-8.455838992055471E-15</v>
+        <v>-8.4558389929703E-15</v>
       </c>
       <c r="C38">
-        <v>-6.361957472053149E-08</v>
+        <v>-6.36195747205315E-08</v>
       </c>
       <c r="D38">
         <v>6.966576991960111E-15</v>
@@ -9720,19 +9720,19 @@
         <v>4.594210391482432E-15</v>
       </c>
       <c r="F38">
-        <v>-1.48926200009536E-15</v>
+        <v>-1.48926200101019E-15</v>
       </c>
       <c r="G38">
-        <v>-6.361957012632109E-08</v>
+        <v>-6.361957012632111E-08</v>
       </c>
       <c r="H38">
-        <v>8.405290824228282E-08</v>
+        <v>8.405290824228283E-08</v>
       </c>
       <c r="I38">
         <v>1.102532124345964E-14</v>
       </c>
       <c r="J38">
-        <v>8.405290824228282E-08</v>
+        <v>8.405290824228283E-08</v>
       </c>
       <c r="K38">
         <v>1.050470979402002</v>
@@ -9755,19 +9755,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.124436590803238E-12</v>
+        <v>5.124436590893416E-12</v>
       </c>
       <c r="C39">
         <v>-9.366101846620066E-06</v>
       </c>
       <c r="D39">
-        <v>-4.624716305103179E-12</v>
+        <v>-4.624716305286689E-12</v>
       </c>
       <c r="E39">
         <v>9.317272251466509E-06</v>
       </c>
       <c r="F39">
-        <v>4.997202857000586E-13</v>
+        <v>4.997202856067261E-13</v>
       </c>
       <c r="G39">
         <v>-4.882959515355623E-08</v>
@@ -9802,7 +9802,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.417623020530995E-15</v>
+        <v>-1.417623021391629E-15</v>
       </c>
       <c r="C40">
         <v>-1.74265240345577E-07</v>
@@ -9814,7 +9814,7 @@
         <v>2.423249141565495E-15</v>
       </c>
       <c r="F40">
-        <v>-1.677988885566246E-17</v>
+        <v>-1.677988971629571E-17</v>
       </c>
       <c r="G40">
         <v>-1.742652379223279E-07</v>
@@ -9849,19 +9849,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.627691013663168E-12</v>
+        <v>4.627691013915657E-12</v>
       </c>
       <c r="C41">
         <v>-9.137678434389933E-06</v>
       </c>
       <c r="D41">
-        <v>-4.030650453971853E-12</v>
+        <v>-4.030650454327766E-12</v>
       </c>
       <c r="E41">
         <v>9.077789388813129E-06</v>
       </c>
       <c r="F41">
-        <v>5.970405596913151E-13</v>
+        <v>5.970405595878908E-13</v>
       </c>
       <c r="G41">
         <v>-5.988904557680404E-08</v>
@@ -9896,7 +9896,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.845310469678883E-15</v>
+        <v>1.845310466907911E-15</v>
       </c>
       <c r="C42">
         <v>-1.795937789109224E-07</v>
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.845310469678883E-15</v>
+        <v>1.845310466907911E-15</v>
       </c>
       <c r="G42">
         <v>-1.795937789109224E-07</v>
@@ -9943,22 +9943,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.38366899470906E-12</v>
+        <v>1.383668994756752E-12</v>
       </c>
       <c r="C43">
         <v>-3.506462818439192E-06</v>
       </c>
       <c r="D43">
-        <v>-1.142713246965284E-12</v>
+        <v>-1.142713247055308E-12</v>
       </c>
       <c r="E43">
         <v>3.407711140179612E-06</v>
       </c>
       <c r="F43">
-        <v>2.409557477437758E-13</v>
+        <v>2.409557477014442E-13</v>
       </c>
       <c r="G43">
-        <v>-9.875167825957966E-08</v>
+        <v>-9.875167825958008E-08</v>
       </c>
       <c r="H43">
         <v>4.632667751439076E-06</v>
@@ -9990,19 +9990,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.65415153683361E-12</v>
+        <v>2.654151537039832E-12</v>
       </c>
       <c r="C44">
         <v>-5.571326617626254E-06</v>
       </c>
       <c r="D44">
-        <v>-2.340832298403626E-12</v>
+        <v>-2.340832298284714E-12</v>
       </c>
       <c r="E44">
         <v>5.4837154995728E-06</v>
       </c>
       <c r="F44">
-        <v>3.133192384299841E-13</v>
+        <v>3.133192387551178E-13</v>
       </c>
       <c r="G44">
         <v>-8.76111180534534E-08</v>
@@ -10037,19 +10037,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.140421542151763E-12</v>
+        <v>1.140421542183636E-12</v>
       </c>
       <c r="C45">
-        <v>-3.150701273247037E-06</v>
+        <v>-3.150701273247038E-06</v>
       </c>
       <c r="D45">
-        <v>-8.89347789129633E-13</v>
+        <v>-8.893477890942297E-13</v>
       </c>
       <c r="E45">
         <v>3.022562217672898E-06</v>
       </c>
       <c r="F45">
-        <v>2.510737530221304E-13</v>
+        <v>2.510737530894059E-13</v>
       </c>
       <c r="G45">
         <v>-1.281390555741397E-07</v>
@@ -10058,7 +10058,7 @@
         <v>4.162642747309313E-06</v>
       </c>
       <c r="I45">
-        <v>3.993347969112684E-06</v>
+        <v>3.993347969112685E-06</v>
       </c>
       <c r="J45">
         <v>4.162642747309313E-06</v>
@@ -10084,19 +10084,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.385249218793122E-14</v>
+        <v>1.385249218929479E-14</v>
       </c>
       <c r="C46">
         <v>-2.570098693049501E-07</v>
       </c>
       <c r="D46">
-        <v>-1.380433596936476E-14</v>
+        <v>-1.380433597202607E-14</v>
       </c>
       <c r="E46">
         <v>1.646361910097888E-07</v>
       </c>
       <c r="F46">
-        <v>4.815621856646093E-17</v>
+        <v>4.815621726872163E-17</v>
       </c>
       <c r="G46">
         <v>-9.237367829516134E-08</v>
@@ -10131,7 +10131,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-3.069790863746303E-15</v>
+        <v>-3.069790864007942E-15</v>
       </c>
       <c r="C47">
         <v>-6.236092385846568E-08</v>
@@ -10143,7 +10143,7 @@
         <v>-6.966581727378257E-15</v>
       </c>
       <c r="F47">
-        <v>1.524414860886372E-15</v>
+        <v>1.524414860624733E-15</v>
       </c>
       <c r="G47">
         <v>-6.236093082504741E-08</v>
@@ -10178,7 +10178,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-2.511864995130966E-15</v>
+        <v>-2.511864992044683E-15</v>
       </c>
       <c r="C48">
         <v>-1.022752559445739E-07</v>
@@ -10190,7 +10190,7 @@
         <v>-3.483290867916702E-15</v>
       </c>
       <c r="F48">
-        <v>-2.147621382688629E-16</v>
+        <v>-2.147621351825799E-16</v>
       </c>
       <c r="G48">
         <v>-1.022752594278647E-07</v>
@@ -10225,22 +10225,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.97842017848541E-13</v>
+        <v>8.978420178162354E-13</v>
       </c>
       <c r="C49">
         <v>-2.869573780024826E-06</v>
       </c>
       <c r="D49">
-        <v>-7.628537374360832E-13</v>
+        <v>-7.628537375284042E-13</v>
       </c>
       <c r="E49">
         <v>2.789507560421363E-06</v>
       </c>
       <c r="F49">
-        <v>1.349882804124579E-13</v>
+        <v>1.349882802878312E-13</v>
       </c>
       <c r="G49">
-        <v>-8.006621960346338E-08</v>
+        <v>-8.00662196034638E-08</v>
       </c>
       <c r="H49">
         <v>3.791222744623526E-06</v>
@@ -10272,7 +10272,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.69456058351476E-16</v>
+        <v>7.694560589200108E-16</v>
       </c>
       <c r="C50">
         <v>-1.529884365371573E-07</v>
@@ -10284,7 +10284,7 @@
         <v>-1.615499266925395E-15</v>
       </c>
       <c r="F50">
-        <v>-1.644398493092842E-16</v>
+        <v>-1.644398487407494E-16</v>
       </c>
       <c r="G50">
         <v>-1.529884381526566E-07</v>
@@ -10319,7 +10319,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.453383938255892E-15</v>
+        <v>3.453383940559206E-15</v>
       </c>
       <c r="C51">
         <v>-1.894033685215216E-07</v>
@@ -10331,7 +10331,7 @@
         <v>-2.297102471350955E-15</v>
       </c>
       <c r="F51">
-        <v>-2.990728436175337E-17</v>
+        <v>-2.990728205843888E-17</v>
       </c>
       <c r="G51">
         <v>-1.894033708186241E-07</v>
@@ -10366,19 +10366,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.622529128261567E-13</v>
+        <v>7.62252912784925E-13</v>
       </c>
       <c r="C52">
         <v>-2.600104200014975E-06</v>
       </c>
       <c r="D52">
-        <v>-2.415030700469846E-13</v>
+        <v>-2.415030700349378E-13</v>
       </c>
       <c r="E52">
         <v>2.14819311043134E-06</v>
       </c>
       <c r="F52">
-        <v>5.207498427791722E-13</v>
+        <v>5.207498427499872E-13</v>
       </c>
       <c r="G52">
         <v>-4.519110895836347E-07</v>
@@ -10413,19 +10413,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.317879546982662E-12</v>
+        <v>2.317879547169715E-12</v>
       </c>
       <c r="C53">
         <v>-5.228929364387325E-06</v>
       </c>
       <c r="D53">
-        <v>-2.037947511890651E-12</v>
+        <v>-2.037947511703058E-12</v>
       </c>
       <c r="E53">
         <v>5.140485577162458E-06</v>
       </c>
       <c r="F53">
-        <v>2.799320350920106E-13</v>
+        <v>2.799320354666563E-13</v>
       </c>
       <c r="G53">
         <v>-8.844378722486648E-08</v>
@@ -10460,7 +10460,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.519953828905E-15</v>
+        <v>2.519953828775137E-15</v>
       </c>
       <c r="C54">
         <v>-2.547861481603435E-07</v>
@@ -10472,7 +10472,7 @@
         <v>1.615499331224337E-15</v>
       </c>
       <c r="F54">
-        <v>3.45384959590236E-15</v>
+        <v>3.453849595772497E-15</v>
       </c>
       <c r="G54">
         <v>-2.547861465448442E-07</v>
@@ -10507,19 +10507,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.031984384271872E-12</v>
+        <v>2.031984384224869E-12</v>
       </c>
       <c r="C55">
         <v>-4.827739912131371E-06</v>
       </c>
       <c r="D55">
-        <v>-1.212080068068279E-12</v>
+        <v>-1.212080067983143E-12</v>
       </c>
       <c r="E55">
         <v>4.512065877492139E-06</v>
       </c>
       <c r="F55">
-        <v>8.199043162035924E-13</v>
+        <v>8.199043162417253E-13</v>
       </c>
       <c r="G55">
         <v>-3.156740346392319E-07</v>
@@ -10554,19 +10554,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.37809137447031E-15</v>
+        <v>2.378091368426212E-15</v>
       </c>
       <c r="C56">
         <v>-3.127456414049277E-07</v>
       </c>
       <c r="D56">
-        <v>2.961378881907931E-15</v>
+        <v>2.961378884577306E-15</v>
       </c>
       <c r="E56">
         <v>1.845918569473329E-07</v>
       </c>
       <c r="F56">
-        <v>5.339470256378242E-15</v>
+        <v>5.339470253003518E-15</v>
       </c>
       <c r="G56">
         <v>-1.281537844575948E-07</v>
@@ -10601,7 +10601,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.149159409312305E-15</v>
+        <v>3.149159407802809E-15</v>
       </c>
       <c r="C57">
         <v>-6.699724223470675E-08</v>
@@ -10613,7 +10613,7 @@
         <v>5.098790347138549E-15</v>
       </c>
       <c r="F57">
-        <v>1.785952544678466E-15</v>
+        <v>1.785952543168969E-15</v>
       </c>
       <c r="G57">
         <v>-6.69972371359164E-08</v>
@@ -10648,7 +10648,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-1.516332812367553E-15</v>
+        <v>-1.516332813525039E-15</v>
       </c>
       <c r="C58">
         <v>-1.175946216792083E-07</v>
@@ -10660,7 +10660,7 @@
         <v>-2.549395175624047E-15</v>
       </c>
       <c r="F58">
-        <v>-8.34729385903634E-16</v>
+        <v>-8.347293870611194E-16</v>
       </c>
       <c r="G58">
         <v>-1.175946242286035E-07</v>
@@ -10695,7 +10695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-5.072859092342764E-15</v>
+        <v>-5.07285909376743E-15</v>
       </c>
       <c r="C59">
         <v>-1.256529744755253E-07</v>
@@ -10707,7 +10707,7 @@
         <v>-1.867792354145341E-15</v>
       </c>
       <c r="F59">
-        <v>-1.841860642644992E-15</v>
+        <v>-1.841860644069658E-15</v>
       </c>
       <c r="G59">
         <v>-1.256529763433176E-07</v>
@@ -10742,28 +10742,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.137692359644063E-12</v>
+        <v>1.137692359689263E-12</v>
       </c>
       <c r="C60">
         <v>-4.386412917432018E-06</v>
       </c>
       <c r="D60">
-        <v>-1.027027425252433E-12</v>
+        <v>-1.027027425306041E-12</v>
       </c>
       <c r="E60">
-        <v>4.351175471368641E-06</v>
+        <v>4.351175471368642E-06</v>
       </c>
       <c r="F60">
-        <v>1.106649343916296E-13</v>
+        <v>1.106649343832223E-13</v>
       </c>
       <c r="G60">
-        <v>-3.523744606337732E-08</v>
+        <v>-3.523744606337648E-08</v>
       </c>
       <c r="H60">
         <v>5.795239577461836E-06</v>
       </c>
       <c r="I60">
-        <v>5.748684551851411E-06</v>
+        <v>5.748684551851412E-06</v>
       </c>
       <c r="J60">
         <v>5.795239577461836E-06</v>
@@ -10789,19 +10789,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.492581247706801E-13</v>
+        <v>2.492581247638254E-13</v>
       </c>
       <c r="C61">
         <v>-1.949895704662546E-06</v>
       </c>
       <c r="D61">
-        <v>-1.279834071947616E-13</v>
+        <v>-1.279834071636099E-13</v>
       </c>
       <c r="E61">
         <v>1.787021527689313E-06</v>
       </c>
       <c r="F61">
-        <v>1.212747175759185E-13</v>
+        <v>1.212747176002155E-13</v>
       </c>
       <c r="G61">
         <v>-1.628741769732323E-07</v>
@@ -10836,7 +10836,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.40488793673608E-15</v>
+        <v>2.404887937594798E-15</v>
       </c>
       <c r="C62">
         <v>-1.982974105644236E-07</v>
@@ -10848,7 +10848,7 @@
         <v>1.741645925810044E-15</v>
       </c>
       <c r="F62">
-        <v>1.256337044632348E-15</v>
+        <v>1.256337045491065E-15</v>
       </c>
       <c r="G62">
         <v>-1.982974088227776E-07</v>
@@ -10883,19 +10883,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-2.058058689484451E-15</v>
+        <v>-2.058058685557767E-15</v>
       </c>
       <c r="C63">
         <v>-2.700151898788485E-07</v>
       </c>
       <c r="D63">
-        <v>6.956101894391402E-15</v>
+        <v>6.956101891975979E-15</v>
       </c>
       <c r="E63">
         <v>1.467055660494867E-07</v>
       </c>
       <c r="F63">
-        <v>4.89804320490695E-15</v>
+        <v>4.898043206418212E-15</v>
       </c>
       <c r="G63">
         <v>-1.233096238293618E-07</v>
@@ -10930,28 +10930,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.249426748517533E-13</v>
+        <v>1.249426748811722E-13</v>
       </c>
       <c r="C64">
         <v>-1.51700633917367E-06</v>
       </c>
       <c r="D64">
-        <v>-4.219891408743527E-14</v>
+        <v>-4.219891409757264E-14</v>
       </c>
       <c r="E64">
         <v>1.324323976418724E-06</v>
       </c>
       <c r="F64">
-        <v>8.274376076431805E-14</v>
+        <v>8.274376078359951E-14</v>
       </c>
       <c r="G64">
-        <v>-1.926823627549463E-07</v>
+        <v>-1.926823627549461E-07</v>
       </c>
       <c r="H64">
         <v>2.004237937680802E-06</v>
       </c>
       <c r="I64">
-        <v>1.749669901170282E-06</v>
+        <v>1.749669901170283E-06</v>
       </c>
       <c r="J64">
         <v>2.004237937680802E-06</v>
@@ -10977,7 +10977,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.619901834336704E-15</v>
+        <v>3.619901837134371E-15</v>
       </c>
       <c r="C65">
         <v>-8.013464049760162E-08</v>
@@ -10989,7 +10989,7 @@
         <v>3.735586006256837E-15</v>
       </c>
       <c r="F65">
-        <v>-2.84209431833511E-15</v>
+        <v>-2.842094315537443E-15</v>
       </c>
       <c r="G65">
         <v>-8.013463676201561E-08</v>
@@ -11024,7 +11024,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.237077454824096E-15</v>
+        <v>1.237077456023266E-15</v>
       </c>
       <c r="C66">
         <v>-6.657092375937145E-08</v>
@@ -11036,7 +11036,7 @@
         <v>-5.098791078588783E-15</v>
       </c>
       <c r="F66">
-        <v>2.600282530525567E-15</v>
+        <v>2.600282531724736E-15</v>
       </c>
       <c r="G66">
         <v>-6.657092885816252E-08</v>
@@ -11071,19 +11071,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-7.359845508830533E-15</v>
+        <v>-7.35984552132455E-15</v>
       </c>
       <c r="C67">
         <v>-2.842595972205271E-07</v>
       </c>
       <c r="D67">
-        <v>1.170966577627779E-14</v>
+        <v>1.170966577722626E-14</v>
       </c>
       <c r="E67">
         <v>1.56372219259786E-07</v>
       </c>
       <c r="F67">
-        <v>4.349820267447256E-15</v>
+        <v>4.349820255901712E-15</v>
       </c>
       <c r="G67">
         <v>-1.278873779607411E-07</v>
@@ -11118,19 +11118,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.961347137681771E-14</v>
+        <v>3.961347138598771E-14</v>
       </c>
       <c r="C68">
         <v>-1.040064377759712E-06</v>
       </c>
       <c r="D68">
-        <v>-1.193331356310907E-14</v>
+        <v>-1.193331356246877E-14</v>
       </c>
       <c r="E68">
         <v>8.846881800065601E-07</v>
       </c>
       <c r="F68">
-        <v>2.768015781370864E-14</v>
+        <v>2.768015782351894E-14</v>
       </c>
       <c r="G68">
         <v>-1.553761977531516E-07</v>
@@ -11165,7 +11165,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>8.818208603897864E-15</v>
+        <v>8.818208605209411E-15</v>
       </c>
       <c r="C69">
         <v>-7.985627208076198E-08</v>
@@ -11177,7 +11177,7 @@
         <v>2.372381616551512E-15</v>
       </c>
       <c r="F69">
-        <v>-2.742578597061672E-15</v>
+        <v>-2.742578595750125E-15</v>
       </c>
       <c r="G69">
         <v>-7.985626970838036E-08</v>
@@ -11212,7 +11212,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.197079628226416E-15</v>
+        <v>8.197079626655081E-15</v>
       </c>
       <c r="C70">
         <v>-7.651594223079325E-08</v>
@@ -11224,7 +11224,7 @@
         <v>-2.726409588451927E-15</v>
       </c>
       <c r="F70">
-        <v>-2.000502778702162E-15</v>
+        <v>-2.000502780273497E-15</v>
       </c>
       <c r="G70">
         <v>-7.651594495720283E-08</v>
@@ -11259,19 +11259,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.70266842827588E-14</v>
+        <v>2.702668429077143E-14</v>
       </c>
       <c r="C71">
         <v>-5.837003337235189E-07</v>
       </c>
       <c r="D71">
-        <v>-1.664348635585756E-14</v>
+        <v>-1.664348635071168E-14</v>
       </c>
       <c r="E71">
         <v>4.960987715033855E-07</v>
       </c>
       <c r="F71">
-        <v>1.038319792690124E-14</v>
+        <v>1.038319794005975E-14</v>
       </c>
       <c r="G71">
         <v>-8.760156222013335E-08</v>
@@ -11306,19 +11306,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-1.664790238859785E-15</v>
+        <v>-1.664790249537744E-15</v>
       </c>
       <c r="C72">
         <v>-3.00987845424425E-07</v>
       </c>
       <c r="D72">
-        <v>4.584398968140736E-15</v>
+        <v>4.58439896795691E-15</v>
       </c>
       <c r="E72">
         <v>1.36443782961265E-07</v>
       </c>
       <c r="F72">
-        <v>2.919608729280951E-15</v>
+        <v>2.919608718419166E-15</v>
       </c>
       <c r="G72">
         <v>-1.6454406246316E-07</v>
@@ -11353,7 +11353,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.797496741557051E-15</v>
+        <v>5.797496741148839E-15</v>
       </c>
       <c r="C73">
         <v>-6.415222939222339E-08</v>
@@ -11365,7 +11365,7 @@
         <v>1.867793324407304E-15</v>
       </c>
       <c r="F73">
-        <v>2.566498789711675E-15</v>
+        <v>2.566498789303463E-15</v>
       </c>
       <c r="G73">
         <v>-6.415222752443007E-08</v>
@@ -11400,10 +11400,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-2.519054809310608E-15</v>
+        <v>-2.519054810155917E-15</v>
       </c>
       <c r="C74">
-        <v>-7.229155488137978E-08</v>
+        <v>-7.22915548813798E-08</v>
       </c>
       <c r="D74">
         <v>2.297101288719956E-15</v>
@@ -11412,19 +11412,19 @@
         <v>-3.483292301044453E-15</v>
       </c>
       <c r="F74">
-        <v>-2.219535205906523E-16</v>
+        <v>-2.219535214359613E-16</v>
       </c>
       <c r="G74">
-        <v>-7.229155836467208E-08</v>
+        <v>-7.22915583646721E-08</v>
       </c>
       <c r="H74">
-        <v>9.551013131461846E-08</v>
+        <v>9.551013131461848E-08</v>
       </c>
       <c r="I74">
         <v>5.512660621729818E-15</v>
       </c>
       <c r="J74">
-        <v>9.551013131461846E-08</v>
+        <v>9.551013131461848E-08</v>
       </c>
       <c r="K74">
         <v>1.050471237580179</v>
@@ -11439,7 +11439,7 @@
         <v>-30.03158760236232</v>
       </c>
       <c r="O74">
-        <v>9.551013131461846E-06</v>
+        <v>9.551013131461847E-06</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -11447,7 +11447,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.134091421737133E-16</v>
+        <v>5.134091406939424E-16</v>
       </c>
       <c r="C75">
         <v>-1.806044704173663E-07</v>
@@ -11459,7 +11459,7 @@
         <v>1.741646149995769E-15</v>
       </c>
       <c r="F75">
-        <v>-6.351415056067197E-16</v>
+        <v>-6.351415070864906E-16</v>
       </c>
       <c r="G75">
         <v>-1.806044686757202E-07</v>
@@ -11494,31 +11494,31 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.263011462925598E-15</v>
+        <v>1.26301146471079E-15</v>
       </c>
       <c r="C76">
-        <v>-3.154943118899234E-07</v>
+        <v>-3.154943118899235E-07</v>
       </c>
       <c r="D76">
-        <v>-4.114012713853213E-15</v>
+        <v>-4.114012713596827E-15</v>
       </c>
       <c r="E76">
         <v>1.925974391771809E-07</v>
       </c>
       <c r="F76">
-        <v>-2.851001250927615E-15</v>
+        <v>-2.851001248886036E-15</v>
       </c>
       <c r="G76">
         <v>-1.228968727127425E-07</v>
       </c>
       <c r="H76">
-        <v>4.168246650949112E-07</v>
+        <v>4.168246650949113E-07</v>
       </c>
       <c r="I76">
         <v>2.544558173496806E-07</v>
       </c>
       <c r="J76">
-        <v>4.168246650949112E-07</v>
+        <v>4.168246650949113E-07</v>
       </c>
       <c r="K76">
         <v>1.050471237754493</v>
@@ -11533,7 +11533,7 @@
         <v>-30.03158741314854</v>
       </c>
       <c r="O76">
-        <v>4.168246650949112E-05</v>
+        <v>4.168246650949114E-05</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -11541,7 +11541,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.195352909946141E-15</v>
+        <v>2.195352904754226E-15</v>
       </c>
       <c r="C77">
         <v>-1.925974294465467E-07</v>
@@ -11553,7 +11553,7 @@
         <v>-8.077494860736781E-16</v>
       </c>
       <c r="F77">
-        <v>1.728404572229165E-15</v>
+        <v>1.72840456703725E-15</v>
       </c>
       <c r="G77">
         <v>-1.925974302542962E-07</v>
@@ -11588,19 +11588,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.16116388274632E-12</v>
+        <v>1.161163882666077E-12</v>
       </c>
       <c r="C78">
         <v>-4.162610658213021E-06</v>
       </c>
       <c r="D78">
-        <v>-1.055445930357198E-12</v>
+        <v>-1.055445930345182E-12</v>
       </c>
       <c r="E78">
         <v>4.105322439500741E-06</v>
       </c>
       <c r="F78">
-        <v>1.057179523891223E-13</v>
+        <v>1.057179523208952E-13</v>
       </c>
       <c r="G78">
         <v>-5.728821871227985E-08</v>
@@ -11635,7 +11635,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.429155460772189E-15</v>
+        <v>3.429155457865016E-15</v>
       </c>
       <c r="C79">
         <v>-1.885647504257933E-07</v>
@@ -11647,19 +11647,19 @@
         <v>-1.61549921156069E-15</v>
       </c>
       <c r="F79">
-        <v>2.495259241011183E-15</v>
+        <v>2.49525923810401E-15</v>
       </c>
       <c r="G79">
-        <v>-1.885647520412925E-07</v>
+        <v>-1.885647520412926E-07</v>
       </c>
       <c r="H79">
-        <v>2.491279138084215E-07</v>
+        <v>2.491279138084216E-07</v>
       </c>
       <c r="I79">
         <v>2.465336777414826E-15</v>
       </c>
       <c r="J79">
-        <v>2.491279138084215E-07</v>
+        <v>2.491279138084216E-07</v>
       </c>
       <c r="K79">
         <v>1.050471227134322</v>
@@ -11674,7 +11674,7 @@
         <v>-30.03157220395519</v>
       </c>
       <c r="O79">
-        <v>2.491279138084215E-05</v>
+        <v>2.491279138084216E-05</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -11682,7 +11682,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9.508335262178646E-17</v>
+        <v>9.508335879257201E-17</v>
       </c>
       <c r="C80">
         <v>-1.680336515512559E-07</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>9.508335262178646E-17</v>
+        <v>9.508335879257201E-17</v>
       </c>
       <c r="G80">
         <v>-1.680336515512559E-07</v>
@@ -11729,28 +11729,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.039903920166705E-12</v>
+        <v>1.039903920260892E-12</v>
       </c>
       <c r="C81">
         <v>-3.937288822127262E-06</v>
       </c>
       <c r="D81">
-        <v>-8.482802850078117E-13</v>
+        <v>-8.482802850761494E-13</v>
       </c>
       <c r="E81">
-        <v>3.828232524148996E-06</v>
+        <v>3.828232524148997E-06</v>
       </c>
       <c r="F81">
-        <v>1.916236351588935E-13</v>
+        <v>1.916236351847421E-13</v>
       </c>
       <c r="G81">
-        <v>-1.09056297978266E-07</v>
+        <v>-1.090562979782652E-07</v>
       </c>
       <c r="H81">
         <v>5.201865887988046E-06</v>
       </c>
       <c r="I81">
-        <v>5.05778285760881E-06</v>
+        <v>5.057782857608811E-06</v>
       </c>
       <c r="J81">
         <v>5.201865887988046E-06</v>
@@ -11776,19 +11776,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8.897782732962843E-13</v>
+        <v>8.897782732643868E-13</v>
       </c>
       <c r="C82">
         <v>-3.663025399807653E-06</v>
       </c>
       <c r="D82">
-        <v>-8.558414006326842E-13</v>
+        <v>-8.558414007106321E-13</v>
       </c>
       <c r="E82">
         <v>3.630615058882715E-06</v>
       </c>
       <c r="F82">
-        <v>3.393687266360005E-14</v>
+        <v>3.393687255375477E-14</v>
       </c>
       <c r="G82">
         <v>-3.241034092493724E-08</v>
@@ -11823,7 +11823,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.271045044662206E-15</v>
+        <v>2.271045046452434E-15</v>
       </c>
       <c r="C83">
         <v>-1.652071194683865E-07</v>
@@ -11835,7 +11835,7 @@
         <v>9.338963634598519E-16</v>
       </c>
       <c r="F83">
-        <v>6.555458711744482E-16</v>
+        <v>6.555458729646757E-16</v>
       </c>
       <c r="G83">
         <v>-1.652071185344901E-07</v>
@@ -11870,19 +11870,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.981966595928952E-13</v>
+        <v>7.981966596135942E-13</v>
       </c>
       <c r="C84">
         <v>-3.179620978935242E-06</v>
       </c>
       <c r="D84">
-        <v>-6.641061972585937E-13</v>
+        <v>-6.641061973521539E-13</v>
       </c>
       <c r="E84">
         <v>3.064078032738053E-06</v>
       </c>
       <c r="F84">
-        <v>1.340904623343015E-13</v>
+        <v>1.340904622614403E-13</v>
       </c>
       <c r="G84">
         <v>-1.15542946197189E-07</v>
@@ -11917,31 +11917,31 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.011366235514559E-14</v>
+        <v>1.011366235362449E-14</v>
       </c>
       <c r="C85">
         <v>-4.509940503150828E-07</v>
       </c>
       <c r="D85">
-        <v>2.906067233405531E-15</v>
+        <v>2.906067238128233E-15</v>
       </c>
       <c r="E85">
         <v>2.687355526825225E-07</v>
       </c>
       <c r="F85">
-        <v>1.301972958855112E-14</v>
+        <v>1.301972959175272E-14</v>
       </c>
       <c r="G85">
         <v>-1.822584976325603E-07</v>
       </c>
       <c r="H85">
-        <v>5.958441535587829E-07</v>
+        <v>5.958441535587828E-07</v>
       </c>
       <c r="I85">
         <v>3.550479377811167E-07</v>
       </c>
       <c r="J85">
-        <v>5.958441535587829E-07</v>
+        <v>5.958441535587828E-07</v>
       </c>
       <c r="K85">
         <v>1.05047125318711</v>
@@ -11956,7 +11956,7 @@
         <v>-30.0315789123933</v>
       </c>
       <c r="O85">
-        <v>5.958441535587829E-05</v>
+        <v>5.958441535587828E-05</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -11964,7 +11964,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.033202944398637E-15</v>
+        <v>2.033202946881834E-15</v>
       </c>
       <c r="C86">
         <v>-1.173006739385927E-07</v>
@@ -11976,7 +11976,7 @@
         <v>-1.615499142450695E-15</v>
       </c>
       <c r="F86">
-        <v>1.099306504786744E-15</v>
+        <v>1.099306507269941E-15</v>
       </c>
       <c r="G86">
         <v>-1.173006755540919E-07</v>
@@ -12011,22 +12011,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.251143228335462E-15</v>
+        <v>3.251143230843781E-15</v>
       </c>
       <c r="C87">
         <v>-1.514348608472923E-07</v>
       </c>
       <c r="D87">
-        <v>-1.309287527752994E-14</v>
+        <v>-1.309287527829905E-14</v>
       </c>
       <c r="E87">
         <v>1.23935953523926E-07</v>
       </c>
       <c r="F87">
-        <v>-9.841732049194479E-15</v>
+        <v>-9.84173204745527E-15</v>
       </c>
       <c r="G87">
-        <v>-2.74989073233663E-08</v>
+        <v>-2.749890732336627E-08</v>
       </c>
       <c r="H87">
         <v>2.000726532656439E-07</v>
@@ -12058,7 +12058,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.520977821875783E-15</v>
+        <v>6.520977822514351E-15</v>
       </c>
       <c r="C88">
         <v>-3.383638886894806E-08</v>
@@ -12070,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6.520977821875783E-15</v>
+        <v>6.520977822514351E-15</v>
       </c>
       <c r="G88">
         <v>-3.383638886894806E-08</v>
@@ -12105,7 +12105,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-2.767066916534504E-15</v>
+        <v>-2.767066914749602E-15</v>
       </c>
       <c r="C89">
         <v>-9.00995808099694E-08</v>
@@ -12117,7 +12117,7 @@
         <v>3.23099828411616E-15</v>
       </c>
       <c r="F89">
-        <v>-8.992740356759001E-16</v>
+        <v>-8.992740338909982E-16</v>
       </c>
       <c r="G89">
         <v>-9.009957757897111E-08</v>
@@ -12152,19 +12152,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-8.337929739322794E-15</v>
+        <v>-8.337929744124811E-15</v>
       </c>
       <c r="C90">
         <v>-2.634877865079116E-07</v>
       </c>
       <c r="D90">
-        <v>1.011603038133342E-14</v>
+        <v>1.011603037729997E-14</v>
       </c>
       <c r="E90">
         <v>1.657642201950566E-07</v>
       </c>
       <c r="F90">
-        <v>1.778100642010631E-15</v>
+        <v>1.778100633175155E-15</v>
       </c>
       <c r="G90">
         <v>-9.772356631285503E-08</v>
@@ -12199,22 +12199,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.616402204983734E-13</v>
+        <v>6.616402205072161E-13</v>
       </c>
       <c r="C91">
-        <v>-2.800590231363076E-06</v>
+        <v>-2.800590231363077E-06</v>
       </c>
       <c r="D91">
-        <v>-5.402782071775152E-13</v>
+        <v>-5.402782071318515E-13</v>
       </c>
       <c r="E91">
         <v>2.674298943308488E-06</v>
       </c>
       <c r="F91">
-        <v>1.213620133208582E-13</v>
+        <v>1.213620133753645E-13</v>
       </c>
       <c r="G91">
-        <v>-1.262912880545884E-07</v>
+        <v>-1.262912880545889E-07</v>
       </c>
       <c r="H91">
         <v>3.700082729537554E-06</v>
@@ -12246,7 +12246,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.730040798196833E-15</v>
+        <v>6.730040798757573E-15</v>
       </c>
       <c r="C92">
         <v>-7.74793280122216E-08</v>
@@ -12258,7 +12258,7 @@
         <v>5.045876349695778E-16</v>
       </c>
       <c r="F92">
-        <v>-1.599748721556702E-15</v>
+        <v>-1.599748720995962E-15</v>
       </c>
       <c r="G92">
         <v>-7.747932750763396E-08</v>
@@ -12293,7 +12293,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.176713191925598E-15</v>
+        <v>1.176713194864158E-15</v>
       </c>
       <c r="C93">
         <v>-8.828489829080145E-08</v>
@@ -12305,7 +12305,7 @@
         <v>1.615499140089542E-15</v>
       </c>
       <c r="F93">
-        <v>2.110609671653134E-15</v>
+        <v>2.110609674591693E-15</v>
       </c>
       <c r="G93">
         <v>-8.82848966753023E-08</v>
@@ -12340,7 +12340,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8.394234017795147E-16</v>
+        <v>8.394234077980694E-16</v>
       </c>
       <c r="C94">
         <v>-1.796772207593425E-07</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>8.394234017795147E-16</v>
+        <v>8.394234077980694E-16</v>
       </c>
       <c r="G94">
         <v>-1.796772207593425E-07</v>
@@ -12387,19 +12387,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.757303483644121E-13</v>
+        <v>4.757303484457664E-13</v>
       </c>
       <c r="C95">
         <v>-2.494621780556555E-06</v>
       </c>
       <c r="D95">
-        <v>-4.478041826425468E-13</v>
+        <v>-4.478041826134915E-13</v>
       </c>
       <c r="E95">
         <v>2.468336184892748E-06</v>
       </c>
       <c r="F95">
-        <v>2.792616572186532E-14</v>
+        <v>2.79261658322749E-14</v>
       </c>
       <c r="G95">
         <v>-2.628559566380745E-08</v>
@@ -12434,19 +12434,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.547178550816584E-13</v>
+        <v>4.547178551661614E-13</v>
       </c>
       <c r="C96">
         <v>-2.468336098363854E-06</v>
       </c>
       <c r="D96">
-        <v>-3.248773303735032E-13</v>
+        <v>-3.248773304605668E-13</v>
       </c>
       <c r="E96">
         <v>2.363577700604756E-06</v>
       </c>
       <c r="F96">
-        <v>1.298405247081552E-13</v>
+        <v>1.298405247055947E-13</v>
       </c>
       <c r="G96">
         <v>-1.047583977590974E-07</v>
@@ -12481,22 +12481,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.267306777432485E-13</v>
+        <v>3.267306776917109E-13</v>
       </c>
       <c r="C97">
         <v>-2.055210385498701E-06</v>
       </c>
       <c r="D97">
-        <v>-1.832064998848337E-13</v>
+        <v>-1.832064998548826E-13</v>
       </c>
       <c r="E97">
         <v>1.872279127806777E-06</v>
       </c>
       <c r="F97">
-        <v>1.435241778584149E-13</v>
+        <v>1.435241778368284E-13</v>
       </c>
       <c r="G97">
-        <v>-1.829312576919236E-07</v>
+        <v>-1.829312576919234E-07</v>
       </c>
       <c r="H97">
         <v>2.715302012137957E-06</v>
@@ -12528,22 +12528,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>3.674752412365667E-15</v>
+        <v>3.674752425327807E-15</v>
       </c>
       <c r="C98">
-        <v>-3.083673204571413E-07</v>
+        <v>-3.083673204571412E-07</v>
       </c>
       <c r="D98">
-        <v>3.139375947160946E-16</v>
+        <v>3.139375956309654E-16</v>
       </c>
       <c r="E98">
         <v>1.554074159146053E-07</v>
       </c>
       <c r="F98">
-        <v>3.988690007081762E-15</v>
+        <v>3.988690020958772E-15</v>
       </c>
       <c r="G98">
-        <v>-1.52959904542536E-07</v>
+        <v>-1.529599045425359E-07</v>
       </c>
       <c r="H98">
         <v>4.074086096600181E-07</v>
@@ -12575,7 +12575,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-5.096489137740509E-15</v>
+        <v>-5.09648913916546E-15</v>
       </c>
       <c r="C99">
         <v>-3.910023336611427E-08</v>
@@ -12587,7 +12587,7 @@
         <v>6.461996302922055E-15</v>
       </c>
       <c r="F99">
-        <v>-1.360902448192078E-15</v>
+        <v>-1.360902449617029E-15</v>
       </c>
       <c r="G99">
         <v>-3.910022690411796E-08</v>
@@ -12622,7 +12622,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>3.34406633592184E-15</v>
+        <v>3.344066337407989E-15</v>
       </c>
       <c r="C100">
         <v>-1.163071924937797E-07</v>
@@ -12634,7 +12634,7 @@
         <v>2.549395750757296E-15</v>
       </c>
       <c r="F100">
-        <v>2.662463940097538E-15</v>
+        <v>2.662463941583688E-15</v>
       </c>
       <c r="G100">
         <v>-1.16307189944384E-07</v>
@@ -12669,19 +12669,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.835241700018136E-15</v>
+        <v>2.835241694729344E-15</v>
       </c>
       <c r="C101">
         <v>-2.854990181511969E-07</v>
       </c>
       <c r="D101">
-        <v>7.772780238075652E-16</v>
+        <v>7.772780179185497E-16</v>
       </c>
       <c r="E101">
         <v>1.503913928925698E-07</v>
       </c>
       <c r="F101">
-        <v>3.612519723825701E-15</v>
+        <v>3.612519712647894E-15</v>
       </c>
       <c r="G101">
         <v>-1.35107625258627E-07</v>
@@ -12716,19 +12716,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.796520151660196E-13</v>
+        <v>1.796520151727715E-13</v>
       </c>
       <c r="C102">
         <v>-1.586780114628224E-06</v>
       </c>
       <c r="D102">
-        <v>-8.656831727968297E-14</v>
+        <v>-8.65683172873898E-14</v>
       </c>
       <c r="E102">
         <v>1.382720301636383E-06</v>
       </c>
       <c r="F102">
-        <v>9.30836978863366E-14</v>
+        <v>9.308369788538171E-14</v>
       </c>
       <c r="G102">
         <v>-2.040598129918415E-07</v>
@@ -12763,7 +12763,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.367357455962891E-15</v>
+        <v>4.367357454241429E-15</v>
       </c>
       <c r="C103">
         <v>-8.132492280416455E-08</v>
@@ -12775,7 +12775,7 @@
         <v>2.522945709388474E-16</v>
       </c>
       <c r="F103">
-        <v>2.024626018095996E-16</v>
+        <v>2.024626000881379E-16</v>
       </c>
       <c r="G103">
         <v>-8.132492255186997E-08</v>
@@ -12810,7 +12810,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.135395250925961E-15</v>
+        <v>7.1353952498546E-15</v>
       </c>
       <c r="C104">
         <v>-6.906646748814362E-08</v>
@@ -12822,7 +12822,7 @@
         <v>-1.36320445884531E-15</v>
       </c>
       <c r="F104">
-        <v>2.03660359837764E-15</v>
+        <v>2.036603597306278E-15</v>
       </c>
       <c r="G104">
         <v>-6.906646885134809E-08</v>
@@ -12857,19 +12857,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>8.422056667832287E-15</v>
+        <v>8.422056654905095E-15</v>
       </c>
       <c r="C105">
         <v>-2.838947645441042E-07</v>
       </c>
       <c r="D105">
-        <v>-6.144469312739056E-15</v>
+        <v>-6.144469313845461E-15</v>
       </c>
       <c r="E105">
         <v>1.534290797285526E-07</v>
       </c>
       <c r="F105">
-        <v>2.277587355093231E-15</v>
+        <v>2.277587341059635E-15</v>
       </c>
       <c r="G105">
         <v>-1.304656848155515E-07</v>
@@ -12904,28 +12904,28 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.304746883820412E-14</v>
+        <v>7.304746885332838E-14</v>
       </c>
       <c r="C106">
         <v>-1.098825538455483E-06</v>
       </c>
       <c r="D106">
-        <v>-2.534727332878712E-14</v>
+        <v>-2.5347273323069E-14</v>
       </c>
       <c r="E106">
-        <v>8.653268527807679E-07</v>
+        <v>8.653268527807678E-07</v>
       </c>
       <c r="F106">
-        <v>4.7700195509417E-14</v>
+        <v>4.770019553025937E-14</v>
       </c>
       <c r="G106">
-        <v>-2.334986856747153E-07</v>
+        <v>-2.334986856747152E-07</v>
       </c>
       <c r="H106">
         <v>1.451745841660537E-06</v>
       </c>
       <c r="I106">
-        <v>1.143252142226619E-06</v>
+        <v>1.143252142226618E-06</v>
       </c>
       <c r="J106">
         <v>1.451745841660537E-06</v>
@@ -12951,7 +12951,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.334997921141654E-15</v>
+        <v>1.334997921110999E-15</v>
       </c>
       <c r="C107">
         <v>-8.55388742427512E-08</v>
@@ -12963,7 +12963,7 @@
         <v>-1.363204155274521E-15</v>
       </c>
       <c r="F107">
-        <v>-3.763793866822673E-15</v>
+        <v>-3.763793866853328E-15</v>
       </c>
       <c r="G107">
         <v>-8.553887560595536E-08</v>
@@ -12998,10 +12998,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8.292764198878463E-15</v>
+        <v>8.292764197786454E-15</v>
       </c>
       <c r="C108">
-        <v>-6.789020318870036E-08</v>
+        <v>-6.789020318870038E-08</v>
       </c>
       <c r="D108">
         <v>-6.46199594544122E-15</v>
@@ -13010,19 +13010,19 @@
         <v>3.735587628104556E-15</v>
       </c>
       <c r="F108">
-        <v>1.830768253437244E-15</v>
+        <v>1.830768252345234E-15</v>
       </c>
       <c r="G108">
-        <v>-6.789019945311273E-08</v>
+        <v>-6.789019945311275E-08</v>
       </c>
       <c r="H108">
-        <v>8.969514869415653E-08</v>
+        <v>8.969514869415654E-08</v>
       </c>
       <c r="I108">
         <v>9.861347109659303E-15</v>
       </c>
       <c r="J108">
-        <v>8.969514869415653E-08</v>
+        <v>8.969514869415654E-08</v>
       </c>
       <c r="K108">
         <v>1.050471311634445</v>
@@ -13045,19 +13045,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-6.975325452713126E-15</v>
+        <v>-6.975325456923721E-15</v>
       </c>
       <c r="C109">
         <v>-5.149618059853288E-07</v>
       </c>
       <c r="D109">
-        <v>1.323345370942593E-14</v>
+        <v>1.323345370546636E-14</v>
       </c>
       <c r="E109">
         <v>4.813282136843337E-07</v>
       </c>
       <c r="F109">
-        <v>6.258128256712806E-15</v>
+        <v>6.258128248542634E-15</v>
       </c>
       <c r="G109">
         <v>-3.363359230099514E-08</v>
@@ -13092,28 +13092,28 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2.346726924985654E-14</v>
+        <v>2.346726924220229E-14</v>
       </c>
       <c r="C110">
         <v>-4.813281874823261E-07</v>
       </c>
       <c r="D110">
-        <v>-2.19640405665786E-14</v>
+        <v>-2.196404055531333E-14</v>
       </c>
       <c r="E110">
-        <v>3.236278074818824E-07</v>
+        <v>3.236278074818823E-07</v>
       </c>
       <c r="F110">
-        <v>1.503228683277937E-15</v>
+        <v>1.503228686888967E-15</v>
       </c>
       <c r="G110">
-        <v>-1.577003800004437E-07</v>
+        <v>-1.577003800004438E-07</v>
       </c>
       <c r="H110">
         <v>6.359209579445327E-07</v>
       </c>
       <c r="I110">
-        <v>4.275704400365428E-07</v>
+        <v>4.275704400365427E-07</v>
       </c>
       <c r="J110">
         <v>6.359209579445327E-07</v>
@@ -13139,19 +13139,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>8.068510330194923E-15</v>
+        <v>8.068510341498898E-15</v>
       </c>
       <c r="C111">
         <v>-3.236278091482457E-07</v>
       </c>
       <c r="D111">
-        <v>-3.219600661056888E-15</v>
+        <v>-3.219600661707095E-15</v>
       </c>
       <c r="E111">
         <v>2.021462849601637E-07</v>
       </c>
       <c r="F111">
-        <v>4.848909669138036E-15</v>
+        <v>4.848909679791802E-15</v>
       </c>
       <c r="G111">
         <v>-1.21481524188082E-07</v>
@@ -13186,19 +13186,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.156217306002942E-15</v>
+        <v>7.156217302045515E-15</v>
       </c>
       <c r="C112">
         <v>-3.503650344024834E-07</v>
       </c>
       <c r="D112">
-        <v>-2.355932767577011E-15</v>
+        <v>-2.355932763395114E-15</v>
       </c>
       <c r="E112">
         <v>2.211121810256847E-07</v>
       </c>
       <c r="F112">
-        <v>4.800284538425931E-15</v>
+        <v>4.800284538650402E-15</v>
       </c>
       <c r="G112">
         <v>-1.292528533767988E-07</v>
@@ -13233,7 +13233,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-5.381444246160489E-15</v>
+        <v>-5.381444244782129E-15</v>
       </c>
       <c r="C113">
         <v>-9.009107309375831E-08</v>
@@ -13245,7 +13245,7 @@
         <v>1.363203833330723E-15</v>
       </c>
       <c r="F113">
-        <v>-2.826523162677195E-16</v>
+        <v>-2.826523148893587E-16</v>
       </c>
       <c r="G113">
         <v>-9.009107173055448E-08</v>
@@ -13280,7 +13280,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.344243848243751E-15</v>
+        <v>-1.344243846158591E-15</v>
       </c>
       <c r="C114">
         <v>-1.120552104279182E-07</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>-1.344243848243751E-15</v>
+        <v>-1.344243846158591E-15</v>
       </c>
       <c r="G114">
         <v>-1.120552104279182E-07</v>
@@ -13327,7 +13327,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.011238424811859E-16</v>
+        <v>5.011238445260427E-16</v>
       </c>
       <c r="C115">
         <v>-1.240223719231766E-07</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>5.011238424811859E-16</v>
+        <v>5.011238445260427E-16</v>
       </c>
       <c r="G115">
         <v>-1.240223719231766E-07</v>
@@ -13374,7 +13374,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-4.422919912244462E-16</v>
+        <v>-4.422919889150559E-16</v>
       </c>
       <c r="C116">
         <v>-9.708980561921518E-08</v>
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>-4.422919912244462E-16</v>
+        <v>-4.422919889150559E-16</v>
       </c>
       <c r="G116">
         <v>-9.708980561921518E-08</v>
@@ -14394,13 +14394,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.89621827291164E-15</v>
+        <v>2.896218273376492E-15</v>
       </c>
       <c r="C10">
-        <v>-2.577358619125372E-08</v>
+        <v>-2.577358619125371E-08</v>
       </c>
       <c r="D10">
-        <v>2.896218273767254E-15</v>
+        <v>2.896218272839382E-15</v>
       </c>
       <c r="E10">
         <v>-2.577358619125371E-08</v>
@@ -14427,19 +14427,19 @@
         <v>5.930883917312294E-16</v>
       </c>
       <c r="M10">
-        <v>6.021315999285417E-18</v>
+        <v>6.021316464137483E-18</v>
       </c>
       <c r="N10">
         <v>-2.577358559816532E-08</v>
       </c>
       <c r="O10">
-        <v>6.021316854899338E-18</v>
+        <v>6.021315927027336E-18</v>
       </c>
       <c r="P10">
         <v>-2.577358559816532E-08</v>
       </c>
       <c r="Q10">
-        <v>6.021316645611384E-18</v>
+        <v>6.021316647444302E-18</v>
       </c>
       <c r="R10">
         <v>-2.577358559816532E-08</v>
@@ -14472,13 +14472,13 @@
         <v>1.021546569209385E-07</v>
       </c>
       <c r="AB10">
-        <v>3.563603139091621E-23</v>
+        <v>4.817572606134731E-23</v>
       </c>
       <c r="AC10">
         <v>4.338734978715565E-30</v>
       </c>
       <c r="AD10">
-        <v>3.563603139091621E-23</v>
+        <v>4.817572606134731E-23</v>
       </c>
       <c r="AE10">
         <v>1.021546569209385E-05</v>
@@ -14490,7 +14490,7 @@
         <v>1.021546569209385E-05</v>
       </c>
       <c r="AH10">
-        <v>2.896218273557966E-15</v>
+        <v>2.896218273559799E-15</v>
       </c>
       <c r="AI10">
         <v>1.021546569209385E-05</v>
@@ -14929,13 +14929,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.658489579256414E-13</v>
+        <v>5.658489578661402E-13</v>
       </c>
       <c r="C15">
         <v>-3.70667488924421E-06</v>
       </c>
       <c r="D15">
-        <v>5.65848958253048E-13</v>
+        <v>5.658489580679143E-13</v>
       </c>
       <c r="E15">
         <v>-3.70667488924421E-06</v>
@@ -14962,22 +14962,22 @@
         <v>3.671487117471637E-06</v>
       </c>
       <c r="M15">
-        <v>8.385634721179503E-13</v>
+        <v>8.385634720584491E-13</v>
       </c>
       <c r="N15">
-        <v>-3.518777177257229E-08</v>
+        <v>-3.518777177257272E-08</v>
       </c>
       <c r="O15">
-        <v>8.385634722125514E-13</v>
+        <v>8.385634720274176E-13</v>
       </c>
       <c r="P15">
-        <v>-3.518777177257145E-08</v>
+        <v>-3.518777177257187E-08</v>
       </c>
       <c r="Q15">
-        <v>8.38563472087016E-13</v>
+        <v>8.385634720865458E-13</v>
       </c>
       <c r="R15">
-        <v>-3.518777177257229E-08</v>
+        <v>-3.518777177257272E-08</v>
       </c>
       <c r="S15">
         <v>1.469155418825993E-05</v>
@@ -15007,13 +15007,13 @@
         <v>1.469155418825993E-05</v>
       </c>
       <c r="AB15">
-        <v>5.42365719446819E-21</v>
+        <v>6.828997942065139E-21</v>
       </c>
       <c r="AC15">
         <v>6.615538801775157E-21</v>
       </c>
       <c r="AD15">
-        <v>6.615538801775157E-21</v>
+        <v>6.828997942065139E-21</v>
       </c>
       <c r="AE15">
         <v>0.001469155418825993</v>
@@ -15025,7 +15025,7 @@
         <v>0.001469155418825993</v>
       </c>
       <c r="AH15">
-        <v>5.658489578631323E-13</v>
+        <v>5.658489578626621E-13</v>
       </c>
       <c r="AI15">
         <v>0.001469155418825993</v>
@@ -15143,19 +15143,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.68034555311348E-14</v>
+        <v>3.680345553857246E-14</v>
       </c>
       <c r="C17">
-        <v>-3.78629127292327E-07</v>
+        <v>-3.786291272923269E-07</v>
       </c>
       <c r="D17">
-        <v>3.680345557348637E-14</v>
+        <v>3.680345553549875E-14</v>
       </c>
       <c r="E17">
-        <v>-3.78629127292327E-07</v>
+        <v>-3.786291272923269E-07</v>
       </c>
       <c r="F17">
-        <v>-3.78629127292327E-07</v>
+        <v>-3.786291272923269E-07</v>
       </c>
       <c r="G17">
         <v>-3.470173805236475E-14</v>
@@ -15176,22 +15176,22 @@
         <v>3.619400508067364E-07</v>
       </c>
       <c r="M17">
-        <v>2.101717478770051E-15</v>
+        <v>2.101717486207703E-15</v>
       </c>
       <c r="N17">
-        <v>-1.668907648559055E-08</v>
+        <v>-1.668907648559045E-08</v>
       </c>
       <c r="O17">
-        <v>2.101717494457995E-15</v>
+        <v>2.101717456470379E-15</v>
       </c>
       <c r="P17">
-        <v>-1.668907648559066E-08</v>
+        <v>-1.66890764855905E-08</v>
       </c>
       <c r="Q17">
-        <v>2.101717473429336E-15</v>
+        <v>2.101717473488129E-15</v>
       </c>
       <c r="R17">
-        <v>-1.668907648559066E-08</v>
+        <v>-1.66890764855905E-08</v>
       </c>
       <c r="S17">
         <v>1.500711636630312E-06</v>
@@ -15200,13 +15200,13 @@
         <v>1.434563814470987E-06</v>
       </c>
       <c r="U17">
-        <v>1.500711636630312E-06</v>
+        <v>1.500711636630311E-06</v>
       </c>
       <c r="V17">
         <v>1.434563814470987E-06</v>
       </c>
       <c r="W17">
-        <v>1.500711636630312E-06</v>
+        <v>1.500711636630311E-06</v>
       </c>
       <c r="X17">
         <v>1.434563814470987E-06</v>
@@ -15215,31 +15215,31 @@
         <v>1.500711636630312E-06</v>
       </c>
       <c r="Z17">
-        <v>1.500711636630312E-06</v>
+        <v>1.500711636630311E-06</v>
       </c>
       <c r="AA17">
-        <v>1.500711636630312E-06</v>
+        <v>1.500711636630311E-06</v>
       </c>
       <c r="AB17">
-        <v>5.701765022546593E-22</v>
+        <v>8.536247427581424E-22</v>
       </c>
       <c r="AC17">
         <v>6.779571493085238E-22</v>
       </c>
       <c r="AD17">
-        <v>6.779571493085238E-22</v>
+        <v>8.536247427581424E-22</v>
       </c>
       <c r="AE17">
         <v>0.0001500711636630312</v>
       </c>
       <c r="AF17">
-        <v>0.0001500711636630312</v>
+        <v>0.0001500711636630311</v>
       </c>
       <c r="AG17">
-        <v>0.0001500711636630312</v>
+        <v>0.0001500711636630311</v>
       </c>
       <c r="AH17">
-        <v>3.680345553551131E-14</v>
+        <v>3.68034555355701E-14</v>
       </c>
       <c r="AI17">
         <v>0.0001500711636630312</v>
@@ -15571,19 +15571,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.014231554819748E-15</v>
+        <v>2.01423155667916E-15</v>
       </c>
       <c r="C21">
-        <v>-9.147814828161776E-08</v>
+        <v>-9.147814828161773E-08</v>
       </c>
       <c r="D21">
-        <v>2.014231547872872E-15</v>
+        <v>2.014231559443731E-15</v>
       </c>
       <c r="E21">
-        <v>-9.147814828161776E-08</v>
+        <v>-9.147814828161773E-08</v>
       </c>
       <c r="F21">
-        <v>-9.147814828161773E-08</v>
+        <v>-9.147814828161772E-08</v>
       </c>
       <c r="G21">
         <v>-7.446283044140262E-16</v>
@@ -15604,25 +15604,25 @@
         <v>4.674210652049726E-08</v>
       </c>
       <c r="M21">
-        <v>1.269603250405722E-15</v>
+        <v>1.269603252265134E-15</v>
       </c>
       <c r="N21">
-        <v>-4.473604176112049E-08</v>
+        <v>-4.473604176112047E-08</v>
       </c>
       <c r="O21">
-        <v>1.269603245228737E-15</v>
+        <v>1.269603256799596E-15</v>
       </c>
       <c r="P21">
-        <v>-4.47360417611205E-08</v>
+        <v>-4.473604176112047E-08</v>
       </c>
       <c r="Q21">
-        <v>1.269603249175742E-15</v>
+        <v>1.26960325586165E-15</v>
       </c>
       <c r="R21">
-        <v>-4.473604176112047E-08</v>
+        <v>-4.473604176112046E-08</v>
       </c>
       <c r="S21">
-        <v>3.625772843792421E-07</v>
+        <v>3.62577284379242E-07</v>
       </c>
       <c r="T21">
         <v>1.852642007803046E-07</v>
@@ -15640,7 +15640,7 @@
         <v>1.852642007803046E-07</v>
       </c>
       <c r="Y21">
-        <v>3.625772843792421E-07</v>
+        <v>3.62577284379242E-07</v>
       </c>
       <c r="Z21">
         <v>3.62577284379242E-07</v>
@@ -15649,16 +15649,16 @@
         <v>3.62577284379242E-07</v>
       </c>
       <c r="AB21">
-        <v>1.908762952082978E-22</v>
+        <v>1.694892873271309E-22</v>
       </c>
       <c r="AC21">
         <v>8.370479270402673E-23</v>
       </c>
       <c r="AD21">
-        <v>1.908762952082978E-22</v>
+        <v>1.694892873271309E-22</v>
       </c>
       <c r="AE21">
-        <v>3.625772843792421E-05</v>
+        <v>3.62577284379242E-05</v>
       </c>
       <c r="AF21">
         <v>3.62577284379242E-05</v>
@@ -15667,10 +15667,10 @@
         <v>3.62577284379242E-05</v>
       </c>
       <c r="AH21">
-        <v>2.014231554960472E-15</v>
+        <v>2.01423156164638E-15</v>
       </c>
       <c r="AI21">
-        <v>3.625772843792421E-05</v>
+        <v>3.62577284379242E-05</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -15785,16 +15785,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-2.065491570536765E-15</v>
+        <v>-2.06549157631852E-15</v>
       </c>
       <c r="C23">
-        <v>-8.338494235351987E-08</v>
+        <v>-8.338494235351986E-08</v>
       </c>
       <c r="D23">
-        <v>-2.065491575539786E-15</v>
+        <v>-2.065491585036691E-15</v>
       </c>
       <c r="E23">
-        <v>-8.338494235351988E-08</v>
+        <v>-8.338494235351986E-08</v>
       </c>
       <c r="F23">
         <v>-8.338494235351986E-08</v>
@@ -15818,19 +15818,19 @@
         <v>4.176212641274952E-08</v>
       </c>
       <c r="M23">
-        <v>1.56864276030785E-15</v>
+        <v>1.568642754526095E-15</v>
       </c>
       <c r="N23">
+        <v>-4.162281594077032E-08</v>
+      </c>
+      <c r="O23">
+        <v>1.568642745107826E-15</v>
+      </c>
+      <c r="P23">
         <v>-4.162281594077034E-08</v>
       </c>
-      <c r="O23">
-        <v>1.56864275460473E-15</v>
-      </c>
-      <c r="P23">
-        <v>-4.162281594077036E-08</v>
-      </c>
       <c r="Q23">
-        <v>1.568642756449166E-15</v>
+        <v>1.568642756456516E-15</v>
       </c>
       <c r="R23">
         <v>-4.162281594077034E-08</v>
@@ -15842,13 +15842,13 @@
         <v>1.65525850982012E-07</v>
       </c>
       <c r="U23">
-        <v>3.304995396585952E-07</v>
+        <v>3.304995396585951E-07</v>
       </c>
       <c r="V23">
         <v>1.65525850982012E-07</v>
       </c>
       <c r="W23">
-        <v>3.304995396585952E-07</v>
+        <v>3.304995396585951E-07</v>
       </c>
       <c r="X23">
         <v>1.65525850982012E-07</v>
@@ -15857,31 +15857,31 @@
         <v>3.304995396585952E-07</v>
       </c>
       <c r="Z23">
-        <v>3.304995396585952E-07</v>
+        <v>3.304995396585951E-07</v>
       </c>
       <c r="AA23">
-        <v>3.304995396585952E-07</v>
+        <v>3.304995396585951E-07</v>
       </c>
       <c r="AB23">
-        <v>1.323488980084844E-22</v>
+        <v>1.694892873271309E-22</v>
       </c>
       <c r="AC23">
         <v>8.474464366356547E-23</v>
       </c>
       <c r="AD23">
-        <v>1.323488980084844E-22</v>
+        <v>1.694892873271309E-22</v>
       </c>
       <c r="AE23">
         <v>3.304995396585952E-05</v>
       </c>
       <c r="AF23">
-        <v>3.304995396585952E-05</v>
+        <v>3.304995396585951E-05</v>
       </c>
       <c r="AG23">
-        <v>3.304995396585952E-05</v>
+        <v>3.304995396585951E-05</v>
       </c>
       <c r="AH23">
-        <v>-2.065491577381486E-15</v>
+        <v>-2.065491577374137E-15</v>
       </c>
       <c r="AI23">
         <v>3.304995396585952E-05</v>
@@ -16427,19 +16427,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.419019343999055E-16</v>
+        <v>5.419019420410727E-16</v>
       </c>
       <c r="C29">
-        <v>-7.414124362135842E-08</v>
+        <v>-7.414124362135841E-08</v>
       </c>
       <c r="D29">
-        <v>5.419019369524109E-16</v>
+        <v>5.419019350966722E-16</v>
       </c>
       <c r="E29">
-        <v>-7.414124362135842E-08</v>
+        <v>-7.414124362135841E-08</v>
       </c>
       <c r="F29">
-        <v>-7.414124362135842E-08</v>
+        <v>-7.414124362135841E-08</v>
       </c>
       <c r="G29">
         <v>-1.704013646671501E-16</v>
@@ -16460,22 +16460,22 @@
         <v>6.373485256256863E-16</v>
       </c>
       <c r="M29">
-        <v>3.715005697327553E-16</v>
+        <v>3.715005773739226E-16</v>
       </c>
       <c r="N29">
-        <v>-7.414124298400989E-08</v>
+        <v>-7.414124298400988E-08</v>
       </c>
       <c r="O29">
-        <v>3.715005722852607E-16</v>
+        <v>3.715005704295221E-16</v>
       </c>
       <c r="P29">
-        <v>-7.414124298400989E-08</v>
+        <v>-7.414124298400988E-08</v>
       </c>
       <c r="Q29">
-        <v>3.715005696111513E-16</v>
+        <v>3.715005762970567E-16</v>
       </c>
       <c r="R29">
-        <v>-7.414124298400989E-08</v>
+        <v>-7.414124298400988E-08</v>
       </c>
       <c r="S29">
         <v>2.938617823207921E-07</v>
@@ -16505,13 +16505,13 @@
         <v>2.938617823207921E-07</v>
       </c>
       <c r="AB29">
-        <v>1.058791184067875E-22</v>
+        <v>1.425441255636648E-22</v>
       </c>
       <c r="AC29">
         <v>9.860761315262648E-31</v>
       </c>
       <c r="AD29">
-        <v>1.058791184067875E-22</v>
+        <v>1.425441255636648E-22</v>
       </c>
       <c r="AE29">
         <v>2.938617823207921E-05</v>
@@ -16523,7 +16523,7 @@
         <v>2.938617823207921E-05</v>
       </c>
       <c r="AH29">
-        <v>5.419019342783015E-16</v>
+        <v>5.419019409642068E-16</v>
       </c>
       <c r="AI29">
         <v>2.938617823207921E-05</v>
@@ -16641,13 +16641,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-3.57331253407931E-16</v>
+        <v>-3.57331230280909E-16</v>
       </c>
       <c r="C31">
         <v>-2.567460292235988E-07</v>
       </c>
       <c r="D31">
-        <v>-3.573312896902737E-16</v>
+        <v>-3.57331251266225E-16</v>
       </c>
       <c r="E31">
         <v>-2.567460292235988E-07</v>
@@ -16674,19 +16674,19 @@
         <v>2.002077004541948E-07</v>
       </c>
       <c r="M31">
-        <v>1.385146813542609E-15</v>
+        <v>1.385146836669631E-15</v>
       </c>
       <c r="N31">
         <v>-5.653832876940402E-08</v>
       </c>
       <c r="O31">
-        <v>1.385146784657343E-15</v>
+        <v>1.385146823081392E-15</v>
       </c>
       <c r="P31">
         <v>-5.653832876940407E-08</v>
       </c>
       <c r="Q31">
-        <v>1.385146817619895E-15</v>
+        <v>1.385146844334132E-15</v>
       </c>
       <c r="R31">
         <v>-5.65383287694041E-08</v>
@@ -16737,7 +16737,7 @@
         <v>0.0001017623143081601</v>
       </c>
       <c r="AH31">
-        <v>-3.57331261350975E-16</v>
+        <v>-3.573312346367381E-16</v>
       </c>
       <c r="AI31">
         <v>0.0001017623143081601</v>
@@ -16748,7 +16748,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.297677854245797E-15</v>
+        <v>1.297677855691236E-15</v>
       </c>
       <c r="C32">
         <v>-2.765143262018013E-08</v>
@@ -16781,7 +16781,7 @@
         <v>9.338943519765031E-16</v>
       </c>
       <c r="M32">
-        <v>-3.178219213838127E-16</v>
+        <v>-3.178219199383737E-16</v>
       </c>
       <c r="N32">
         <v>-2.765143168628578E-08</v>
@@ -16793,7 +16793,7 @@
         <v>-2.765143168628578E-08</v>
       </c>
       <c r="Q32">
-        <v>-3.178219223260283E-16</v>
+        <v>-3.178219206563884E-16</v>
       </c>
       <c r="R32">
         <v>-2.765143168628578E-08</v>
@@ -16826,13 +16826,13 @@
         <v>1.095975576227952E-07</v>
       </c>
       <c r="AB32">
-        <v>4.237232183178273E-23</v>
+        <v>4.771907380207445E-23</v>
       </c>
       <c r="AC32">
         <v>3.155443620884047E-30</v>
       </c>
       <c r="AD32">
-        <v>4.237232183178273E-23</v>
+        <v>4.771907380207445E-23</v>
       </c>
       <c r="AE32">
         <v>1.095975576227952E-05</v>
@@ -16844,7 +16844,7 @@
         <v>1.095975576227952E-05</v>
       </c>
       <c r="AH32">
-        <v>1.297677853303581E-15</v>
+        <v>1.297677854973221E-15</v>
       </c>
       <c r="AI32">
         <v>1.095975576227952E-05</v>
@@ -16855,16 +16855,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.716625096465393E-16</v>
+        <v>-1.716625125374171E-16</v>
       </c>
       <c r="C33">
         <v>-3.294886382171391E-08</v>
       </c>
       <c r="D33">
-        <v>-1.716625103484951E-16</v>
+        <v>-1.716625122587869E-16</v>
       </c>
       <c r="E33">
-        <v>-3.294886382171391E-08</v>
+        <v>-3.29488638217139E-08</v>
       </c>
       <c r="F33">
         <v>-3.29488638217139E-08</v>
@@ -16888,19 +16888,19 @@
         <v>-4.038749437605326E-16</v>
       </c>
       <c r="M33">
-        <v>-4.051360979464434E-16</v>
+        <v>-4.051361008373211E-16</v>
       </c>
       <c r="N33">
         <v>-3.294886422558885E-08</v>
       </c>
       <c r="O33">
-        <v>-4.051360986483991E-16</v>
+        <v>-4.051361005586909E-16</v>
       </c>
       <c r="P33">
-        <v>-3.294886422558885E-08</v>
+        <v>-3.294886422558884E-08</v>
       </c>
       <c r="Q33">
-        <v>-4.051360980980947E-16</v>
+        <v>-4.051361014373743E-16</v>
       </c>
       <c r="R33">
         <v>-3.294886422558884E-08</v>
@@ -16951,7 +16951,7 @@
         <v>1.305941377760844E-05</v>
       </c>
       <c r="AH33">
-        <v>-1.716625097981907E-16</v>
+        <v>-1.716625131374703E-16</v>
       </c>
       <c r="AI33">
         <v>1.305941377760844E-05</v>
@@ -17497,16 +17497,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.275553336324473E-13</v>
+        <v>1.275553335069324E-13</v>
       </c>
       <c r="C39">
-        <v>-3.122034246129729E-06</v>
+        <v>-3.122034246129728E-06</v>
       </c>
       <c r="D39">
-        <v>1.275553335107719E-13</v>
+        <v>1.275553332662545E-13</v>
       </c>
       <c r="E39">
-        <v>-3.122034246129729E-06</v>
+        <v>-3.122034246129728E-06</v>
       </c>
       <c r="F39">
         <v>-3.122034246129728E-06</v>
@@ -17530,31 +17530,31 @@
         <v>3.105757728560394E-06</v>
       </c>
       <c r="M39">
-        <v>1.718906514375819E-13</v>
+        <v>1.71890651312067E-13</v>
       </c>
       <c r="N39">
-        <v>-1.627651756933532E-08</v>
+        <v>-1.627651756933447E-08</v>
       </c>
       <c r="O39">
-        <v>1.718906515382938E-13</v>
+        <v>1.718906512937764E-13</v>
       </c>
       <c r="P39">
-        <v>-1.627651756933489E-08</v>
+        <v>-1.627651756933404E-08</v>
       </c>
       <c r="Q39">
-        <v>1.718906512953611E-13</v>
+        <v>1.71890651081886E-13</v>
       </c>
       <c r="R39">
         <v>-1.627651756933447E-08</v>
       </c>
       <c r="S39">
-        <v>1.237430587145512E-05</v>
+        <v>1.237430587145511E-05</v>
       </c>
       <c r="T39">
         <v>1.230979307320979E-05</v>
       </c>
       <c r="U39">
-        <v>1.237430587145512E-05</v>
+        <v>1.237430587145511E-05</v>
       </c>
       <c r="V39">
         <v>1.230979307320979E-05</v>
@@ -17566,16 +17566,16 @@
         <v>1.230979307320979E-05</v>
       </c>
       <c r="Y39">
-        <v>1.237430587145512E-05</v>
+        <v>1.237430587145511E-05</v>
       </c>
       <c r="Z39">
-        <v>1.237430587145512E-05</v>
+        <v>1.237430587145511E-05</v>
       </c>
       <c r="AA39">
         <v>1.237430587145511E-05</v>
       </c>
       <c r="AB39">
-        <v>5.42365719446819E-21</v>
+        <v>5.357106733057711E-21</v>
       </c>
       <c r="AC39">
         <v>6.828997942065139E-21</v>
@@ -17584,19 +17584,19 @@
         <v>6.828997942065139E-21</v>
       </c>
       <c r="AE39">
-        <v>0.001237430587145512</v>
+        <v>0.001237430587145511</v>
       </c>
       <c r="AF39">
-        <v>0.001237430587145512</v>
+        <v>0.001237430587145511</v>
       </c>
       <c r="AG39">
         <v>0.001237430587145511</v>
       </c>
       <c r="AH39">
-        <v>1.275553336108843E-13</v>
+        <v>1.275553333974091E-13</v>
       </c>
       <c r="AI39">
-        <v>0.001237430587145512</v>
+        <v>0.001237430587145511</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -17818,7 +17818,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.171584645082748E-15</v>
+        <v>1.171584647973625E-15</v>
       </c>
       <c r="C42">
         <v>-5.986459363743427E-08</v>
@@ -17851,7 +17851,7 @@
         <v>4.669477623958593E-16</v>
       </c>
       <c r="M42">
-        <v>3.638349441241118E-16</v>
+        <v>3.638349470149888E-16</v>
       </c>
       <c r="N42">
         <v>-5.986459317048651E-08</v>
@@ -17863,13 +17863,13 @@
         <v>-5.986459317048651E-08</v>
       </c>
       <c r="Q42">
-        <v>3.63834941655262E-16</v>
+        <v>3.638349449945416E-16</v>
       </c>
       <c r="R42">
         <v>-5.986459317048651E-08</v>
       </c>
       <c r="S42">
-        <v>2.372756745678907E-07</v>
+        <v>2.372756745678908E-07</v>
       </c>
       <c r="T42">
         <v>3.698005166122238E-15</v>
@@ -17887,7 +17887,7 @@
         <v>3.698005166122237E-15</v>
       </c>
       <c r="Y42">
-        <v>2.372756745678907E-07</v>
+        <v>2.372756745678908E-07</v>
       </c>
       <c r="Z42">
         <v>2.372756745678907E-07</v>
@@ -17896,16 +17896,16 @@
         <v>2.372756745678907E-07</v>
       </c>
       <c r="AB42">
-        <v>9.54381476041489E-23</v>
+        <v>1.220196549062944E-22</v>
       </c>
       <c r="AC42">
         <v>1.626278418073297E-30</v>
       </c>
       <c r="AD42">
-        <v>9.54381476041489E-23</v>
+        <v>1.220196549062944E-22</v>
       </c>
       <c r="AE42">
-        <v>2.372756745678907E-05</v>
+        <v>2.372756745678908E-05</v>
       </c>
       <c r="AF42">
         <v>2.372756745678908E-05</v>
@@ -17914,7 +17914,7 @@
         <v>2.372756745678907E-05</v>
       </c>
       <c r="AH42">
-        <v>1.171584642613898E-15</v>
+        <v>1.171584645953177E-15</v>
       </c>
       <c r="AI42">
         <v>2.372756745678908E-05</v>
@@ -17925,13 +17925,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.610565910127999E-14</v>
+        <v>5.610565922353866E-14</v>
       </c>
       <c r="C43">
         <v>-1.168821017863457E-06</v>
       </c>
       <c r="D43">
-        <v>5.610565914643271E-14</v>
+        <v>5.610565920930786E-14</v>
       </c>
       <c r="E43">
         <v>-1.168821017863457E-06</v>
@@ -17958,25 +17958,25 @@
         <v>1.135903792189507E-06</v>
       </c>
       <c r="M43">
-        <v>8.201824159622533E-14</v>
+        <v>8.201824171848401E-14</v>
       </c>
       <c r="N43">
-        <v>-3.291722567395071E-08</v>
+        <v>-3.291722567395029E-08</v>
       </c>
       <c r="O43">
-        <v>8.201824172552227E-14</v>
+        <v>8.201824178839743E-14</v>
       </c>
       <c r="P43">
+        <v>-3.291722567395007E-08</v>
+      </c>
+      <c r="Q43">
+        <v>8.20182417683879E-14</v>
+      </c>
+      <c r="R43">
         <v>-3.291722567395029E-08</v>
       </c>
-      <c r="Q43">
-        <v>8.201824166141326E-14</v>
-      </c>
-      <c r="R43">
-        <v>-3.291722567395071E-08</v>
-      </c>
       <c r="S43">
-        <v>4.632668056229111E-06</v>
+        <v>4.63266805622911E-06</v>
       </c>
       <c r="T43">
         <v>4.502199287827668E-06</v>
@@ -17994,7 +17994,7 @@
         <v>4.502199287827668E-06</v>
       </c>
       <c r="Y43">
-        <v>4.632668056229111E-06</v>
+        <v>4.63266805622911E-06</v>
       </c>
       <c r="Z43">
         <v>4.63266805622911E-06</v>
@@ -18003,7 +18003,7 @@
         <v>4.63266805622911E-06</v>
       </c>
       <c r="AB43">
-        <v>1.270549420881451E-21</v>
+        <v>1.894023249242609E-21</v>
       </c>
       <c r="AC43">
         <v>2.395770963567772E-21</v>
@@ -18012,7 +18012,7 @@
         <v>2.395770963567772E-21</v>
       </c>
       <c r="AE43">
-        <v>0.0004632668056229111</v>
+        <v>0.000463266805622911</v>
       </c>
       <c r="AF43">
         <v>0.000463266805622911</v>
@@ -18021,10 +18021,10 @@
         <v>0.000463266805622911</v>
       </c>
       <c r="AH43">
-        <v>5.61056591318813E-14</v>
+        <v>5.610565923885594E-14</v>
       </c>
       <c r="AI43">
-        <v>0.0004632668056229111</v>
+        <v>0.000463266805622911</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -18032,16 +18032,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.197371117816488E-14</v>
+        <v>7.197371130042355E-14</v>
       </c>
       <c r="C44">
         <v>-1.857109005695377E-06</v>
       </c>
       <c r="D44">
-        <v>7.197371104986389E-14</v>
+        <v>7.197371111273904E-14</v>
       </c>
       <c r="E44">
-        <v>-1.857109005695377E-06</v>
+        <v>-1.857109005695376E-06</v>
       </c>
       <c r="F44">
         <v>-1.857109005695377E-06</v>
@@ -18065,52 +18065,52 @@
         <v>1.827905299304064E-06</v>
       </c>
       <c r="M44">
-        <v>1.099929996759059E-13</v>
+        <v>1.099929997981646E-13</v>
       </c>
       <c r="N44">
-        <v>-2.920370639131267E-08</v>
+        <v>-2.920370639131246E-08</v>
       </c>
       <c r="O44">
-        <v>1.099929996573508E-13</v>
+        <v>1.099929997202259E-13</v>
       </c>
       <c r="P44">
+        <v>-2.920370639131182E-08</v>
+      </c>
+      <c r="Q44">
+        <v>1.099929997597174E-13</v>
+      </c>
+      <c r="R44">
         <v>-2.920370639131246E-08</v>
       </c>
-      <c r="Q44">
-        <v>1.099929996527427E-13</v>
-      </c>
-      <c r="R44">
-        <v>-2.920370639131267E-08</v>
-      </c>
       <c r="S44">
-        <v>7.360724555883567E-06</v>
+        <v>7.360724555883566E-06</v>
       </c>
       <c r="T44">
         <v>7.244974405685697E-06</v>
       </c>
       <c r="U44">
-        <v>7.360724555883566E-06</v>
+        <v>7.360724555883565E-06</v>
       </c>
       <c r="V44">
         <v>7.244974405685696E-06</v>
       </c>
       <c r="W44">
-        <v>7.360724555883567E-06</v>
+        <v>7.360724555883566E-06</v>
       </c>
       <c r="X44">
         <v>7.244974405685698E-06</v>
       </c>
       <c r="Y44">
-        <v>7.360724555883567E-06</v>
+        <v>7.360724555883566E-06</v>
       </c>
       <c r="Z44">
+        <v>7.360724555883565E-06</v>
+      </c>
+      <c r="AA44">
         <v>7.360724555883566E-06</v>
       </c>
-      <c r="AA44">
-        <v>7.360724555883567E-06</v>
-      </c>
       <c r="AB44">
-        <v>2.711828597234095E-21</v>
+        <v>2.678553366528855E-21</v>
       </c>
       <c r="AC44">
         <v>3.083246467926228E-21</v>
@@ -18119,19 +18119,19 @@
         <v>3.083246467926228E-21</v>
       </c>
       <c r="AE44">
-        <v>0.0007360724555883567</v>
+        <v>0.0007360724555883566</v>
       </c>
       <c r="AF44">
+        <v>0.0007360724555883565</v>
+      </c>
+      <c r="AG44">
         <v>0.0007360724555883566</v>
       </c>
-      <c r="AG44">
-        <v>0.0007360724555883567</v>
-      </c>
       <c r="AH44">
-        <v>7.19737111312111E-14</v>
+        <v>7.197371123818574E-14</v>
       </c>
       <c r="AI44">
-        <v>0.0007360724555883567</v>
+        <v>0.0007360724555883566</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -18246,19 +18246,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.88935629029701E-15</v>
+        <v>1.889356296078764E-15</v>
       </c>
       <c r="C46">
-        <v>-8.566995442782675E-08</v>
+        <v>-8.566995442782676E-08</v>
       </c>
       <c r="D46">
-        <v>1.889356296445508E-15</v>
+        <v>1.889356292515811E-15</v>
       </c>
       <c r="E46">
-        <v>-8.566995442782672E-08</v>
+        <v>-8.566995442782676E-08</v>
       </c>
       <c r="F46">
-        <v>-8.566995442782675E-08</v>
+        <v>-8.566995442782676E-08</v>
       </c>
       <c r="G46">
         <v>-1.101282480303053E-15</v>
@@ -18279,25 +18279,25 @@
         <v>5.487872838288956E-08</v>
       </c>
       <c r="M46">
-        <v>7.880738099939572E-16</v>
+        <v>7.880738157757109E-16</v>
       </c>
       <c r="N46">
-        <v>-3.079122604493719E-08</v>
+        <v>-3.07912260449372E-08</v>
       </c>
       <c r="O46">
-        <v>7.880738106033221E-16</v>
+        <v>7.880738066736249E-16</v>
       </c>
       <c r="P46">
-        <v>-3.079122604493716E-08</v>
+        <v>-3.07912260449372E-08</v>
       </c>
       <c r="Q46">
-        <v>7.880738124460046E-16</v>
+        <v>7.88073812438648E-16</v>
       </c>
       <c r="R46">
-        <v>-3.079122604493719E-08</v>
+        <v>-3.07912260449372E-08</v>
       </c>
       <c r="S46">
-        <v>3.395562286747275E-07</v>
+        <v>3.395562286747276E-07</v>
       </c>
       <c r="T46">
         <v>2.175139948967783E-07</v>
@@ -18315,7 +18315,7 @@
         <v>2.175139948967783E-07</v>
       </c>
       <c r="Y46">
-        <v>3.395562286747275E-07</v>
+        <v>3.395562286747276E-07</v>
       </c>
       <c r="Z46">
         <v>3.395562286747275E-07</v>
@@ -18333,19 +18333,19 @@
         <v>1.183764530776631E-22</v>
       </c>
       <c r="AE46">
+        <v>3.395562286747276E-05</v>
+      </c>
+      <c r="AF46">
         <v>3.395562286747275E-05</v>
       </c>
-      <c r="AF46">
-        <v>3.395562286747274E-05</v>
-      </c>
       <c r="AG46">
-        <v>3.395562286747274E-05</v>
+        <v>3.395562286747275E-05</v>
       </c>
       <c r="AH46">
-        <v>1.889356291901542E-15</v>
+        <v>1.889356291894185E-15</v>
       </c>
       <c r="AI46">
-        <v>3.395562286747275E-05</v>
+        <v>3.395562286747276E-05</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -18888,13 +18888,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9.747011227381907E-14</v>
+        <v>9.747011236632712E-14</v>
       </c>
       <c r="C52">
-        <v>-8.667014355807247E-07</v>
+        <v>-8.667014355807249E-07</v>
       </c>
       <c r="D52">
-        <v>9.747011224887783E-14</v>
+        <v>9.747011240257409E-14</v>
       </c>
       <c r="E52">
         <v>-8.667014355807247E-07</v>
@@ -18921,19 +18921,19 @@
         <v>7.160644053156432E-07</v>
       </c>
       <c r="M52">
-        <v>1.736403309262634E-13</v>
+        <v>1.736403310187715E-13</v>
       </c>
       <c r="N52">
-        <v>-1.506370302650815E-07</v>
+        <v>-1.506370302650816E-07</v>
       </c>
       <c r="O52">
-        <v>1.736403309473264E-13</v>
+        <v>1.736403311010227E-13</v>
       </c>
       <c r="P52">
         <v>-1.506370302650816E-07</v>
       </c>
       <c r="Q52">
-        <v>1.736403309195531E-13</v>
+        <v>1.736403309729227E-13</v>
       </c>
       <c r="R52">
         <v>-1.506370302650816E-07</v>
@@ -18966,13 +18966,13 @@
         <v>3.435205105757671E-06</v>
       </c>
       <c r="AB52">
-        <v>1.707249485516285E-21</v>
+        <v>1.339276683264428E-21</v>
       </c>
       <c r="AC52">
         <v>1.541623233963114E-21</v>
       </c>
       <c r="AD52">
-        <v>1.707249485516285E-21</v>
+        <v>1.541623233963114E-21</v>
       </c>
       <c r="AE52">
         <v>0.0003435205105757671</v>
@@ -18984,7 +18984,7 @@
         <v>0.0003435205105757671</v>
       </c>
       <c r="AH52">
-        <v>9.747011229900087E-14</v>
+        <v>9.747011235237048E-14</v>
       </c>
       <c r="AI52">
         <v>0.0003435205105757671</v>
@@ -19744,13 +19744,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1.647562228397207E-15</v>
+        <v>-1.647562258147826E-15</v>
       </c>
       <c r="C60">
-        <v>-1.462137653600647E-06</v>
+        <v>-1.462137653600648E-06</v>
       </c>
       <c r="D60">
-        <v>-1.647562355902396E-15</v>
+        <v>-1.647562326210654E-15</v>
       </c>
       <c r="E60">
         <v>-1.462137653600647E-06</v>
@@ -19777,73 +19777,73 @@
         <v>1.450391829951657E-06</v>
       </c>
       <c r="M60">
-        <v>2.635435781622079E-14</v>
+        <v>2.635435778647017E-14</v>
       </c>
       <c r="N60">
+        <v>-1.174582364899085E-08</v>
+      </c>
+      <c r="O60">
+        <v>2.635435771322284E-14</v>
+      </c>
+      <c r="P60">
         <v>-1.174582364899042E-08</v>
       </c>
-      <c r="O60">
-        <v>2.63543576835311E-14</v>
-      </c>
-      <c r="P60">
-        <v>-1.174582364899E-08</v>
-      </c>
       <c r="Q60">
-        <v>2.635435775867319E-14</v>
+        <v>2.635435775855543E-14</v>
       </c>
       <c r="R60">
-        <v>-1.174582364899E-08</v>
+        <v>-1.174582364899021E-08</v>
       </c>
       <c r="S60">
-        <v>5.795239627396607E-06</v>
+        <v>5.795239627396608E-06</v>
       </c>
       <c r="T60">
         <v>5.748684568969653E-06</v>
       </c>
       <c r="U60">
-        <v>5.795239627396605E-06</v>
+        <v>5.795239627396607E-06</v>
       </c>
       <c r="V60">
         <v>5.748684568969652E-06</v>
       </c>
       <c r="W60">
-        <v>5.795239627396605E-06</v>
+        <v>5.795239627396606E-06</v>
       </c>
       <c r="X60">
         <v>5.748684568969653E-06</v>
       </c>
       <c r="Y60">
+        <v>5.795239627396608E-06</v>
+      </c>
+      <c r="Z60">
         <v>5.795239627396607E-06</v>
       </c>
-      <c r="Z60">
-        <v>5.795239627396605E-06</v>
-      </c>
       <c r="AA60">
-        <v>5.795239627396605E-06</v>
+        <v>5.795239627396606E-06</v>
       </c>
       <c r="AB60">
-        <v>3.41449897103257E-21</v>
+        <v>2.711828597234095E-21</v>
       </c>
       <c r="AC60">
         <v>2.678553366528855E-21</v>
       </c>
       <c r="AD60">
-        <v>3.41449897103257E-21</v>
+        <v>2.711828597234095E-21</v>
       </c>
       <c r="AE60">
+        <v>0.0005795239627396608</v>
+      </c>
+      <c r="AF60">
         <v>0.0005795239627396606</v>
       </c>
-      <c r="AF60">
-        <v>0.0005795239627396605</v>
-      </c>
       <c r="AG60">
-        <v>0.0005795239627396605</v>
+        <v>0.0005795239627396606</v>
       </c>
       <c r="AH60">
-        <v>-1.647562215298745E-15</v>
+        <v>-1.647562215416499E-15</v>
       </c>
       <c r="AI60">
-        <v>0.0005795239627396606</v>
+        <v>0.0005795239627396608</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -19851,19 +19851,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.409761045115205E-14</v>
+        <v>2.409761051228139E-14</v>
       </c>
       <c r="C61">
-        <v>-6.499652526229893E-07</v>
+        <v>-6.499652526229892E-07</v>
       </c>
       <c r="D61">
-        <v>2.409761043488072E-14</v>
+        <v>2.409761052744766E-14</v>
       </c>
       <c r="E61">
         <v>-6.499652526229892E-07</v>
       </c>
       <c r="F61">
-        <v>-6.499652526229892E-07</v>
+        <v>-6.499652526229891E-07</v>
       </c>
       <c r="G61">
         <v>1.48549857667888E-14</v>
@@ -19884,22 +19884,22 @@
         <v>5.956738589253856E-07</v>
       </c>
       <c r="M61">
-        <v>3.895259621794086E-14</v>
+        <v>3.89525962790702E-14</v>
       </c>
       <c r="N61">
-        <v>-5.429139369760359E-08</v>
+        <v>-5.429139369760349E-08</v>
       </c>
       <c r="O61">
-        <v>3.895259626662384E-14</v>
+        <v>3.895259635919078E-14</v>
       </c>
       <c r="P61">
         <v>-5.429139369760359E-08</v>
       </c>
       <c r="Q61">
-        <v>3.895259624355042E-14</v>
+        <v>3.895259629703779E-14</v>
       </c>
       <c r="R61">
-        <v>-5.429139369760359E-08</v>
+        <v>-5.429139369760349E-08</v>
       </c>
       <c r="S61">
         <v>2.576162660292384E-06</v>
@@ -19929,7 +19929,7 @@
         <v>2.576162660292384E-06</v>
       </c>
       <c r="AB61">
-        <v>9.470116246213047E-22</v>
+        <v>7.635051808331912E-22</v>
       </c>
       <c r="AC61">
         <v>1.355914298617048E-21</v>
@@ -19947,7 +19947,7 @@
         <v>0.0002576162660292384</v>
       </c>
       <c r="AH61">
-        <v>2.409761043477603E-14</v>
+        <v>2.40976104882634E-14</v>
       </c>
       <c r="AI61">
         <v>0.0002576162660292384</v>
@@ -19958,13 +19958,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-5.4765359E-16</v>
+        <v>-5.47653595781753E-16</v>
       </c>
       <c r="C62">
         <v>-6.609913678739494E-08</v>
       </c>
       <c r="D62">
-        <v>-5.47653591875223E-16</v>
+        <v>-5.476535956958067E-16</v>
       </c>
       <c r="E62">
         <v>-6.609913678739492E-08</v>
@@ -19991,19 +19991,19 @@
         <v>1.704006752676496E-16</v>
       </c>
       <c r="M62">
-        <v>8.969527776305121E-17</v>
+        <v>8.969527198129814E-17</v>
       </c>
       <c r="N62">
         <v>-6.609913661699426E-08</v>
       </c>
       <c r="O62">
-        <v>8.969527588782806E-17</v>
+        <v>8.969527206724444E-17</v>
       </c>
       <c r="P62">
         <v>-6.609913661699425E-08</v>
       </c>
       <c r="Q62">
-        <v>8.969527769493248E-17</v>
+        <v>8.969527101637334E-17</v>
       </c>
       <c r="R62">
         <v>-6.609913661699425E-08</v>
@@ -20036,13 +20036,13 @@
         <v>2.619865098665776E-07</v>
       </c>
       <c r="AB62">
-        <v>1.497356852229858E-22</v>
+        <v>1.183764530776631E-22</v>
       </c>
       <c r="AC62">
         <v>9.860761315262648E-31</v>
       </c>
       <c r="AD62">
-        <v>1.497356852229858E-22</v>
+        <v>1.183764530776631E-22</v>
       </c>
       <c r="AE62">
         <v>2.619865098665777E-05</v>
@@ -20054,7 +20054,7 @@
         <v>2.619865098665776E-05</v>
       </c>
       <c r="AH62">
-        <v>-5.476535900681187E-16</v>
+        <v>-5.476535967466778E-16</v>
       </c>
       <c r="AI62">
         <v>2.619865098665777E-05</v>
@@ -20065,19 +20065,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.059680332731539E-16</v>
+        <v>2.059680314137396E-16</v>
       </c>
       <c r="C63">
+        <v>-9.000506248597669E-08</v>
+      </c>
+      <c r="D63">
+        <v>2.059680350989733E-16</v>
+      </c>
+      <c r="E63">
         <v>-9.000506248597667E-08</v>
       </c>
-      <c r="D63">
-        <v>2.0596803324324E-16</v>
-      </c>
-      <c r="E63">
-        <v>-9.000506248597666E-08</v>
-      </c>
       <c r="F63">
-        <v>-9.000506248597666E-08</v>
+        <v>-9.000506248597667E-08</v>
       </c>
       <c r="G63">
         <v>9.24053037219072E-16</v>
@@ -20098,49 +20098,49 @@
         <v>4.890185424239737E-08</v>
       </c>
       <c r="M63">
-        <v>1.130021070492226E-15</v>
+        <v>1.130021068632812E-15</v>
       </c>
       <c r="N63">
+        <v>-4.110320824357931E-08</v>
+      </c>
+      <c r="O63">
+        <v>1.130021074803372E-15</v>
+      </c>
+      <c r="P63">
+        <v>-4.110320824357931E-08</v>
+      </c>
+      <c r="Q63">
+        <v>1.130021068951324E-15</v>
+      </c>
+      <c r="R63">
         <v>-4.11032082435793E-08</v>
       </c>
-      <c r="O63">
-        <v>1.130021072947639E-15</v>
-      </c>
-      <c r="P63">
-        <v>-4.110320824357929E-08</v>
-      </c>
-      <c r="Q63">
-        <v>1.130021068958686E-15</v>
-      </c>
-      <c r="R63">
-        <v>-4.110320824357929E-08</v>
-      </c>
       <c r="S63">
-        <v>3.567385763597017E-07</v>
+        <v>3.567385763597018E-07</v>
       </c>
       <c r="T63">
         <v>1.938244068136346E-07</v>
       </c>
       <c r="U63">
-        <v>3.567385763597016E-07</v>
+        <v>3.567385763597017E-07</v>
       </c>
       <c r="V63">
         <v>1.938244068136346E-07</v>
       </c>
       <c r="W63">
-        <v>3.567385763597017E-07</v>
+        <v>3.567385763597018E-07</v>
       </c>
       <c r="X63">
         <v>1.938244068136346E-07</v>
       </c>
       <c r="Y63">
+        <v>3.567385763597018E-07</v>
+      </c>
+      <c r="Z63">
         <v>3.567385763597017E-07</v>
       </c>
-      <c r="Z63">
-        <v>3.567385763597016E-07</v>
-      </c>
       <c r="AA63">
-        <v>3.567385763597017E-07</v>
+        <v>3.567385763597018E-07</v>
       </c>
       <c r="AB63">
         <v>1.674095854080535E-22</v>
@@ -20152,19 +20152,19 @@
         <v>1.674095854080535E-22</v>
       </c>
       <c r="AE63">
-        <v>3.567385763597017E-05</v>
+        <v>3.567385763597018E-05</v>
       </c>
       <c r="AF63">
         <v>3.567385763597016E-05</v>
       </c>
       <c r="AG63">
-        <v>3.567385763597017E-05</v>
+        <v>3.567385763597018E-05</v>
       </c>
       <c r="AH63">
-        <v>2.059680334461997E-16</v>
+        <v>2.059680334388375E-16</v>
       </c>
       <c r="AI63">
-        <v>3.567385763597017E-05</v>
+        <v>3.567385763597018E-05</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -20707,19 +20707,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-4.892521653724061E-16</v>
+        <v>-4.892521677984288E-16</v>
       </c>
       <c r="C69">
-        <v>-2.661875648968649E-08</v>
+        <v>-2.661875648968648E-08</v>
       </c>
       <c r="D69">
-        <v>-4.892521687690985E-16</v>
+        <v>-4.892521706793904E-16</v>
       </c>
       <c r="E69">
-        <v>-2.661875648968649E-08</v>
+        <v>-2.661875648968648E-08</v>
       </c>
       <c r="F69">
-        <v>-2.661875648968649E-08</v>
+        <v>-2.661875648968648E-08</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -20740,22 +20740,22 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>-4.892521653724061E-16</v>
+        <v>-4.892521677984288E-16</v>
       </c>
       <c r="N69">
-        <v>-2.661875648968649E-08</v>
+        <v>-2.661875648968648E-08</v>
       </c>
       <c r="O69">
-        <v>-4.892521687690985E-16</v>
+        <v>-4.892521706793904E-16</v>
       </c>
       <c r="P69">
-        <v>-2.661875648968649E-08</v>
+        <v>-2.661875648968648E-08</v>
       </c>
       <c r="Q69">
-        <v>-4.892521659338927E-16</v>
+        <v>-4.89252167599851E-16</v>
       </c>
       <c r="R69">
-        <v>-2.661875648968649E-08</v>
+        <v>-2.661875648968648E-08</v>
       </c>
       <c r="S69">
         <v>1.055044787143757E-07</v>
@@ -20785,13 +20785,13 @@
         <v>1.055044787143757E-07</v>
       </c>
       <c r="AB69">
-        <v>4.771907380207445E-23</v>
+        <v>5.33515464223839E-23</v>
       </c>
       <c r="AC69">
         <v>0</v>
       </c>
       <c r="AD69">
-        <v>4.771907380207445E-23</v>
+        <v>5.33515464223839E-23</v>
       </c>
       <c r="AE69">
         <v>1.055044787143757E-05</v>
@@ -20803,7 +20803,7 @@
         <v>1.055044787143757E-05</v>
       </c>
       <c r="AH69">
-        <v>-4.892521659338927E-16</v>
+        <v>-4.89252167599851E-16</v>
       </c>
       <c r="AI69">
         <v>1.055044787143757E-05</v>
@@ -21349,19 +21349,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.252843856334101E-15</v>
+        <v>-1.252843848692934E-15</v>
       </c>
       <c r="C75">
-        <v>-6.020148957200315E-08</v>
+        <v>-6.020148957200313E-08</v>
       </c>
       <c r="D75">
-        <v>-1.252843862706155E-15</v>
+        <v>-1.252843856920721E-15</v>
       </c>
       <c r="E75">
         <v>-6.020148957200313E-08</v>
       </c>
       <c r="F75">
-        <v>-6.020148957200313E-08</v>
+        <v>-6.020148957200312E-08</v>
       </c>
       <c r="G75">
         <v>1.445098400724976E-15</v>
@@ -21382,22 +21382,22 @@
         <v>-2.965477514822692E-16</v>
       </c>
       <c r="M75">
-        <v>1.922545443908754E-16</v>
+        <v>1.922545520320427E-16</v>
       </c>
       <c r="N75">
-        <v>-6.02014898685509E-08</v>
+        <v>-6.020148986855089E-08</v>
       </c>
       <c r="O75">
-        <v>1.922545380188209E-16</v>
+        <v>1.922545438042552E-16</v>
       </c>
       <c r="P75">
         <v>-6.020148986855089E-08</v>
       </c>
       <c r="Q75">
-        <v>1.92254543336847E-16</v>
+        <v>1.922545500227698E-16</v>
       </c>
       <c r="R75">
-        <v>-6.020148986855089E-08</v>
+        <v>-6.020148986855088E-08</v>
       </c>
       <c r="S75">
         <v>2.386109487697993E-07</v>
@@ -21412,7 +21412,7 @@
         <v>5.847059562007806E-15</v>
       </c>
       <c r="W75">
-        <v>2.386109487697994E-07</v>
+        <v>2.386109487697993E-07</v>
       </c>
       <c r="X75">
         <v>5.847059562007806E-15</v>
@@ -21424,16 +21424,16 @@
         <v>2.386109487697993E-07</v>
       </c>
       <c r="AA75">
-        <v>2.386109487697994E-07</v>
+        <v>2.386109487697993E-07</v>
       </c>
       <c r="AB75">
-        <v>1.067030928447678E-22</v>
+        <v>8.474464366356547E-23</v>
       </c>
       <c r="AC75">
         <v>2.308345041727645E-30</v>
       </c>
       <c r="AD75">
-        <v>1.067030928447678E-22</v>
+        <v>8.474464366356547E-23</v>
       </c>
       <c r="AE75">
         <v>2.386109487697993E-05</v>
@@ -21442,13 +21442,13 @@
         <v>2.386109487697993E-05</v>
       </c>
       <c r="AG75">
-        <v>2.386109487697994E-05</v>
+        <v>2.386109487697993E-05</v>
       </c>
       <c r="AH75">
-        <v>-1.252843857388129E-15</v>
+        <v>-1.252843850702206E-15</v>
       </c>
       <c r="AI75">
-        <v>2.386109487697994E-05</v>
+        <v>2.386109487697993E-05</v>
       </c>
     </row>
     <row r="76" spans="1:35">
@@ -21670,19 +21670,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-7.225957294715098E-16</v>
+        <v>-7.2259569972089E-16</v>
       </c>
       <c r="C78">
         <v>-1.387536922309227E-06</v>
       </c>
       <c r="D78">
-        <v>-7.225957186175078E-16</v>
+        <v>-7.225957483092483E-16</v>
       </c>
       <c r="E78">
         <v>-1.387536922309227E-06</v>
       </c>
       <c r="F78">
-        <v>-1.387536922309227E-06</v>
+        <v>-1.387536922309226E-06</v>
       </c>
       <c r="G78">
         <v>3.811594392757846E-14</v>
@@ -21703,22 +21703,22 @@
         <v>1.368440848135671E-06</v>
       </c>
       <c r="M78">
-        <v>3.739334819810696E-14</v>
+        <v>3.739334822785758E-14</v>
       </c>
       <c r="N78">
+        <v>-1.909607417355504E-08</v>
+      </c>
+      <c r="O78">
+        <v>3.739334831048231E-14</v>
+      </c>
+      <c r="P78">
         <v>-1.909607417355526E-08</v>
       </c>
-      <c r="O78">
-        <v>3.739334834017405E-14</v>
-      </c>
-      <c r="P78">
-        <v>-1.909607417355547E-08</v>
-      </c>
       <c r="Q78">
-        <v>3.739334827853129E-14</v>
+        <v>3.739334827876682E-14</v>
       </c>
       <c r="R78">
-        <v>-1.909607417355568E-08</v>
+        <v>-1.909607417355504E-08</v>
       </c>
       <c r="S78">
         <v>5.499556691808282E-06</v>
@@ -21733,7 +21733,7 @@
         <v>5.423868616339435E-06</v>
       </c>
       <c r="W78">
-        <v>5.499556691808283E-06</v>
+        <v>5.499556691808282E-06</v>
       </c>
       <c r="X78">
         <v>5.423868616339434E-06</v>
@@ -21745,10 +21745,10 @@
         <v>5.499556691808282E-06</v>
       </c>
       <c r="AA78">
-        <v>5.499556691808283E-06</v>
+        <v>5.499556691808282E-06</v>
       </c>
       <c r="AB78">
-        <v>1.894023249242609E-21</v>
+        <v>2.395770963567772E-21</v>
       </c>
       <c r="AC78">
         <v>2.395770963567772E-21</v>
@@ -21757,19 +21757,19 @@
         <v>2.395770963567772E-21</v>
       </c>
       <c r="AE78">
-        <v>0.0005499556691808282</v>
+        <v>0.0005499556691808281</v>
       </c>
       <c r="AF78">
-        <v>0.0005499556691808282</v>
+        <v>0.0005499556691808281</v>
       </c>
       <c r="AG78">
-        <v>0.0005499556691808283</v>
+        <v>0.0005499556691808281</v>
       </c>
       <c r="AH78">
-        <v>-7.2259580507998E-16</v>
+        <v>-7.225958048444629E-16</v>
       </c>
       <c r="AI78">
-        <v>0.0005499556691808283</v>
+        <v>0.0005499556691808281</v>
       </c>
     </row>
     <row r="79" spans="1:35">
@@ -21777,16 +21777,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.660549766773843E-16</v>
+        <v>2.660549708956308E-16</v>
       </c>
       <c r="C79">
         <v>-6.285491871642192E-08</v>
       </c>
       <c r="D79">
-        <v>2.660549805325817E-16</v>
+        <v>2.660549709265647E-16</v>
       </c>
       <c r="E79">
-        <v>-6.285491871642192E-08</v>
+        <v>-6.285491871642191E-08</v>
       </c>
       <c r="F79">
         <v>-6.285491871642192E-08</v>
@@ -21810,19 +21810,19 @@
         <v>1.243161063745762E-15</v>
       </c>
       <c r="M79">
-        <v>4.458653113643815E-16</v>
+        <v>4.458653055826281E-16</v>
       </c>
       <c r="N79">
         <v>-6.285491747326086E-08</v>
       </c>
       <c r="O79">
-        <v>4.458653152195792E-16</v>
+        <v>4.458653056135622E-16</v>
       </c>
       <c r="P79">
-        <v>-6.285491747326086E-08</v>
+        <v>-6.285491747326085E-08</v>
       </c>
       <c r="Q79">
-        <v>4.458653123718744E-16</v>
+        <v>4.458653057006751E-16</v>
       </c>
       <c r="R79">
         <v>-6.285491747326086E-08</v>
@@ -21855,25 +21855,25 @@
         <v>2.49127921053568E-07</v>
       </c>
       <c r="AB79">
-        <v>1.067030928447678E-22</v>
+        <v>1.593691772768101E-22</v>
       </c>
       <c r="AC79">
         <v>3.010359778894425E-30</v>
       </c>
       <c r="AD79">
-        <v>1.067030928447678E-22</v>
+        <v>1.593691772768101E-22</v>
       </c>
       <c r="AE79">
         <v>2.491279210535681E-05</v>
       </c>
       <c r="AF79">
-        <v>2.491279210535681E-05</v>
+        <v>2.49127921053568E-05</v>
       </c>
       <c r="AG79">
-        <v>2.491279210535681E-05</v>
+        <v>2.49127921053568E-05</v>
       </c>
       <c r="AH79">
-        <v>2.660549776848772E-16</v>
+        <v>2.660549710136779E-16</v>
       </c>
       <c r="AI79">
         <v>2.491279210535681E-05</v>
@@ -21884,13 +21884,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-9.378891969118246E-16</v>
+        <v>-9.378891998027014E-16</v>
       </c>
       <c r="C80">
         <v>-5.601121831090585E-08</v>
       </c>
       <c r="D80">
-        <v>-9.378892002615603E-16</v>
+        <v>-9.378892040821441E-16</v>
       </c>
       <c r="E80">
         <v>-5.601121831090585E-08</v>
@@ -21917,19 +21917,19 @@
         <v>1.211624400633738E-15</v>
       </c>
       <c r="M80">
-        <v>-2.374669939294701E-16</v>
+        <v>-2.37466996820347E-16</v>
       </c>
       <c r="N80">
         <v>-5.601121709928145E-08</v>
       </c>
       <c r="O80">
-        <v>-2.37466997279206E-16</v>
+        <v>-2.374670010997897E-16</v>
       </c>
       <c r="P80">
         <v>-5.601121709928144E-08</v>
       </c>
       <c r="Q80">
-        <v>-2.374669959144916E-16</v>
+        <v>-2.374669992537711E-16</v>
       </c>
       <c r="R80">
         <v>-5.601121709928144E-08</v>
@@ -21962,13 +21962,13 @@
         <v>2.220026459845485E-07</v>
       </c>
       <c r="AB80">
-        <v>9.54381476041489E-23</v>
+        <v>1.067030928447678E-22</v>
       </c>
       <c r="AC80">
         <v>2.366582715663035E-30</v>
       </c>
       <c r="AD80">
-        <v>9.54381476041489E-23</v>
+        <v>1.067030928447678E-22</v>
       </c>
       <c r="AE80">
         <v>2.220026459845485E-05</v>
@@ -21980,7 +21980,7 @@
         <v>2.220026459845485E-05</v>
       </c>
       <c r="AH80">
-        <v>-9.37889198896846E-16</v>
+        <v>-9.378892022361255E-16</v>
       </c>
       <c r="AI80">
         <v>2.220026459845485E-05</v>
@@ -22419,13 +22419,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.749885649172632E-16</v>
+        <v>4.749885801995976E-16</v>
       </c>
       <c r="C85">
         <v>-1.503313509566491E-07</v>
       </c>
       <c r="D85">
-        <v>4.749885607512786E-16</v>
+        <v>4.749885686106797E-16</v>
       </c>
       <c r="E85">
         <v>-1.503313509566491E-07</v>
@@ -22452,73 +22452,73 @@
         <v>8.957851815434385E-08</v>
       </c>
       <c r="M85">
-        <v>3.876194420815785E-15</v>
+        <v>3.876194436098119E-15</v>
       </c>
       <c r="N85">
         <v>-6.075283280230525E-08</v>
       </c>
       <c r="O85">
-        <v>3.876194415223338E-15</v>
+        <v>3.876194423082739E-15</v>
       </c>
       <c r="P85">
-        <v>-6.075283280230527E-08</v>
+        <v>-6.075283280230524E-08</v>
       </c>
       <c r="Q85">
-        <v>3.876194419783343E-15</v>
+        <v>3.876194433155184E-15</v>
       </c>
       <c r="R85">
-        <v>-6.075283280230524E-08</v>
+        <v>-6.075283280230521E-08</v>
       </c>
       <c r="S85">
-        <v>5.958441561770107E-07</v>
+        <v>5.958441561770106E-07</v>
       </c>
       <c r="T85">
         <v>3.550479396822889E-07</v>
       </c>
       <c r="U85">
-        <v>5.958441561770107E-07</v>
+        <v>5.958441561770106E-07</v>
       </c>
       <c r="V85">
         <v>3.550479396822889E-07</v>
       </c>
       <c r="W85">
-        <v>5.958441561770107E-07</v>
+        <v>5.958441561770106E-07</v>
       </c>
       <c r="X85">
         <v>3.55047939682289E-07</v>
       </c>
       <c r="Y85">
-        <v>5.958441561770107E-07</v>
+        <v>5.958441561770106E-07</v>
       </c>
       <c r="Z85">
-        <v>5.958441561770107E-07</v>
+        <v>5.958441561770106E-07</v>
       </c>
       <c r="AA85">
-        <v>5.958441561770107E-07</v>
+        <v>5.958441561770106E-07</v>
       </c>
       <c r="AB85">
-        <v>2.646977960169689E-22</v>
+        <v>2.994713704459715E-22</v>
       </c>
       <c r="AC85">
         <v>1.674095854080535E-22</v>
       </c>
       <c r="AD85">
-        <v>2.646977960169689E-22</v>
+        <v>2.994713704459715E-22</v>
       </c>
       <c r="AE85">
-        <v>5.958441561770107E-05</v>
+        <v>5.958441561770106E-05</v>
       </c>
       <c r="AF85">
-        <v>5.958441561770107E-05</v>
+        <v>5.958441561770106E-05</v>
       </c>
       <c r="AG85">
-        <v>5.958441561770107E-05</v>
+        <v>5.958441561770106E-05</v>
       </c>
       <c r="AH85">
-        <v>4.74988568964234E-16</v>
+        <v>4.749885823360747E-16</v>
       </c>
       <c r="AI85">
-        <v>5.958441561770107E-05</v>
+        <v>5.958441561770106E-05</v>
       </c>
     </row>
     <row r="86" spans="1:35">
@@ -22954,13 +22954,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.241496211671543E-15</v>
+        <v>-1.241496204030376E-15</v>
       </c>
       <c r="C90">
         <v>-8.782926334944093E-08</v>
       </c>
       <c r="D90">
-        <v>-1.241496221993322E-15</v>
+        <v>-1.241496210422454E-15</v>
       </c>
       <c r="E90">
         <v>-8.782926334944091E-08</v>
@@ -22987,19 +22987,19 @@
         <v>5.525474109015894E-08</v>
       </c>
       <c r="M90">
-        <v>1.67852600520132E-16</v>
+        <v>1.678526081612992E-16</v>
       </c>
       <c r="N90">
         <v>-3.257452225928199E-08</v>
       </c>
       <c r="O90">
-        <v>1.67852597989055E-16</v>
+        <v>1.678526095599232E-16</v>
       </c>
       <c r="P90">
         <v>-3.257452225928198E-08</v>
       </c>
       <c r="Q90">
-        <v>1.678526060509407E-16</v>
+        <v>1.678526127294998E-16</v>
       </c>
       <c r="R90">
         <v>-3.257452225928198E-08</v>
@@ -23011,7 +23011,7 @@
         <v>2.190043125753014E-07</v>
       </c>
       <c r="U90">
-        <v>3.481146971252272E-07</v>
+        <v>3.481146971252271E-07</v>
       </c>
       <c r="V90">
         <v>2.190043125753014E-07</v>
@@ -23026,31 +23026,31 @@
         <v>3.481146971252272E-07</v>
       </c>
       <c r="Z90">
-        <v>3.481146971252272E-07</v>
+        <v>3.481146971252271E-07</v>
       </c>
       <c r="AA90">
         <v>3.481146971252272E-07</v>
       </c>
       <c r="AB90">
-        <v>2.134061856895356E-22</v>
+        <v>1.674095854080535E-22</v>
       </c>
       <c r="AC90">
         <v>9.54381476041489E-23</v>
       </c>
       <c r="AD90">
-        <v>2.134061856895356E-22</v>
+        <v>1.674095854080535E-22</v>
       </c>
       <c r="AE90">
         <v>3.481146971252272E-05</v>
       </c>
       <c r="AF90">
-        <v>3.481146971252272E-05</v>
+        <v>3.481146971252271E-05</v>
       </c>
       <c r="AG90">
         <v>3.481146971252272E-05</v>
       </c>
       <c r="AH90">
-        <v>-1.241496210074192E-15</v>
+        <v>-1.241496203395633E-15</v>
       </c>
       <c r="AI90">
         <v>3.481146971252272E-05</v>
@@ -23061,19 +23061,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-3.327433969702053E-14</v>
+        <v>-3.327433975814986E-14</v>
       </c>
       <c r="C91">
         <v>-9.335300774230396E-07</v>
       </c>
       <c r="D91">
-        <v>-3.327433972205101E-14</v>
+        <v>-3.327433981461796E-14</v>
       </c>
       <c r="E91">
         <v>-9.335300774230395E-07</v>
       </c>
       <c r="F91">
-        <v>-9.335300774230394E-07</v>
+        <v>-9.335300774230395E-07</v>
       </c>
       <c r="G91">
         <v>7.024511867111738E-14</v>
@@ -23094,52 +23094,52 @@
         <v>8.914329790542429E-07</v>
       </c>
       <c r="M91">
-        <v>3.697077897409685E-14</v>
+        <v>3.697077891296752E-14</v>
       </c>
       <c r="N91">
         <v>-4.20970983687966E-08</v>
       </c>
       <c r="O91">
-        <v>3.697077894770468E-14</v>
+        <v>3.697077885513773E-14</v>
       </c>
       <c r="P91">
         <v>-4.20970983687966E-08</v>
       </c>
       <c r="Q91">
-        <v>3.697077893909529E-14</v>
+        <v>3.697077888560792E-14</v>
       </c>
       <c r="R91">
-        <v>-4.20970983687965E-08</v>
+        <v>-4.20970983687966E-08</v>
       </c>
       <c r="S91">
-        <v>3.700082726032337E-06</v>
+        <v>3.700082726032338E-06</v>
       </c>
       <c r="T91">
         <v>3.533229202416565E-06</v>
       </c>
       <c r="U91">
-        <v>3.700082726032337E-06</v>
+        <v>3.700082726032338E-06</v>
       </c>
       <c r="V91">
         <v>3.533229202416564E-06</v>
       </c>
       <c r="W91">
-        <v>3.700082726032337E-06</v>
+        <v>3.700082726032338E-06</v>
       </c>
       <c r="X91">
         <v>3.533229202416564E-06</v>
       </c>
       <c r="Y91">
-        <v>3.700082726032337E-06</v>
+        <v>3.700082726032338E-06</v>
       </c>
       <c r="Z91">
-        <v>3.700082726032337E-06</v>
+        <v>3.700082726032338E-06</v>
       </c>
       <c r="AA91">
-        <v>3.700082726032337E-06</v>
+        <v>3.700082726032338E-06</v>
       </c>
       <c r="AB91">
-        <v>1.339276683264428E-21</v>
+        <v>1.707249485516285E-21</v>
       </c>
       <c r="AC91">
         <v>1.707249485516285E-21</v>
@@ -23148,19 +23148,19 @@
         <v>1.707249485516285E-21</v>
       </c>
       <c r="AE91">
-        <v>0.0003700082726032337</v>
+        <v>0.0003700082726032338</v>
       </c>
       <c r="AF91">
-        <v>0.0003700082726032337</v>
+        <v>0.0003700082726032338</v>
       </c>
       <c r="AG91">
-        <v>0.0003700082726032337</v>
+        <v>0.0003700082726032338</v>
       </c>
       <c r="AH91">
-        <v>-3.327433977044478E-14</v>
+        <v>-3.327433982393215E-14</v>
       </c>
       <c r="AI91">
-        <v>0.0003700082726032337</v>
+        <v>0.0003700082726032338</v>
       </c>
     </row>
     <row r="92" spans="1:35">
@@ -23168,13 +23168,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.082290520363552E-15</v>
+        <v>1.082290517472675E-15</v>
       </c>
       <c r="C92">
         <v>-2.582644346926203E-08</v>
       </c>
       <c r="D92">
-        <v>1.08229052055797E-15</v>
+        <v>1.082290515754962E-15</v>
       </c>
       <c r="E92">
         <v>-2.582644346926203E-08</v>
@@ -23201,19 +23201,19 @@
         <v>4.669482400767637E-16</v>
       </c>
       <c r="M92">
-        <v>2.745409491094281E-16</v>
+        <v>2.745409462185515E-16</v>
       </c>
       <c r="N92">
         <v>-2.582644300231379E-08</v>
       </c>
       <c r="O92">
-        <v>2.74540949303847E-16</v>
+        <v>2.745409445008382E-16</v>
       </c>
       <c r="P92">
         <v>-2.582644300231379E-08</v>
       </c>
       <c r="Q92">
-        <v>2.745409487060612E-16</v>
+        <v>2.74540945368622E-16</v>
       </c>
       <c r="R92">
         <v>-2.582644300231379E-08</v>
@@ -23246,13 +23246,13 @@
         <v>1.023641118690897E-07</v>
       </c>
       <c r="AB92">
-        <v>4.185239635201336E-23</v>
+        <v>4.771907380207445E-23</v>
       </c>
       <c r="AC92">
         <v>1.626278418073297E-30</v>
       </c>
       <c r="AD92">
-        <v>4.185239635201336E-23</v>
+        <v>4.771907380207445E-23</v>
       </c>
       <c r="AE92">
         <v>1.023641118690897E-05</v>
@@ -23264,7 +23264,7 @@
         <v>1.023641118690897E-05</v>
       </c>
       <c r="AH92">
-        <v>1.082290519960185E-15</v>
+        <v>1.082290516622745E-15</v>
       </c>
       <c r="AI92">
         <v>1.023641118690897E-05</v>
@@ -23275,13 +23275,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.728330754336454E-16</v>
+        <v>9.72833074968792E-16</v>
       </c>
       <c r="C93">
         <v>-2.942829908481507E-08</v>
       </c>
       <c r="D93">
-        <v>9.728330731316515E-16</v>
+        <v>9.7283307457801E-16</v>
       </c>
       <c r="E93">
         <v>-2.942829908481507E-08</v>
@@ -23308,19 +23308,19 @@
         <v>9.338964809117931E-16</v>
       </c>
       <c r="M93">
-        <v>-6.426660667103936E-16</v>
+        <v>-6.42666067175247E-16</v>
       </c>
       <c r="N93">
         <v>-2.942829815091859E-08</v>
       </c>
       <c r="O93">
-        <v>-6.426660690123873E-16</v>
+        <v>-6.426660675660288E-16</v>
       </c>
       <c r="P93">
         <v>-2.942829815091859E-08</v>
       </c>
       <c r="Q93">
-        <v>-6.42666068999901E-16</v>
+        <v>-6.426660690017415E-16</v>
       </c>
       <c r="R93">
         <v>-2.942829815091859E-08</v>
@@ -23353,13 +23353,13 @@
         <v>1.166402065085083E-07</v>
       </c>
       <c r="AB93">
-        <v>4.771907380207445E-23</v>
+        <v>4.185239635201336E-23</v>
       </c>
       <c r="AC93">
         <v>3.155443620884047E-30</v>
       </c>
       <c r="AD93">
-        <v>4.771907380207445E-23</v>
+        <v>4.185239635201336E-23</v>
       </c>
       <c r="AE93">
         <v>1.166402065085083E-05</v>
@@ -23371,7 +23371,7 @@
         <v>1.166402065085083E-05</v>
       </c>
       <c r="AH93">
-        <v>9.728330731441376E-16</v>
+        <v>9.728330731422972E-16</v>
       </c>
       <c r="AI93">
         <v>1.166402065085083E-05</v>
@@ -23703,19 +23703,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.238694533579847E-14</v>
+        <v>1.238694528954445E-14</v>
       </c>
       <c r="C97">
-        <v>-6.85070131047411E-07</v>
+        <v>-6.850701310474108E-07</v>
       </c>
       <c r="D97">
-        <v>1.238694537677702E-14</v>
+        <v>1.238694540821464E-14</v>
       </c>
       <c r="E97">
-        <v>-6.850701310474108E-07</v>
+        <v>-6.850701310474107E-07</v>
       </c>
       <c r="F97">
-        <v>-6.850701310474108E-07</v>
+        <v>-6.850701310474107E-07</v>
       </c>
       <c r="G97">
         <v>3.518529474006024E-14</v>
@@ -23736,22 +23736,22 @@
         <v>6.240930452282596E-07</v>
       </c>
       <c r="M97">
-        <v>4.757224007585871E-14</v>
+        <v>4.757224002960469E-14</v>
       </c>
       <c r="N97">
-        <v>-6.09770858191515E-08</v>
+        <v>-6.09770858191514E-08</v>
       </c>
       <c r="O97">
-        <v>4.757224013079586E-14</v>
+        <v>4.757224016223348E-14</v>
       </c>
       <c r="P97">
-        <v>-6.09770858191514E-08</v>
+        <v>-6.097708581915129E-08</v>
       </c>
       <c r="Q97">
-        <v>4.757224005673294E-14</v>
+        <v>4.757224005679184E-14</v>
       </c>
       <c r="R97">
-        <v>-6.097708581915129E-08</v>
+        <v>-6.097708581915118E-08</v>
       </c>
       <c r="S97">
         <v>2.715302018785668E-06</v>
@@ -23790,7 +23790,7 @@
         <v>9.470116246213047E-22</v>
       </c>
       <c r="AE97">
-        <v>0.0002715302018785668</v>
+        <v>0.0002715302018785667</v>
       </c>
       <c r="AF97">
         <v>0.0002715302018785668</v>
@@ -23799,7 +23799,7 @@
         <v>0.0002715302018785668</v>
       </c>
       <c r="AH97">
-        <v>1.23869452785736E-14</v>
+        <v>1.23869452786325E-14</v>
       </c>
       <c r="AI97">
         <v>0.0002715302018785668</v>
@@ -24345,19 +24345,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-1.249216326269382E-15</v>
+        <v>-1.24921632435909E-15</v>
       </c>
       <c r="C103">
         <v>-2.710830858669107E-08</v>
       </c>
       <c r="D103">
-        <v>-1.249216326885682E-15</v>
+        <v>-1.249216323992965E-15</v>
       </c>
       <c r="E103">
-        <v>-2.710830858669107E-08</v>
+        <v>-2.710830858669106E-08</v>
       </c>
       <c r="F103">
-        <v>-2.710830858669107E-08</v>
+        <v>-2.710830858669106E-08</v>
       </c>
       <c r="G103">
         <v>2.208594715349768E-15</v>
@@ -24378,19 +24378,19 @@
         <v>1.956300144096919E-15</v>
       </c>
       <c r="M103">
-        <v>9.593783890803859E-16</v>
+        <v>9.593783909906777E-16</v>
       </c>
       <c r="N103">
         <v>-2.710830663039093E-08</v>
       </c>
       <c r="O103">
-        <v>9.593783884640846E-16</v>
+        <v>9.59378391356802E-16</v>
       </c>
       <c r="P103">
         <v>-2.710830663039092E-08</v>
       </c>
       <c r="Q103">
-        <v>9.59378388854385E-16</v>
+        <v>9.593783905277068E-16</v>
       </c>
       <c r="R103">
         <v>-2.710830663039092E-08</v>
@@ -24423,16 +24423,16 @@
         <v>1.074448304584976E-07</v>
       </c>
       <c r="AB103">
-        <v>5.33515464223839E-23</v>
+        <v>4.771907380207445E-23</v>
       </c>
       <c r="AC103">
         <v>5.688556885966593E-30</v>
       </c>
       <c r="AD103">
-        <v>5.33515464223839E-23</v>
+        <v>4.771907380207445E-23</v>
       </c>
       <c r="AE103">
-        <v>1.074448304584977E-05</v>
+        <v>1.074448304584976E-05</v>
       </c>
       <c r="AF103">
         <v>1.074448304584976E-05</v>
@@ -24441,10 +24441,10 @@
         <v>1.074448304584976E-05</v>
       </c>
       <c r="AH103">
-        <v>-1.249216326495382E-15</v>
+        <v>-1.24921632482206E-15</v>
       </c>
       <c r="AI103">
-        <v>1.074448304584977E-05</v>
+        <v>1.074448304584976E-05</v>
       </c>
     </row>
     <row r="104" spans="1:35">
@@ -24559,19 +24559,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-3.478742341200799E-16</v>
+        <v>-3.478742417612471E-16</v>
       </c>
       <c r="C105">
+        <v>-9.463158288526779E-08</v>
+      </c>
+      <c r="D105">
+        <v>-3.47874242934746E-16</v>
+      </c>
+      <c r="E105">
         <v>-9.463158288526777E-08</v>
       </c>
-      <c r="D105">
-        <v>-3.478742390050429E-16</v>
-      </c>
-      <c r="E105">
-        <v>-9.463158288526775E-08</v>
-      </c>
       <c r="F105">
-        <v>-9.463158288526777E-08</v>
+        <v>-9.463158288526779E-08</v>
       </c>
       <c r="G105">
         <v>1.149188339074446E-15</v>
@@ -24592,25 +24592,25 @@
         <v>5.114302191896496E-08</v>
       </c>
       <c r="M105">
-        <v>8.013141049543659E-16</v>
+        <v>8.013140973131988E-16</v>
       </c>
       <c r="N105">
-        <v>-4.348856096630279E-08</v>
+        <v>-4.348856096630282E-08</v>
       </c>
       <c r="O105">
-        <v>8.013141018919739E-16</v>
+        <v>8.013140979622709E-16</v>
       </c>
       <c r="P105">
-        <v>-4.348856096630279E-08</v>
+        <v>-4.34885609663028E-08</v>
       </c>
       <c r="Q105">
-        <v>8.013141029887E-16</v>
+        <v>8.013140963027758E-16</v>
       </c>
       <c r="R105">
-        <v>-4.34885609663028E-08</v>
+        <v>-4.348856096630283E-08</v>
       </c>
       <c r="S105">
-        <v>3.750759387025696E-07</v>
+        <v>3.750759387025697E-07</v>
       </c>
       <c r="T105">
         <v>2.027073451427109E-07</v>
@@ -24622,43 +24622,43 @@
         <v>2.027073451427109E-07</v>
       </c>
       <c r="W105">
-        <v>3.750759387025695E-07</v>
+        <v>3.750759387025696E-07</v>
       </c>
       <c r="X105">
         <v>2.027073451427109E-07</v>
       </c>
       <c r="Y105">
-        <v>3.750759387025696E-07</v>
+        <v>3.750759387025697E-07</v>
       </c>
       <c r="Z105">
         <v>3.750759387025695E-07</v>
       </c>
       <c r="AA105">
-        <v>3.750759387025695E-07</v>
+        <v>3.750759387025696E-07</v>
       </c>
       <c r="AB105">
-        <v>1.908762952082978E-22</v>
+        <v>1.425441255636648E-22</v>
       </c>
       <c r="AC105">
         <v>9.54381476041489E-23</v>
       </c>
       <c r="AD105">
-        <v>1.908762952082978E-22</v>
+        <v>1.425441255636648E-22</v>
       </c>
       <c r="AE105">
+        <v>3.750759387025697E-05</v>
+      </c>
+      <c r="AF105">
         <v>3.750759387025696E-05</v>
-      </c>
-      <c r="AF105">
-        <v>3.750759387025695E-05</v>
       </c>
       <c r="AG105">
         <v>3.750759387025696E-05</v>
       </c>
       <c r="AH105">
-        <v>-3.478742371645996E-16</v>
+        <v>-3.478742438505237E-16</v>
       </c>
       <c r="AI105">
-        <v>3.750759387025696E-05</v>
+        <v>3.750759387025697E-05</v>
       </c>
     </row>
     <row r="106" spans="1:35">
@@ -24666,19 +24666,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9.714617413982123E-16</v>
+        <v>9.714617488358704E-16</v>
       </c>
       <c r="C106">
-        <v>-3.662751725428845E-07</v>
+        <v>-3.662751725428844E-07</v>
       </c>
       <c r="D106">
-        <v>9.714616951724356E-16</v>
+        <v>9.714617414559165E-16</v>
       </c>
       <c r="E106">
         <v>-3.662751725428844E-07</v>
       </c>
       <c r="F106">
-        <v>-3.662751725428845E-07</v>
+        <v>-3.662751725428844E-07</v>
       </c>
       <c r="G106">
         <v>1.492872693371531E-14</v>
@@ -24699,22 +24699,22 @@
         <v>2.88442277219064E-07</v>
       </c>
       <c r="M106">
-        <v>1.590018867511352E-14</v>
+        <v>1.590018868255118E-14</v>
       </c>
       <c r="N106">
-        <v>-7.783289532382045E-08</v>
+        <v>-7.78328953238204E-08</v>
       </c>
       <c r="O106">
-        <v>1.590018862023904E-14</v>
+        <v>1.590018866652252E-14</v>
       </c>
       <c r="P106">
         <v>-7.783289532382035E-08</v>
       </c>
       <c r="Q106">
-        <v>1.590018867934734E-14</v>
+        <v>1.59001886793768E-14</v>
       </c>
       <c r="R106">
-        <v>-7.783289532382045E-08</v>
+        <v>-7.78328953238204E-08</v>
       </c>
       <c r="S106">
         <v>1.451745812299579E-06</v>
@@ -24744,13 +24744,13 @@
         <v>1.451745812299579E-06</v>
       </c>
       <c r="AB106">
-        <v>8.536247427581424E-22</v>
+        <v>5.701765022546593E-22</v>
       </c>
       <c r="AC106">
         <v>5.293955920339377E-22</v>
       </c>
       <c r="AD106">
-        <v>8.536247427581424E-22</v>
+        <v>5.701765022546593E-22</v>
       </c>
       <c r="AE106">
         <v>0.0001451745812299579</v>
@@ -24762,7 +24762,7 @@
         <v>0.0001451745812299579</v>
       </c>
       <c r="AH106">
-        <v>9.71461748118315E-16</v>
+        <v>9.714617481477746E-16</v>
       </c>
       <c r="AI106">
         <v>0.0001451745812299579</v>

--- a/code/basic_network_results.xlsx
+++ b/code/basic_network_results.xlsx
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.098133891924775E-11</v>
+        <v>4.09813389193797E-11</v>
       </c>
       <c r="C2">
         <v>-1.42275053398029E-05</v>
@@ -8028,7 +8028,7 @@
         <v>1.396512717727895E-05</v>
       </c>
       <c r="F2">
-        <v>1.014885135652994E-11</v>
+        <v>1.014885135666189E-11</v>
       </c>
       <c r="G2">
         <v>-2.623781625239564E-07</v>
@@ -8063,10 +8063,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-8.185680778910691E-15</v>
+        <v>-8.185680781600415E-15</v>
       </c>
       <c r="C3">
-        <v>-2.160168286564321E-07</v>
+        <v>-2.16016828656432E-07</v>
       </c>
       <c r="D3">
         <v>9.453234873736014E-15</v>
@@ -8075,10 +8075,10 @@
         <v>1.451656662571507E-07</v>
       </c>
       <c r="F3">
-        <v>1.267554094825322E-15</v>
+        <v>1.267554092135599E-15</v>
       </c>
       <c r="G3">
-        <v>-7.085116239928133E-08</v>
+        <v>-7.085116239928131E-08</v>
       </c>
       <c r="H3">
         <v>2.853971802965264E-07</v>
@@ -8110,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.082613373619628E-11</v>
+        <v>3.082613373613899E-11</v>
       </c>
       <c r="C4">
         <v>-1.374911034021749E-05</v>
@@ -8122,10 +8122,10 @@
         <v>1.359765873335399E-05</v>
       </c>
       <c r="F4">
-        <v>5.511589498596664E-12</v>
+        <v>5.511589498539376E-12</v>
       </c>
       <c r="G4">
-        <v>-1.514516068635003E-07</v>
+        <v>-1.51451606863502E-07</v>
       </c>
       <c r="H4">
         <v>1.816505383909083E-05</v>
@@ -8157,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.151828837173984E-16</v>
+        <v>9.151828822323315E-16</v>
       </c>
       <c r="C5">
         <v>-6.420868738007444E-08</v>
@@ -8169,7 +8169,7 @@
         <v>5.098784960533612E-15</v>
       </c>
       <c r="F5">
-        <v>-4.480352232847897E-16</v>
+        <v>-4.480352247698567E-16</v>
       </c>
       <c r="G5">
         <v>-6.420868228128948E-08</v>
@@ -8204,7 +8204,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-6.754131478112221E-16</v>
+        <v>-6.754131467390485E-16</v>
       </c>
       <c r="C6">
         <v>-8.095698448042656E-08</v>
@@ -8216,7 +8216,7 @@
         <v>-5.098784961603385E-15</v>
       </c>
       <c r="F6">
-        <v>6.878049561437534E-16</v>
+        <v>6.87804957215927E-16</v>
       </c>
       <c r="G6">
         <v>-8.095698957921152E-08</v>
@@ -8251,7 +8251,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.276109689535014E-15</v>
+        <v>7.276109684549545E-15</v>
       </c>
       <c r="C7">
         <v>-2.198546108093676E-07</v>
@@ -8263,10 +8263,10 @@
         <v>1.511440112822906E-07</v>
       </c>
       <c r="F7">
-        <v>7.497737049874915E-16</v>
+        <v>7.497737000020231E-16</v>
       </c>
       <c r="G7">
-        <v>-6.871059952707704E-08</v>
+        <v>-6.871059952707701E-08</v>
       </c>
       <c r="H7">
         <v>2.904675638661617E-07</v>
@@ -8298,7 +8298,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.530633423546632E-11</v>
+        <v>2.530633423507186E-11</v>
       </c>
       <c r="C8">
         <v>-1.337780412416012E-05</v>
@@ -8310,7 +8310,7 @@
         <v>1.31239682519247E-05</v>
       </c>
       <c r="F8">
-        <v>8.675948513420537E-12</v>
+        <v>8.675948513026075E-12</v>
       </c>
       <c r="G8">
         <v>-2.538358722354198E-07</v>
@@ -8345,7 +8345,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.519337480074251E-15</v>
+        <v>-5.519337477734566E-15</v>
       </c>
       <c r="C9">
         <v>-7.382325302128423E-08</v>
@@ -8357,7 +8357,7 @@
         <v>3.231000987715296E-15</v>
       </c>
       <c r="F9">
-        <v>-3.651552630043767E-15</v>
+        <v>-3.651552627704082E-15</v>
       </c>
       <c r="G9">
         <v>-7.382324979028325E-08</v>
@@ -8392,7 +8392,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-6.911008750130596E-15</v>
+        <v>-6.911008752103004E-15</v>
       </c>
       <c r="C10">
         <v>-7.73207537685836E-08</v>
@@ -8404,7 +8404,7 @@
         <v>-2.522843567278955E-16</v>
       </c>
       <c r="F10">
-        <v>-2.746115337391248E-15</v>
+        <v>-2.746115339363656E-15</v>
       </c>
       <c r="G10">
         <v>-7.732075402086796E-08</v>
@@ -8439,7 +8439,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.292259873266313E-14</v>
+        <v>-1.292259873230269E-14</v>
       </c>
       <c r="C11">
         <v>-1.959569276349526E-07</v>
@@ -8451,10 +8451,10 @@
         <v>9.686797690221796E-08</v>
       </c>
       <c r="F11">
-        <v>-1.571479143026697E-15</v>
+        <v>-1.57147914266626E-15</v>
       </c>
       <c r="G11">
-        <v>-9.908895073273462E-08</v>
+        <v>-9.90889507327346E-08</v>
       </c>
       <c r="H11">
         <v>2.588943904836847E-07</v>
@@ -8486,7 +8486,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.663429692696395E-11</v>
+        <v>1.663429692654126E-11</v>
       </c>
       <c r="C12">
         <v>-1.292801132123578E-05</v>
@@ -8498,19 +8498,19 @@
         <v>1.276751474019483E-05</v>
       </c>
       <c r="F12">
-        <v>5.152909485605457E-12</v>
+        <v>5.152909485182771E-12</v>
       </c>
       <c r="G12">
-        <v>-1.604965810409563E-07</v>
+        <v>-1.604965810409547E-07</v>
       </c>
       <c r="H12">
-        <v>1.708023110780432E-05</v>
+        <v>1.708023110780431E-05</v>
       </c>
       <c r="I12">
         <v>1.686818514329259E-05</v>
       </c>
       <c r="J12">
-        <v>1.708023110780432E-05</v>
+        <v>1.708023110780431E-05</v>
       </c>
       <c r="K12">
         <v>1.050470892526017</v>
@@ -8525,7 +8525,7 @@
         <v>-30.03151168734117</v>
       </c>
       <c r="O12">
-        <v>0.001708023110780432</v>
+        <v>0.001708023110780431</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -8533,7 +8533,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.076553136836356E-14</v>
+        <v>2.07655313673443E-14</v>
       </c>
       <c r="C13">
         <v>-4.843400050320938E-08</v>
@@ -8545,7 +8545,7 @@
         <v>1.009148438748866E-15</v>
       </c>
       <c r="F13">
-        <v>4.105956641787909E-15</v>
+        <v>4.10595664076865E-15</v>
       </c>
       <c r="G13">
         <v>-4.843399949406094E-08</v>
@@ -8580,7 +8580,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.076553136836356E-14</v>
+        <v>2.07655313673443E-14</v>
       </c>
       <c r="C14">
         <v>-4.843400050320938E-08</v>
@@ -8592,7 +8592,7 @@
         <v>1.009148438748866E-15</v>
       </c>
       <c r="F14">
-        <v>4.105956641787909E-15</v>
+        <v>4.10595664076865E-15</v>
       </c>
       <c r="G14">
         <v>-4.843399949406094E-08</v>
@@ -8627,7 +8627,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.14448584882742E-11</v>
+        <v>1.144485848865277E-11</v>
       </c>
       <c r="C15">
         <v>-1.112002240404237E-05</v>
@@ -8639,7 +8639,7 @@
         <v>1.1014459088354E-05</v>
       </c>
       <c r="F15">
-        <v>2.524019017666599E-12</v>
+        <v>2.524019018045171E-12</v>
       </c>
       <c r="G15">
         <v>-1.055633156883713E-07</v>
@@ -8674,7 +8674,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-3.40271796764969E-15</v>
+        <v>-3.402718014006276E-15</v>
       </c>
       <c r="C16">
         <v>-1.647492360486717E-06</v>
@@ -8686,7 +8686,7 @@
         <v>1.4714092164535E-06</v>
       </c>
       <c r="F16">
-        <v>9.752612671751761E-15</v>
+        <v>9.752612625395177E-15</v>
       </c>
       <c r="G16">
         <v>-1.76083144033217E-07</v>
@@ -8721,7 +8721,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-3.134830731048498E-14</v>
+        <v>-3.134830726014333E-14</v>
       </c>
       <c r="C17">
         <v>-1.13588740194434E-06</v>
@@ -8733,7 +8733,7 @@
         <v>1.085820220812636E-06</v>
       </c>
       <c r="F17">
-        <v>-1.752460082963842E-14</v>
+        <v>-1.752460077929677E-14</v>
       </c>
       <c r="G17">
         <v>-5.006718113170347E-08</v>
@@ -8768,7 +8768,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.920187296244007E-12</v>
+        <v>8.920187296095289E-12</v>
       </c>
       <c r="C18">
         <v>-9.878571883447623E-06</v>
@@ -8780,7 +8780,7 @@
         <v>9.540367061093257E-06</v>
       </c>
       <c r="F18">
-        <v>3.810231710636903E-12</v>
+        <v>3.810231710488185E-12</v>
       </c>
       <c r="G18">
         <v>-3.382048223543667E-07</v>
@@ -8815,10 +8815,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.096291129134554E-14</v>
+        <v>3.096291129254912E-14</v>
       </c>
       <c r="C19">
-        <v>-9.13672744430521E-07</v>
+        <v>-9.136727444305209E-07</v>
       </c>
       <c r="D19">
         <v>-2.297399684708428E-14</v>
@@ -8827,10 +8827,10 @@
         <v>7.205582590530687E-07</v>
       </c>
       <c r="F19">
-        <v>7.988914444261258E-15</v>
+        <v>7.988914445464839E-15</v>
       </c>
       <c r="G19">
-        <v>-1.931144853774523E-07</v>
+        <v>-1.931144853774522E-07</v>
       </c>
       <c r="H19">
         <v>1.207126112157671E-06</v>
@@ -8862,7 +8862,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.540954046749538E-15</v>
+        <v>2.54095405206848E-15</v>
       </c>
       <c r="C20">
         <v>-1.721474541679387E-07</v>
@@ -8874,7 +8874,7 @@
         <v>-6.816049324478064E-16</v>
       </c>
       <c r="F20">
-        <v>-8.440273199946564E-18</v>
+        <v>-8.440267881004579E-18</v>
       </c>
       <c r="G20">
         <v>-1.721474548495436E-07</v>
@@ -8909,7 +8909,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.399326468056339E-14</v>
+        <v>-1.399326468301636E-14</v>
       </c>
       <c r="C21">
         <v>-2.744344474627507E-07</v>
@@ -8921,7 +8921,7 @@
         <v>1.402263229872253E-07</v>
       </c>
       <c r="F21">
-        <v>3.638201610929005E-15</v>
+        <v>3.638201608476032E-15</v>
       </c>
       <c r="G21">
         <v>-1.342081244755254E-07</v>
@@ -8956,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.26950473452514E-14</v>
+        <v>-1.269504735442932E-14</v>
       </c>
       <c r="C22">
         <v>-4.461238378432435E-07</v>
@@ -8968,19 +8968,19 @@
         <v>2.501548633183739E-07</v>
       </c>
       <c r="F22">
-        <v>3.868735432469033E-15</v>
+        <v>3.868735423291113E-15</v>
       </c>
       <c r="G22">
         <v>-1.959689745248696E-07</v>
       </c>
       <c r="H22">
-        <v>5.894098676970881E-07</v>
+        <v>5.89409867697088E-07</v>
       </c>
       <c r="I22">
         <v>3.304995879815335E-07</v>
       </c>
       <c r="J22">
-        <v>5.894098676970881E-07</v>
+        <v>5.89409867697088E-07</v>
       </c>
       <c r="K22">
         <v>1.050471004277341</v>
@@ -9003,7 +9003,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-6.215676684888911E-15</v>
+        <v>-6.215676685932095E-15</v>
       </c>
       <c r="C23">
         <v>-2.501548305038016E-07</v>
@@ -9015,7 +9015,7 @@
         <v>1.252863820954363E-07</v>
       </c>
       <c r="F23">
-        <v>3.197564891885962E-15</v>
+        <v>3.197564890842778E-15</v>
       </c>
       <c r="G23">
         <v>-1.248684484083653E-07</v>
@@ -9050,7 +9050,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.903382977536576E-15</v>
+        <v>2.903382979378238E-15</v>
       </c>
       <c r="C24">
         <v>-8.260634912216915E-08</v>
@@ -9062,7 +9062,7 @@
         <v>8.582077751504286E-15</v>
       </c>
       <c r="F24">
-        <v>-7.56931342003074E-16</v>
+        <v>-7.56931340161412E-16</v>
       </c>
       <c r="G24">
         <v>-8.26063405400914E-08</v>
@@ -9097,7 +9097,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.549092808770904E-15</v>
+        <v>2.549092807846842E-15</v>
       </c>
       <c r="C25">
         <v>-5.76199861318324E-08</v>
@@ -9109,10 +9109,10 @@
         <v>6.96657812568926E-15</v>
       </c>
       <c r="F25">
-        <v>-2.045116238480911E-15</v>
+        <v>-2.045116239404974E-15</v>
       </c>
       <c r="G25">
-        <v>-5.761997916525427E-08</v>
+        <v>-5.761997916525428E-08</v>
       </c>
       <c r="H25">
         <v>7.612637004685558E-08</v>
@@ -9144,7 +9144,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.121453704781906E-15</v>
+        <v>2.121453705751397E-15</v>
       </c>
       <c r="C26">
         <v>-8.539303881873476E-08</v>
@@ -9156,7 +9156,7 @@
         <v>-4.84649887130092E-15</v>
       </c>
       <c r="F26">
-        <v>-6.802304688363279E-16</v>
+        <v>-6.802304678668368E-16</v>
       </c>
       <c r="G26">
         <v>-8.539304366523363E-08</v>
@@ -9191,7 +9191,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-8.228431477719793E-15</v>
+        <v>-8.228431477434238E-15</v>
       </c>
       <c r="C27">
         <v>-3.989333010041472E-08</v>
@@ -9203,7 +9203,7 @@
         <v>-3.735578888504779E-15</v>
       </c>
       <c r="F27">
-        <v>-1.766432978015481E-15</v>
+        <v>-1.766432977729926E-15</v>
       </c>
       <c r="G27">
         <v>-3.989333383599361E-08</v>
@@ -9238,7 +9238,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.67017088255529E-14</v>
+        <v>3.670170879975396E-14</v>
       </c>
       <c r="C28">
         <v>-1.248985546885921E-06</v>
@@ -9250,7 +9250,7 @@
         <v>1.101401385183E-06</v>
       </c>
       <c r="F28">
-        <v>9.241855303857799E-15</v>
+        <v>9.24185527805886E-15</v>
       </c>
       <c r="G28">
         <v>-1.475841617029206E-07</v>
@@ -9285,7 +9285,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.221484698013776E-15</v>
+        <v>1.22148469330461E-15</v>
       </c>
       <c r="C29">
         <v>-2.22423730348098E-07</v>
@@ -9297,7 +9297,7 @@
         <v>2.082446938899066E-15</v>
       </c>
       <c r="F29">
-        <v>1.347629129481035E-15</v>
+        <v>1.347629124771869E-15</v>
       </c>
       <c r="G29">
         <v>-2.224237282656511E-07</v>
@@ -9332,7 +9332,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-4.168635677473822E-15</v>
+        <v>-4.168635671629936E-15</v>
       </c>
       <c r="C30">
         <v>-3.311632655762818E-07</v>
@@ -9344,7 +9344,7 @@
         <v>1.81800893247479E-07</v>
       </c>
       <c r="F30">
-        <v>6.70874258859258E-15</v>
+        <v>6.708742594436467E-15</v>
       </c>
       <c r="G30">
         <v>-1.493623723288028E-07</v>
@@ -9371,7 +9371,7 @@
         <v>-30.03151378604203</v>
       </c>
       <c r="O30">
-        <v>4.375262779279307E-05</v>
+        <v>4.375262779279306E-05</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -9379,7 +9379,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.749356777867769E-14</v>
+        <v>4.74935678041045E-14</v>
       </c>
       <c r="C31">
         <v>-7.702381406325931E-07</v>
@@ -9391,7 +9391,7 @@
         <v>6.006231545398118E-07</v>
       </c>
       <c r="F31">
-        <v>4.155176769995658E-15</v>
+        <v>4.155176795422476E-15</v>
       </c>
       <c r="G31">
         <v>-1.696149860927813E-07</v>
@@ -9426,7 +9426,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.343510288261588E-15</v>
+        <v>1.343510291241649E-15</v>
       </c>
       <c r="C32">
         <v>-8.295429843678438E-08</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.343510288261588E-15</v>
+        <v>1.343510291241649E-15</v>
       </c>
       <c r="G32">
         <v>-8.295429843678438E-08</v>
@@ -9473,7 +9473,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-3.171864662906934E-15</v>
+        <v>-3.171864663476494E-15</v>
       </c>
       <c r="C33">
         <v>-9.884659034262869E-08</v>
@@ -9485,7 +9485,7 @@
         <v>-4.417182829036742E-15</v>
       </c>
       <c r="F33">
-        <v>7.407403040435095E-16</v>
+        <v>7.407403034739504E-16</v>
       </c>
       <c r="G33">
         <v>-9.884659475981151E-08</v>
@@ -9520,7 +9520,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-2.906591994742453E-16</v>
+        <v>-2.906591970316356E-16</v>
       </c>
       <c r="C34">
         <v>-2.214866333346845E-07</v>
@@ -9532,7 +9532,7 @@
         <v>-1.261444557580816E-16</v>
       </c>
       <c r="F34">
-        <v>1.791787755773892E-15</v>
+        <v>1.791787758216501E-15</v>
       </c>
       <c r="G34">
         <v>-2.21486633460829E-07</v>
@@ -9567,7 +9567,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-2.119234700135232E-14</v>
+        <v>-2.119234699128761E-14</v>
       </c>
       <c r="C35">
         <v>-3.79136500975877E-07</v>
@@ -9579,7 +9579,7 @@
         <v>2.906892121136216E-07</v>
       </c>
       <c r="F35">
-        <v>2.571998263158147E-14</v>
+        <v>2.571998264164618E-14</v>
       </c>
       <c r="G35">
         <v>-8.844728886225538E-08</v>
@@ -9614,7 +9614,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.356316737223604E-15</v>
+        <v>3.356316728592517E-15</v>
       </c>
       <c r="C36">
         <v>-2.906892034541561E-07</v>
@@ -9626,7 +9626,7 @@
         <v>1.272391421204309E-07</v>
       </c>
       <c r="F36">
-        <v>3.103841197070822E-15</v>
+        <v>3.103841188439735E-15</v>
       </c>
       <c r="G36">
         <v>-1.634500613337252E-07</v>
@@ -9661,10 +9661,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-8.4558389929703E-15</v>
+        <v>-8.455838992055471E-15</v>
       </c>
       <c r="C37">
-        <v>-6.36195747205315E-08</v>
+        <v>-6.361957472053149E-08</v>
       </c>
       <c r="D37">
         <v>6.966576991960111E-15</v>
@@ -9673,19 +9673,19 @@
         <v>4.594210391482432E-15</v>
       </c>
       <c r="F37">
-        <v>-1.48926200101019E-15</v>
+        <v>-1.48926200009536E-15</v>
       </c>
       <c r="G37">
-        <v>-6.361957012632111E-08</v>
+        <v>-6.361957012632109E-08</v>
       </c>
       <c r="H37">
-        <v>8.405290824228283E-08</v>
+        <v>8.405290824228282E-08</v>
       </c>
       <c r="I37">
         <v>1.102532124345964E-14</v>
       </c>
       <c r="J37">
-        <v>8.405290824228283E-08</v>
+        <v>8.405290824228282E-08</v>
       </c>
       <c r="K37">
         <v>1.050470979402002</v>
@@ -9708,10 +9708,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-8.4558389929703E-15</v>
+        <v>-8.455838992055471E-15</v>
       </c>
       <c r="C38">
-        <v>-6.36195747205315E-08</v>
+        <v>-6.361957472053149E-08</v>
       </c>
       <c r="D38">
         <v>6.966576991960111E-15</v>
@@ -9720,19 +9720,19 @@
         <v>4.594210391482432E-15</v>
       </c>
       <c r="F38">
-        <v>-1.48926200101019E-15</v>
+        <v>-1.48926200009536E-15</v>
       </c>
       <c r="G38">
-        <v>-6.361957012632111E-08</v>
+        <v>-6.361957012632109E-08</v>
       </c>
       <c r="H38">
-        <v>8.405290824228283E-08</v>
+        <v>8.405290824228282E-08</v>
       </c>
       <c r="I38">
         <v>1.102532124345964E-14</v>
       </c>
       <c r="J38">
-        <v>8.405290824228283E-08</v>
+        <v>8.405290824228282E-08</v>
       </c>
       <c r="K38">
         <v>1.050470979402002</v>
@@ -9755,7 +9755,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.124436590893416E-12</v>
+        <v>5.124436590803238E-12</v>
       </c>
       <c r="C39">
         <v>-9.366101846620066E-06</v>
@@ -9767,7 +9767,7 @@
         <v>9.317272251466509E-06</v>
       </c>
       <c r="F39">
-        <v>4.997202856067261E-13</v>
+        <v>4.997202855165481E-13</v>
       </c>
       <c r="G39">
         <v>-4.882959515355623E-08</v>
@@ -9802,7 +9802,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.417623021391629E-15</v>
+        <v>-1.417623020530995E-15</v>
       </c>
       <c r="C40">
         <v>-1.74265240345577E-07</v>
@@ -9814,7 +9814,7 @@
         <v>2.423249141565495E-15</v>
       </c>
       <c r="F40">
-        <v>-1.677988971629571E-17</v>
+        <v>-1.677988885566246E-17</v>
       </c>
       <c r="G40">
         <v>-1.742652379223279E-07</v>
@@ -9849,7 +9849,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.627691013915657E-12</v>
+        <v>4.627691013663168E-12</v>
       </c>
       <c r="C41">
         <v>-9.137678434389933E-06</v>
@@ -9861,7 +9861,7 @@
         <v>9.077789388813129E-06</v>
       </c>
       <c r="F41">
-        <v>5.970405595878908E-13</v>
+        <v>5.97040559335402E-13</v>
       </c>
       <c r="G41">
         <v>-5.988904557680404E-08</v>
@@ -9896,7 +9896,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.845310466907911E-15</v>
+        <v>1.845310469678883E-15</v>
       </c>
       <c r="C42">
         <v>-1.795937789109224E-07</v>
@@ -9908,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.845310466907911E-15</v>
+        <v>1.845310469678883E-15</v>
       </c>
       <c r="G42">
         <v>-1.795937789109224E-07</v>
@@ -9943,7 +9943,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.383668994756752E-12</v>
+        <v>1.38366899470906E-12</v>
       </c>
       <c r="C43">
         <v>-3.506462818439192E-06</v>
@@ -9955,7 +9955,7 @@
         <v>3.407711140179612E-06</v>
       </c>
       <c r="F43">
-        <v>2.409557477014442E-13</v>
+        <v>2.409557476537517E-13</v>
       </c>
       <c r="G43">
         <v>-9.875167825958008E-08</v>
@@ -9990,7 +9990,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.654151537039832E-12</v>
+        <v>2.65415153683361E-12</v>
       </c>
       <c r="C44">
         <v>-5.571326617626254E-06</v>
@@ -10002,7 +10002,7 @@
         <v>5.4837154995728E-06</v>
       </c>
       <c r="F44">
-        <v>3.133192387551178E-13</v>
+        <v>3.133192385488962E-13</v>
       </c>
       <c r="G44">
         <v>-8.76111180534534E-08</v>
@@ -10037,10 +10037,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.140421542183636E-12</v>
+        <v>1.140421542151763E-12</v>
       </c>
       <c r="C45">
-        <v>-3.150701273247038E-06</v>
+        <v>-3.150701273247037E-06</v>
       </c>
       <c r="D45">
         <v>-8.893477890942297E-13</v>
@@ -10049,10 +10049,10 @@
         <v>3.022562217672898E-06</v>
       </c>
       <c r="F45">
-        <v>2.510737530894059E-13</v>
+        <v>2.510737530575338E-13</v>
       </c>
       <c r="G45">
-        <v>-1.281390555741397E-07</v>
+        <v>-1.281390555741393E-07</v>
       </c>
       <c r="H45">
         <v>4.162642747309313E-06</v>
@@ -10084,7 +10084,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.385249218929479E-14</v>
+        <v>1.385249218793122E-14</v>
       </c>
       <c r="C46">
         <v>-2.570098693049501E-07</v>
@@ -10096,7 +10096,7 @@
         <v>1.646361910097888E-07</v>
       </c>
       <c r="F46">
-        <v>4.815621726872163E-17</v>
+        <v>4.815621590515347E-17</v>
       </c>
       <c r="G46">
         <v>-9.237367829516134E-08</v>
@@ -10131,7 +10131,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-3.069790864007942E-15</v>
+        <v>-3.069790863746303E-15</v>
       </c>
       <c r="C47">
         <v>-6.236092385846568E-08</v>
@@ -10143,7 +10143,7 @@
         <v>-6.966581727378257E-15</v>
       </c>
       <c r="F47">
-        <v>1.524414860624733E-15</v>
+        <v>1.524414860886372E-15</v>
       </c>
       <c r="G47">
         <v>-6.236093082504741E-08</v>
@@ -10178,7 +10178,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-2.511864992044683E-15</v>
+        <v>-2.511864995130966E-15</v>
       </c>
       <c r="C48">
         <v>-1.022752559445739E-07</v>
@@ -10190,7 +10190,7 @@
         <v>-3.483290867916702E-15</v>
       </c>
       <c r="F48">
-        <v>-2.147621351825799E-16</v>
+        <v>-2.147621382688629E-16</v>
       </c>
       <c r="G48">
         <v>-1.022752594278647E-07</v>
@@ -10225,7 +10225,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.978420178162354E-13</v>
+        <v>8.97842017848541E-13</v>
       </c>
       <c r="C49">
         <v>-2.869573780024826E-06</v>
@@ -10237,7 +10237,7 @@
         <v>2.789507560421363E-06</v>
       </c>
       <c r="F49">
-        <v>1.349882802878312E-13</v>
+        <v>1.349882803201368E-13</v>
       </c>
       <c r="G49">
         <v>-8.00662196034638E-08</v>
@@ -10272,7 +10272,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.694560589200108E-16</v>
+        <v>7.69456058351476E-16</v>
       </c>
       <c r="C50">
         <v>-1.529884365371573E-07</v>
@@ -10284,7 +10284,7 @@
         <v>-1.615499266925395E-15</v>
       </c>
       <c r="F50">
-        <v>-1.644398487407494E-16</v>
+        <v>-1.644398493092842E-16</v>
       </c>
       <c r="G50">
         <v>-1.529884381526566E-07</v>
@@ -10319,7 +10319,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.453383940559206E-15</v>
+        <v>3.453383938255892E-15</v>
       </c>
       <c r="C51">
         <v>-1.894033685215216E-07</v>
@@ -10331,7 +10331,7 @@
         <v>-2.297102471350955E-15</v>
       </c>
       <c r="F51">
-        <v>-2.990728205843888E-17</v>
+        <v>-2.990728436175337E-17</v>
       </c>
       <c r="G51">
         <v>-1.894033708186241E-07</v>
@@ -10366,7 +10366,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.62252912784925E-13</v>
+        <v>7.622529128261567E-13</v>
       </c>
       <c r="C52">
         <v>-2.600104200014975E-06</v>
@@ -10378,7 +10378,7 @@
         <v>2.14819311043134E-06</v>
       </c>
       <c r="F52">
-        <v>5.207498427499872E-13</v>
+        <v>5.207498427912189E-13</v>
       </c>
       <c r="G52">
         <v>-4.519110895836347E-07</v>
@@ -10413,7 +10413,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.317879547169715E-12</v>
+        <v>2.317879546982662E-12</v>
       </c>
       <c r="C53">
         <v>-5.228929364387325E-06</v>
@@ -10425,7 +10425,7 @@
         <v>5.140485577162458E-06</v>
       </c>
       <c r="F53">
-        <v>2.799320354666563E-13</v>
+        <v>2.799320352796037E-13</v>
       </c>
       <c r="G53">
         <v>-8.844378722486648E-08</v>
@@ -10460,7 +10460,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.519953828775137E-15</v>
+        <v>2.519953828905E-15</v>
       </c>
       <c r="C54">
         <v>-2.547861481603435E-07</v>
@@ -10472,7 +10472,7 @@
         <v>1.615499331224337E-15</v>
       </c>
       <c r="F54">
-        <v>3.453849595772497E-15</v>
+        <v>3.45384959590236E-15</v>
       </c>
       <c r="G54">
         <v>-2.547861465448442E-07</v>
@@ -10507,7 +10507,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.031984384224869E-12</v>
+        <v>2.031984384271872E-12</v>
       </c>
       <c r="C55">
         <v>-4.827739912131371E-06</v>
@@ -10519,7 +10519,7 @@
         <v>4.512065877492139E-06</v>
       </c>
       <c r="F55">
-        <v>8.199043162417253E-13</v>
+        <v>8.199043162887284E-13</v>
       </c>
       <c r="G55">
         <v>-3.156740346392319E-07</v>
@@ -10554,7 +10554,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.378091368426212E-15</v>
+        <v>2.37809137447031E-15</v>
       </c>
       <c r="C56">
         <v>-3.127456414049277E-07</v>
@@ -10566,7 +10566,7 @@
         <v>1.845918569473329E-07</v>
       </c>
       <c r="F56">
-        <v>5.339470253003518E-15</v>
+        <v>5.339470259047617E-15</v>
       </c>
       <c r="G56">
         <v>-1.281537844575948E-07</v>
@@ -10601,7 +10601,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.149159407802809E-15</v>
+        <v>3.149159409312305E-15</v>
       </c>
       <c r="C57">
         <v>-6.699724223470675E-08</v>
@@ -10613,7 +10613,7 @@
         <v>5.098790347138549E-15</v>
       </c>
       <c r="F57">
-        <v>1.785952543168969E-15</v>
+        <v>1.785952544678466E-15</v>
       </c>
       <c r="G57">
         <v>-6.69972371359164E-08</v>
@@ -10648,7 +10648,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-1.516332813525039E-15</v>
+        <v>-1.516332812367553E-15</v>
       </c>
       <c r="C58">
         <v>-1.175946216792083E-07</v>
@@ -10660,7 +10660,7 @@
         <v>-2.549395175624047E-15</v>
       </c>
       <c r="F58">
-        <v>-8.347293870611194E-16</v>
+        <v>-8.34729385903634E-16</v>
       </c>
       <c r="G58">
         <v>-1.175946242286035E-07</v>
@@ -10695,7 +10695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-5.07285909376743E-15</v>
+        <v>-5.072859092342764E-15</v>
       </c>
       <c r="C59">
         <v>-1.256529744755253E-07</v>
@@ -10707,7 +10707,7 @@
         <v>-1.867792354145341E-15</v>
       </c>
       <c r="F59">
-        <v>-1.841860644069658E-15</v>
+        <v>-1.841860642644992E-15</v>
       </c>
       <c r="G59">
         <v>-1.256529763433176E-07</v>
@@ -10742,7 +10742,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.137692359689263E-12</v>
+        <v>1.137692359644063E-12</v>
       </c>
       <c r="C60">
         <v>-4.386412917432018E-06</v>
@@ -10754,7 +10754,7 @@
         <v>4.351175471368642E-06</v>
       </c>
       <c r="F60">
-        <v>1.106649343832223E-13</v>
+        <v>1.10664934338022E-13</v>
       </c>
       <c r="G60">
         <v>-3.523744606337648E-08</v>
@@ -10789,7 +10789,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.492581247638254E-13</v>
+        <v>2.492581247706801E-13</v>
       </c>
       <c r="C61">
         <v>-1.949895704662546E-06</v>
@@ -10801,7 +10801,7 @@
         <v>1.787021527689313E-06</v>
       </c>
       <c r="F61">
-        <v>1.212747176002155E-13</v>
+        <v>1.212747176070703E-13</v>
       </c>
       <c r="G61">
         <v>-1.628741769732323E-07</v>
@@ -10836,7 +10836,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.404887937594798E-15</v>
+        <v>2.40488793673608E-15</v>
       </c>
       <c r="C62">
         <v>-1.982974105644236E-07</v>
@@ -10848,7 +10848,7 @@
         <v>1.741645925810044E-15</v>
       </c>
       <c r="F62">
-        <v>1.256337045491065E-15</v>
+        <v>1.256337044632348E-15</v>
       </c>
       <c r="G62">
         <v>-1.982974088227776E-07</v>
@@ -10883,7 +10883,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-2.058058685557767E-15</v>
+        <v>-2.058058689484451E-15</v>
       </c>
       <c r="C63">
         <v>-2.700151898788485E-07</v>
@@ -10895,7 +10895,7 @@
         <v>1.467055660494867E-07</v>
       </c>
       <c r="F63">
-        <v>4.898043206418212E-15</v>
+        <v>4.898043202491528E-15</v>
       </c>
       <c r="G63">
         <v>-1.233096238293618E-07</v>
@@ -10930,7 +10930,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.249426748811722E-13</v>
+        <v>1.249426748517533E-13</v>
       </c>
       <c r="C64">
         <v>-1.51700633917367E-06</v>
@@ -10942,7 +10942,7 @@
         <v>1.324323976418724E-06</v>
       </c>
       <c r="F64">
-        <v>8.274376078359951E-14</v>
+        <v>8.274376075418067E-14</v>
       </c>
       <c r="G64">
         <v>-1.926823627549461E-07</v>
@@ -10977,7 +10977,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.619901837134371E-15</v>
+        <v>3.619901834336704E-15</v>
       </c>
       <c r="C65">
         <v>-8.013464049760162E-08</v>
@@ -10989,7 +10989,7 @@
         <v>3.735586006256837E-15</v>
       </c>
       <c r="F65">
-        <v>-2.842094315537443E-15</v>
+        <v>-2.84209431833511E-15</v>
       </c>
       <c r="G65">
         <v>-8.013463676201561E-08</v>
@@ -11024,7 +11024,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.237077456023266E-15</v>
+        <v>1.237077454824096E-15</v>
       </c>
       <c r="C66">
         <v>-6.657092375937145E-08</v>
@@ -11036,7 +11036,7 @@
         <v>-5.098791078588783E-15</v>
       </c>
       <c r="F66">
-        <v>2.600282531724736E-15</v>
+        <v>2.600282530525567E-15</v>
       </c>
       <c r="G66">
         <v>-6.657092885816252E-08</v>
@@ -11071,7 +11071,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-7.35984552132455E-15</v>
+        <v>-7.359845508830533E-15</v>
       </c>
       <c r="C67">
         <v>-2.842595972205271E-07</v>
@@ -11083,7 +11083,7 @@
         <v>1.56372219259786E-07</v>
       </c>
       <c r="F67">
-        <v>4.349820255901712E-15</v>
+        <v>4.349820268395729E-15</v>
       </c>
       <c r="G67">
         <v>-1.278873779607411E-07</v>
@@ -11118,7 +11118,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.961347138598771E-14</v>
+        <v>3.961347137681771E-14</v>
       </c>
       <c r="C68">
         <v>-1.040064377759712E-06</v>
@@ -11130,7 +11130,7 @@
         <v>8.846881800065601E-07</v>
       </c>
       <c r="F68">
-        <v>2.768015782351894E-14</v>
+        <v>2.768015781434894E-14</v>
       </c>
       <c r="G68">
         <v>-1.553761977531516E-07</v>
@@ -11165,7 +11165,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>8.818208605209411E-15</v>
+        <v>8.818208603897864E-15</v>
       </c>
       <c r="C69">
         <v>-7.985627208076198E-08</v>
@@ -11177,7 +11177,7 @@
         <v>2.372381616551512E-15</v>
       </c>
       <c r="F69">
-        <v>-2.742578595750125E-15</v>
+        <v>-2.742578597061672E-15</v>
       </c>
       <c r="G69">
         <v>-7.985626970838036E-08</v>
@@ -11212,7 +11212,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.197079626655081E-15</v>
+        <v>8.197079628226416E-15</v>
       </c>
       <c r="C70">
         <v>-7.651594223079325E-08</v>
@@ -11224,7 +11224,7 @@
         <v>-2.726409588451927E-15</v>
       </c>
       <c r="F70">
-        <v>-2.000502780273497E-15</v>
+        <v>-2.000502778702162E-15</v>
       </c>
       <c r="G70">
         <v>-7.651594495720283E-08</v>
@@ -11259,7 +11259,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.702668429077143E-14</v>
+        <v>2.70266842827588E-14</v>
       </c>
       <c r="C71">
         <v>-5.837003337235189E-07</v>
@@ -11271,7 +11271,7 @@
         <v>4.960987715033855E-07</v>
       </c>
       <c r="F71">
-        <v>1.038319794005975E-14</v>
+        <v>1.038319793204712E-14</v>
       </c>
       <c r="G71">
         <v>-8.760156222013335E-08</v>
@@ -11306,7 +11306,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-1.664790249537744E-15</v>
+        <v>-1.664790238859785E-15</v>
       </c>
       <c r="C72">
         <v>-3.00987845424425E-07</v>
@@ -11318,7 +11318,7 @@
         <v>1.36443782961265E-07</v>
       </c>
       <c r="F72">
-        <v>2.919608718419166E-15</v>
+        <v>2.919608729097125E-15</v>
       </c>
       <c r="G72">
         <v>-1.6454406246316E-07</v>
@@ -11353,7 +11353,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.797496741148839E-15</v>
+        <v>5.797496741557051E-15</v>
       </c>
       <c r="C73">
         <v>-6.415222939222339E-08</v>
@@ -11365,7 +11365,7 @@
         <v>1.867793324407304E-15</v>
       </c>
       <c r="F73">
-        <v>2.566498789303463E-15</v>
+        <v>2.566498789711675E-15</v>
       </c>
       <c r="G73">
         <v>-6.415222752443007E-08</v>
@@ -11400,10 +11400,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-2.519054810155917E-15</v>
+        <v>-2.519054809310608E-15</v>
       </c>
       <c r="C74">
-        <v>-7.22915548813798E-08</v>
+        <v>-7.229155488137978E-08</v>
       </c>
       <c r="D74">
         <v>2.297101288719956E-15</v>
@@ -11412,19 +11412,19 @@
         <v>-3.483292301044453E-15</v>
       </c>
       <c r="F74">
-        <v>-2.219535214359613E-16</v>
+        <v>-2.219535205906523E-16</v>
       </c>
       <c r="G74">
-        <v>-7.22915583646721E-08</v>
+        <v>-7.229155836467208E-08</v>
       </c>
       <c r="H74">
-        <v>9.551013131461848E-08</v>
+        <v>9.551013131461846E-08</v>
       </c>
       <c r="I74">
         <v>5.512660621729818E-15</v>
       </c>
       <c r="J74">
-        <v>9.551013131461848E-08</v>
+        <v>9.551013131461846E-08</v>
       </c>
       <c r="K74">
         <v>1.050471237580179</v>
@@ -11439,7 +11439,7 @@
         <v>-30.03158760236232</v>
       </c>
       <c r="O74">
-        <v>9.551013131461847E-06</v>
+        <v>9.551013131461846E-06</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -11447,7 +11447,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.134091406939424E-16</v>
+        <v>5.134091421737133E-16</v>
       </c>
       <c r="C75">
         <v>-1.806044704173663E-07</v>
@@ -11459,7 +11459,7 @@
         <v>1.741646149995769E-15</v>
       </c>
       <c r="F75">
-        <v>-6.351415070864906E-16</v>
+        <v>-6.351415056067197E-16</v>
       </c>
       <c r="G75">
         <v>-1.806044686757202E-07</v>
@@ -11494,10 +11494,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.26301146471079E-15</v>
+        <v>1.263011462925598E-15</v>
       </c>
       <c r="C76">
-        <v>-3.154943118899235E-07</v>
+        <v>-3.154943118899234E-07</v>
       </c>
       <c r="D76">
         <v>-4.114012713596827E-15</v>
@@ -11506,19 +11506,19 @@
         <v>1.925974391771809E-07</v>
       </c>
       <c r="F76">
-        <v>-2.851001248886036E-15</v>
+        <v>-2.851001250671229E-15</v>
       </c>
       <c r="G76">
         <v>-1.228968727127425E-07</v>
       </c>
       <c r="H76">
-        <v>4.168246650949113E-07</v>
+        <v>4.168246650949112E-07</v>
       </c>
       <c r="I76">
         <v>2.544558173496806E-07</v>
       </c>
       <c r="J76">
-        <v>4.168246650949113E-07</v>
+        <v>4.168246650949112E-07</v>
       </c>
       <c r="K76">
         <v>1.050471237754493</v>
@@ -11533,7 +11533,7 @@
         <v>-30.03158741314854</v>
       </c>
       <c r="O76">
-        <v>4.168246650949114E-05</v>
+        <v>4.168246650949112E-05</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -11541,7 +11541,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.195352904754226E-15</v>
+        <v>2.195352909946141E-15</v>
       </c>
       <c r="C77">
         <v>-1.925974294465467E-07</v>
@@ -11553,7 +11553,7 @@
         <v>-8.077494860736781E-16</v>
       </c>
       <c r="F77">
-        <v>1.72840456703725E-15</v>
+        <v>1.728404572229165E-15</v>
       </c>
       <c r="G77">
         <v>-1.925974302542962E-07</v>
@@ -11588,7 +11588,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.161163882666077E-12</v>
+        <v>1.16116388274632E-12</v>
       </c>
       <c r="C78">
         <v>-4.162610658213021E-06</v>
@@ -11600,7 +11600,7 @@
         <v>4.105322439500741E-06</v>
       </c>
       <c r="F78">
-        <v>1.057179523208952E-13</v>
+        <v>1.057179524011382E-13</v>
       </c>
       <c r="G78">
         <v>-5.728821871227985E-08</v>
@@ -11635,7 +11635,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.429155457865016E-15</v>
+        <v>3.429155460772189E-15</v>
       </c>
       <c r="C79">
         <v>-1.885647504257933E-07</v>
@@ -11647,19 +11647,19 @@
         <v>-1.61549921156069E-15</v>
       </c>
       <c r="F79">
-        <v>2.49525923810401E-15</v>
+        <v>2.495259241011183E-15</v>
       </c>
       <c r="G79">
-        <v>-1.885647520412926E-07</v>
+        <v>-1.885647520412925E-07</v>
       </c>
       <c r="H79">
-        <v>2.491279138084216E-07</v>
+        <v>2.491279138084215E-07</v>
       </c>
       <c r="I79">
         <v>2.465336777414826E-15</v>
       </c>
       <c r="J79">
-        <v>2.491279138084216E-07</v>
+        <v>2.491279138084215E-07</v>
       </c>
       <c r="K79">
         <v>1.050471227134322</v>
@@ -11674,7 +11674,7 @@
         <v>-30.03157220395519</v>
       </c>
       <c r="O79">
-        <v>2.491279138084216E-05</v>
+        <v>2.491279138084215E-05</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -11682,7 +11682,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9.508335879257201E-17</v>
+        <v>9.508335262178646E-17</v>
       </c>
       <c r="C80">
         <v>-1.680336515512559E-07</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>9.508335879257201E-17</v>
+        <v>9.508335262178646E-17</v>
       </c>
       <c r="G80">
         <v>-1.680336515512559E-07</v>
@@ -11729,7 +11729,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.039903920260892E-12</v>
+        <v>1.039903920166705E-12</v>
       </c>
       <c r="C81">
         <v>-3.937288822127262E-06</v>
@@ -11741,7 +11741,7 @@
         <v>3.828232524148997E-06</v>
       </c>
       <c r="F81">
-        <v>1.916236351847421E-13</v>
+        <v>1.916236350905558E-13</v>
       </c>
       <c r="G81">
         <v>-1.090562979782652E-07</v>
@@ -11776,7 +11776,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8.897782732643868E-13</v>
+        <v>8.897782732962843E-13</v>
       </c>
       <c r="C82">
         <v>-3.663025399807653E-06</v>
@@ -11788,7 +11788,7 @@
         <v>3.630615058882715E-06</v>
       </c>
       <c r="F82">
-        <v>3.393687255375477E-14</v>
+        <v>3.393687258565222E-14</v>
       </c>
       <c r="G82">
         <v>-3.241034092493724E-08</v>
@@ -11823,7 +11823,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.271045046452434E-15</v>
+        <v>2.271045044662206E-15</v>
       </c>
       <c r="C83">
         <v>-1.652071194683865E-07</v>
@@ -11835,7 +11835,7 @@
         <v>9.338963634598519E-16</v>
       </c>
       <c r="F83">
-        <v>6.555458729646757E-16</v>
+        <v>6.555458711744482E-16</v>
       </c>
       <c r="G83">
         <v>-1.652071185344901E-07</v>
@@ -11870,7 +11870,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.981966596135942E-13</v>
+        <v>7.981966595928952E-13</v>
       </c>
       <c r="C84">
         <v>-3.179620978935242E-06</v>
@@ -11882,7 +11882,7 @@
         <v>3.064078032738053E-06</v>
       </c>
       <c r="F84">
-        <v>1.340904622614403E-13</v>
+        <v>1.340904622407413E-13</v>
       </c>
       <c r="G84">
         <v>-1.15542946197189E-07</v>
@@ -11917,7 +11917,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.011366235362449E-14</v>
+        <v>1.011366235514559E-14</v>
       </c>
       <c r="C85">
         <v>-4.509940503150828E-07</v>
@@ -11929,19 +11929,19 @@
         <v>2.687355526825225E-07</v>
       </c>
       <c r="F85">
-        <v>1.301972959175272E-14</v>
+        <v>1.301972959327382E-14</v>
       </c>
       <c r="G85">
         <v>-1.822584976325603E-07</v>
       </c>
       <c r="H85">
-        <v>5.958441535587828E-07</v>
+        <v>5.958441535587829E-07</v>
       </c>
       <c r="I85">
         <v>3.550479377811167E-07</v>
       </c>
       <c r="J85">
-        <v>5.958441535587828E-07</v>
+        <v>5.958441535587829E-07</v>
       </c>
       <c r="K85">
         <v>1.05047125318711</v>
@@ -11956,7 +11956,7 @@
         <v>-30.0315789123933</v>
       </c>
       <c r="O85">
-        <v>5.958441535587828E-05</v>
+        <v>5.958441535587829E-05</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -11964,7 +11964,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.033202946881834E-15</v>
+        <v>2.033202944398637E-15</v>
       </c>
       <c r="C86">
         <v>-1.173006739385927E-07</v>
@@ -11976,7 +11976,7 @@
         <v>-1.615499142450695E-15</v>
       </c>
       <c r="F86">
-        <v>1.099306507269941E-15</v>
+        <v>1.099306504786744E-15</v>
       </c>
       <c r="G86">
         <v>-1.173006755540919E-07</v>
@@ -12011,7 +12011,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.251143230843781E-15</v>
+        <v>3.251143228335462E-15</v>
       </c>
       <c r="C87">
         <v>-1.514348608472923E-07</v>
@@ -12023,10 +12023,10 @@
         <v>1.23935953523926E-07</v>
       </c>
       <c r="F87">
-        <v>-9.84173204745527E-15</v>
+        <v>-9.841732049963589E-15</v>
       </c>
       <c r="G87">
-        <v>-2.749890732336627E-08</v>
+        <v>-2.74989073233663E-08</v>
       </c>
       <c r="H87">
         <v>2.000726532656439E-07</v>
@@ -12058,7 +12058,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.520977822514351E-15</v>
+        <v>6.520977821875783E-15</v>
       </c>
       <c r="C88">
         <v>-3.383638886894806E-08</v>
@@ -12070,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6.520977822514351E-15</v>
+        <v>6.520977821875783E-15</v>
       </c>
       <c r="G88">
         <v>-3.383638886894806E-08</v>
@@ -12105,7 +12105,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-2.767066914749602E-15</v>
+        <v>-2.767066916534504E-15</v>
       </c>
       <c r="C89">
         <v>-9.00995808099694E-08</v>
@@ -12117,7 +12117,7 @@
         <v>3.23099828411616E-15</v>
       </c>
       <c r="F89">
-        <v>-8.992740338909982E-16</v>
+        <v>-8.992740356759001E-16</v>
       </c>
       <c r="G89">
         <v>-9.009957757897111E-08</v>
@@ -12152,7 +12152,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-8.337929744124811E-15</v>
+        <v>-8.337929739322794E-15</v>
       </c>
       <c r="C90">
         <v>-2.634877865079116E-07</v>
@@ -12164,7 +12164,7 @@
         <v>1.657642201950566E-07</v>
       </c>
       <c r="F90">
-        <v>1.778100633175155E-15</v>
+        <v>1.778100637977172E-15</v>
       </c>
       <c r="G90">
         <v>-9.772356631285503E-08</v>
@@ -12199,10 +12199,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.616402205072161E-13</v>
+        <v>6.616402204983734E-13</v>
       </c>
       <c r="C91">
-        <v>-2.800590231363077E-06</v>
+        <v>-2.800590231363076E-06</v>
       </c>
       <c r="D91">
         <v>-5.402782071318515E-13</v>
@@ -12211,10 +12211,10 @@
         <v>2.674298943308488E-06</v>
       </c>
       <c r="F91">
-        <v>1.213620133753645E-13</v>
+        <v>1.213620133665218E-13</v>
       </c>
       <c r="G91">
-        <v>-1.262912880545889E-07</v>
+        <v>-1.262912880545884E-07</v>
       </c>
       <c r="H91">
         <v>3.700082729537554E-06</v>
@@ -12246,7 +12246,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.730040798757573E-15</v>
+        <v>6.730040798196833E-15</v>
       </c>
       <c r="C92">
         <v>-7.74793280122216E-08</v>
@@ -12258,7 +12258,7 @@
         <v>5.045876349695778E-16</v>
       </c>
       <c r="F92">
-        <v>-1.599748720995962E-15</v>
+        <v>-1.599748721556702E-15</v>
       </c>
       <c r="G92">
         <v>-7.747932750763396E-08</v>
@@ -12293,7 +12293,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.176713194864158E-15</v>
+        <v>1.176713191925598E-15</v>
       </c>
       <c r="C93">
         <v>-8.828489829080145E-08</v>
@@ -12305,7 +12305,7 @@
         <v>1.615499140089542E-15</v>
       </c>
       <c r="F93">
-        <v>2.110609674591693E-15</v>
+        <v>2.110609671653134E-15</v>
       </c>
       <c r="G93">
         <v>-8.82848966753023E-08</v>
@@ -12340,7 +12340,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8.394234077980694E-16</v>
+        <v>8.394234017795147E-16</v>
       </c>
       <c r="C94">
         <v>-1.796772207593425E-07</v>
@@ -12352,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>8.394234077980694E-16</v>
+        <v>8.394234017795147E-16</v>
       </c>
       <c r="G94">
         <v>-1.796772207593425E-07</v>
@@ -12387,7 +12387,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.757303484457664E-13</v>
+        <v>4.757303483644121E-13</v>
       </c>
       <c r="C95">
         <v>-2.494621780556555E-06</v>
@@ -12399,7 +12399,7 @@
         <v>2.468336184892748E-06</v>
       </c>
       <c r="F95">
-        <v>2.79261658322749E-14</v>
+        <v>2.79261657509206E-14</v>
       </c>
       <c r="G95">
         <v>-2.628559566380745E-08</v>
@@ -12434,7 +12434,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.547178551661614E-13</v>
+        <v>4.547178550816584E-13</v>
       </c>
       <c r="C96">
         <v>-2.468336098363854E-06</v>
@@ -12446,7 +12446,7 @@
         <v>2.363577700604756E-06</v>
       </c>
       <c r="F96">
-        <v>1.298405247055947E-13</v>
+        <v>1.298405246210916E-13</v>
       </c>
       <c r="G96">
         <v>-1.047583977590974E-07</v>
@@ -12481,7 +12481,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.267306776917109E-13</v>
+        <v>3.267306777432485E-13</v>
       </c>
       <c r="C97">
         <v>-2.055210385498701E-06</v>
@@ -12493,7 +12493,7 @@
         <v>1.872279127806777E-06</v>
       </c>
       <c r="F97">
-        <v>1.435241778368284E-13</v>
+        <v>1.43524177888366E-13</v>
       </c>
       <c r="G97">
         <v>-1.829312576919234E-07</v>
@@ -12528,10 +12528,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>3.674752425327807E-15</v>
+        <v>3.674752412365667E-15</v>
       </c>
       <c r="C98">
-        <v>-3.083673204571412E-07</v>
+        <v>-3.083673204571413E-07</v>
       </c>
       <c r="D98">
         <v>3.139375956309654E-16</v>
@@ -12540,10 +12540,10 @@
         <v>1.554074159146053E-07</v>
       </c>
       <c r="F98">
-        <v>3.988690020958772E-15</v>
+        <v>3.988690007996632E-15</v>
       </c>
       <c r="G98">
-        <v>-1.529599045425359E-07</v>
+        <v>-1.52959904542536E-07</v>
       </c>
       <c r="H98">
         <v>4.074086096600181E-07</v>
@@ -12575,7 +12575,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-5.09648913916546E-15</v>
+        <v>-5.096489137740509E-15</v>
       </c>
       <c r="C99">
         <v>-3.910023336611427E-08</v>
@@ -12587,7 +12587,7 @@
         <v>6.461996302922055E-15</v>
       </c>
       <c r="F99">
-        <v>-1.360902449617029E-15</v>
+        <v>-1.360902448192078E-15</v>
       </c>
       <c r="G99">
         <v>-3.910022690411796E-08</v>
@@ -12622,7 +12622,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>3.344066337407989E-15</v>
+        <v>3.34406633592184E-15</v>
       </c>
       <c r="C100">
         <v>-1.163071924937797E-07</v>
@@ -12634,7 +12634,7 @@
         <v>2.549395750757296E-15</v>
       </c>
       <c r="F100">
-        <v>2.662463941583688E-15</v>
+        <v>2.662463940097538E-15</v>
       </c>
       <c r="G100">
         <v>-1.16307189944384E-07</v>
@@ -12669,7 +12669,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.835241694729344E-15</v>
+        <v>2.835241700018136E-15</v>
       </c>
       <c r="C101">
         <v>-2.854990181511969E-07</v>
@@ -12681,7 +12681,7 @@
         <v>1.503913928925698E-07</v>
       </c>
       <c r="F101">
-        <v>3.612519712647894E-15</v>
+        <v>3.612519717936686E-15</v>
       </c>
       <c r="G101">
         <v>-1.35107625258627E-07</v>
@@ -12716,7 +12716,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.796520151727715E-13</v>
+        <v>1.796520151660196E-13</v>
       </c>
       <c r="C102">
         <v>-1.586780114628224E-06</v>
@@ -12728,7 +12728,7 @@
         <v>1.382720301636383E-06</v>
       </c>
       <c r="F102">
-        <v>9.308369788538171E-14</v>
+        <v>9.308369787862977E-14</v>
       </c>
       <c r="G102">
         <v>-2.040598129918415E-07</v>
@@ -12763,7 +12763,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.367357454241429E-15</v>
+        <v>4.367357455962891E-15</v>
       </c>
       <c r="C103">
         <v>-8.132492280416455E-08</v>
@@ -12775,7 +12775,7 @@
         <v>2.522945709388474E-16</v>
       </c>
       <c r="F103">
-        <v>2.024626000881379E-16</v>
+        <v>2.024626018095996E-16</v>
       </c>
       <c r="G103">
         <v>-8.132492255186997E-08</v>
@@ -12810,7 +12810,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.1353952498546E-15</v>
+        <v>7.135395250925961E-15</v>
       </c>
       <c r="C104">
         <v>-6.906646748814362E-08</v>
@@ -12822,7 +12822,7 @@
         <v>-1.36320445884531E-15</v>
       </c>
       <c r="F104">
-        <v>2.036603597306278E-15</v>
+        <v>2.03660359837764E-15</v>
       </c>
       <c r="G104">
         <v>-6.906646885134809E-08</v>
@@ -12857,7 +12857,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>8.422056654905095E-15</v>
+        <v>8.422056667832287E-15</v>
       </c>
       <c r="C105">
         <v>-2.838947645441042E-07</v>
@@ -12869,7 +12869,7 @@
         <v>1.534290797285526E-07</v>
       </c>
       <c r="F105">
-        <v>2.277587341059635E-15</v>
+        <v>2.277587353986826E-15</v>
       </c>
       <c r="G105">
         <v>-1.304656848155515E-07</v>
@@ -12904,7 +12904,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.304746885332838E-14</v>
+        <v>7.304746883820412E-14</v>
       </c>
       <c r="C106">
         <v>-1.098825538455483E-06</v>
@@ -12916,10 +12916,10 @@
         <v>8.653268527807678E-07</v>
       </c>
       <c r="F106">
-        <v>4.770019553025937E-14</v>
+        <v>4.770019551513512E-14</v>
       </c>
       <c r="G106">
-        <v>-2.334986856747152E-07</v>
+        <v>-2.334986856747154E-07</v>
       </c>
       <c r="H106">
         <v>1.451745841660537E-06</v>
@@ -12951,7 +12951,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.334997921110999E-15</v>
+        <v>1.334997921141654E-15</v>
       </c>
       <c r="C107">
         <v>-8.55388742427512E-08</v>
@@ -12963,7 +12963,7 @@
         <v>-1.363204155274521E-15</v>
       </c>
       <c r="F107">
-        <v>-3.763793866853328E-15</v>
+        <v>-3.763793866822673E-15</v>
       </c>
       <c r="G107">
         <v>-8.553887560595536E-08</v>
@@ -12998,10 +12998,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8.292764197786454E-15</v>
+        <v>8.292764198878463E-15</v>
       </c>
       <c r="C108">
-        <v>-6.789020318870038E-08</v>
+        <v>-6.789020318870036E-08</v>
       </c>
       <c r="D108">
         <v>-6.46199594544122E-15</v>
@@ -13010,19 +13010,19 @@
         <v>3.735587628104556E-15</v>
       </c>
       <c r="F108">
-        <v>1.830768252345234E-15</v>
+        <v>1.830768253437244E-15</v>
       </c>
       <c r="G108">
-        <v>-6.789019945311275E-08</v>
+        <v>-6.789019945311273E-08</v>
       </c>
       <c r="H108">
-        <v>8.969514869415654E-08</v>
+        <v>8.969514869415653E-08</v>
       </c>
       <c r="I108">
         <v>9.861347109659303E-15</v>
       </c>
       <c r="J108">
-        <v>8.969514869415654E-08</v>
+        <v>8.969514869415653E-08</v>
       </c>
       <c r="K108">
         <v>1.050471311634445</v>
@@ -13045,7 +13045,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-6.975325456923721E-15</v>
+        <v>-6.975325452713126E-15</v>
       </c>
       <c r="C109">
         <v>-5.149618059853288E-07</v>
@@ -13057,7 +13057,7 @@
         <v>4.813282136843337E-07</v>
       </c>
       <c r="F109">
-        <v>6.258128248542634E-15</v>
+        <v>6.25812825275323E-15</v>
       </c>
       <c r="G109">
         <v>-3.363359230099514E-08</v>
@@ -13092,7 +13092,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2.346726924220229E-14</v>
+        <v>2.346726924985654E-14</v>
       </c>
       <c r="C110">
         <v>-4.813281874823261E-07</v>
@@ -13104,7 +13104,7 @@
         <v>3.236278074818823E-07</v>
       </c>
       <c r="F110">
-        <v>1.503228686888967E-15</v>
+        <v>1.503228694543212E-15</v>
       </c>
       <c r="G110">
         <v>-1.577003800004438E-07</v>
@@ -13139,7 +13139,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>8.068510341498898E-15</v>
+        <v>8.068510330194923E-15</v>
       </c>
       <c r="C111">
         <v>-3.236278091482457E-07</v>
@@ -13151,7 +13151,7 @@
         <v>2.021462849601637E-07</v>
       </c>
       <c r="F111">
-        <v>4.848909679791802E-15</v>
+        <v>4.848909668487828E-15</v>
       </c>
       <c r="G111">
         <v>-1.21481524188082E-07</v>
@@ -13186,7 +13186,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.156217302045515E-15</v>
+        <v>7.156217306002942E-15</v>
       </c>
       <c r="C112">
         <v>-3.503650344024834E-07</v>
@@ -13198,7 +13198,7 @@
         <v>2.211121810256847E-07</v>
       </c>
       <c r="F112">
-        <v>4.800284538650402E-15</v>
+        <v>4.800284542607828E-15</v>
       </c>
       <c r="G112">
         <v>-1.292528533767988E-07</v>
@@ -13233,7 +13233,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-5.381444244782129E-15</v>
+        <v>-5.381444246160489E-15</v>
       </c>
       <c r="C113">
         <v>-9.009107309375831E-08</v>
@@ -13245,7 +13245,7 @@
         <v>1.363203833330723E-15</v>
       </c>
       <c r="F113">
-        <v>-2.826523148893587E-16</v>
+        <v>-2.826523162677195E-16</v>
       </c>
       <c r="G113">
         <v>-9.009107173055448E-08</v>
@@ -13280,7 +13280,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.344243846158591E-15</v>
+        <v>-1.344243848243751E-15</v>
       </c>
       <c r="C114">
         <v>-1.120552104279182E-07</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>-1.344243846158591E-15</v>
+        <v>-1.344243848243751E-15</v>
       </c>
       <c r="G114">
         <v>-1.120552104279182E-07</v>
@@ -13327,7 +13327,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.011238445260427E-16</v>
+        <v>5.011238424811859E-16</v>
       </c>
       <c r="C115">
         <v>-1.240223719231766E-07</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>5.011238445260427E-16</v>
+        <v>5.011238424811859E-16</v>
       </c>
       <c r="G115">
         <v>-1.240223719231766E-07</v>
@@ -13374,7 +13374,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-4.422919889150559E-16</v>
+        <v>-4.422919912244462E-16</v>
       </c>
       <c r="C116">
         <v>-9.708980561921518E-08</v>
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>-4.422919889150559E-16</v>
+        <v>-4.422919912244462E-16</v>
       </c>
       <c r="G116">
         <v>-9.708980561921518E-08</v>
@@ -13767,40 +13767,40 @@
         <v>-4.583038454670704E-06</v>
       </c>
       <c r="G4">
-        <v>6.145696723498886E-13</v>
+        <v>6.145696722308864E-13</v>
       </c>
       <c r="H4">
-        <v>4.532554585113893E-06</v>
+        <v>4.532554585113892E-06</v>
       </c>
       <c r="I4">
-        <v>6.145696722221059E-13</v>
+        <v>6.145696727111405E-13</v>
       </c>
       <c r="J4">
         <v>4.532554585113892E-06</v>
       </c>
       <c r="K4">
-        <v>6.145696722968784E-13</v>
+        <v>6.14569672296409E-13</v>
       </c>
       <c r="L4">
         <v>4.532554585113892E-06</v>
       </c>
       <c r="M4">
-        <v>1.836886629767526E-12</v>
+        <v>1.836886629648524E-12</v>
       </c>
       <c r="N4">
-        <v>-5.04838695568111E-08</v>
+        <v>-5.048386955681195E-08</v>
       </c>
       <c r="O4">
-        <v>1.836886629551201E-12</v>
+        <v>1.836886630040235E-12</v>
       </c>
       <c r="P4">
-        <v>-5.04838695568111E-08</v>
+        <v>-5.048386955681195E-08</v>
       </c>
       <c r="Q4">
-        <v>1.836886629749239E-12</v>
+        <v>1.83688662974877E-12</v>
       </c>
       <c r="R4">
-        <v>-5.048386955681195E-08</v>
+        <v>-5.04838695568128E-08</v>
       </c>
       <c r="S4">
         <v>1.816506045335424E-05</v>
@@ -13818,7 +13818,7 @@
         <v>1.816506045335423E-05</v>
       </c>
       <c r="X4">
-        <v>1.796496441777735E-05</v>
+        <v>1.796496441777734E-05</v>
       </c>
       <c r="Y4">
         <v>1.816506045335424E-05</v>
@@ -14195,7 +14195,7 @@
         <v>-4.459269352559572E-06</v>
       </c>
       <c r="G8">
-        <v>1.200347103282849E-12</v>
+        <v>1.200347102912817E-12</v>
       </c>
       <c r="H8">
         <v>4.374657393921602E-06</v>
@@ -14207,13 +14207,13 @@
         <v>4.374657393921601E-06</v>
       </c>
       <c r="K8">
-        <v>1.200347103034699E-12</v>
+        <v>1.200347102820746E-12</v>
       </c>
       <c r="L8">
         <v>4.374657393921602E-06</v>
       </c>
       <c r="M8">
-        <v>2.892056234657612E-12</v>
+        <v>2.892056234287579E-12</v>
       </c>
       <c r="N8">
         <v>-8.461195863796952E-08</v>
@@ -14225,7 +14225,7 @@
         <v>-8.461195863796952E-08</v>
       </c>
       <c r="Q8">
-        <v>2.892056234350431E-12</v>
+        <v>2.892056234136478E-12</v>
       </c>
       <c r="R8">
         <v>-8.461195863796952E-08</v>
@@ -14234,7 +14234,7 @@
         <v>1.767449541835132E-05</v>
       </c>
       <c r="T8">
-        <v>1.73391306723207E-05</v>
+        <v>1.733913067232071E-05</v>
       </c>
       <c r="U8">
         <v>1.767449541835132E-05</v>
@@ -14261,10 +14261,10 @@
         <v>6.776263578034403E-21</v>
       </c>
       <c r="AC8">
-        <v>6.776263578034403E-21</v>
+        <v>6.828997942065139E-21</v>
       </c>
       <c r="AD8">
-        <v>6.776263578034403E-21</v>
+        <v>6.828997942065139E-21</v>
       </c>
       <c r="AE8">
         <v>0.001767449541835132</v>
@@ -14516,37 +14516,37 @@
         <v>-6.531897984399339E-08</v>
       </c>
       <c r="G11">
-        <v>-4.569365854886524E-15</v>
+        <v>-4.569365857777402E-15</v>
       </c>
       <c r="H11">
         <v>3.228932924651362E-08</v>
       </c>
       <c r="I11">
-        <v>-4.569365855144691E-15</v>
+        <v>-4.569365857054982E-15</v>
       </c>
       <c r="J11">
         <v>3.228932924651361E-08</v>
       </c>
       <c r="K11">
-        <v>-4.56936585622118E-15</v>
+        <v>-4.56936585956046E-15</v>
       </c>
       <c r="L11">
         <v>3.228932924651362E-08</v>
       </c>
       <c r="M11">
-        <v>1.472574355586875E-17</v>
+        <v>1.472574066499093E-17</v>
       </c>
       <c r="N11">
         <v>-3.302965059747977E-08</v>
       </c>
       <c r="O11">
-        <v>1.472574151839801E-17</v>
+        <v>1.472573960810664E-17</v>
       </c>
       <c r="P11">
         <v>-3.302965059747976E-08</v>
       </c>
       <c r="Q11">
-        <v>1.472574450362596E-17</v>
+        <v>1.47257411643462E-17</v>
       </c>
       <c r="R11">
         <v>-3.302965059747977E-08</v>
@@ -14582,7 +14582,7 @@
         <v>1.303485476709979E-22</v>
       </c>
       <c r="AC11">
-        <v>5.293955920339377E-23</v>
+        <v>5.918822653883155E-23</v>
       </c>
       <c r="AD11">
         <v>1.303485476709979E-22</v>
@@ -14623,37 +14623,37 @@
         <v>-4.309338050841826E-06</v>
       </c>
       <c r="G12">
-        <v>6.732260357669665E-13</v>
+        <v>6.732260361369988E-13</v>
       </c>
       <c r="H12">
-        <v>4.255839190384973E-06</v>
+        <v>4.255839190384972E-06</v>
       </c>
       <c r="I12">
-        <v>6.732260352632679E-13</v>
+        <v>6.732260358780526E-13</v>
       </c>
       <c r="J12">
         <v>4.255839190384972E-06</v>
       </c>
       <c r="K12">
-        <v>6.732260359025266E-13</v>
+        <v>6.732260361164793E-13</v>
       </c>
       <c r="L12">
         <v>4.255839190384972E-06</v>
       </c>
       <c r="M12">
-        <v>1.71833148121161E-12</v>
+        <v>1.718331481581643E-12</v>
       </c>
       <c r="N12">
-        <v>-5.349886045685155E-08</v>
+        <v>-5.34988604568524E-08</v>
       </c>
       <c r="O12">
-        <v>1.718331480806644E-12</v>
+        <v>1.718331481421428E-12</v>
       </c>
       <c r="P12">
         <v>-5.34988604568524E-08</v>
       </c>
       <c r="Q12">
-        <v>1.718331481483509E-12</v>
+        <v>1.718331481697462E-12</v>
       </c>
       <c r="R12">
         <v>-5.349886045685325E-08</v>
@@ -14689,7 +14689,7 @@
         <v>6.776263578034403E-21</v>
       </c>
       <c r="AC12">
-        <v>5.929230630780102E-21</v>
+        <v>6.776263578034403E-21</v>
       </c>
       <c r="AD12">
         <v>6.776263578034403E-21</v>
@@ -14944,40 +14944,40 @@
         <v>-3.70667488924421E-06</v>
       </c>
       <c r="G15">
-        <v>2.727145141923089E-13</v>
+        <v>2.727145137627754E-13</v>
       </c>
       <c r="H15">
         <v>3.671487117471638E-06</v>
       </c>
       <c r="I15">
-        <v>2.727145139595033E-13</v>
+        <v>2.727145134041021E-13</v>
       </c>
       <c r="J15">
         <v>3.671487117471638E-06</v>
       </c>
       <c r="K15">
-        <v>2.727145142238837E-13</v>
+        <v>2.727145137964595E-13</v>
       </c>
       <c r="L15">
         <v>3.671487117471637E-06</v>
       </c>
       <c r="M15">
-        <v>8.385634720584491E-13</v>
+        <v>8.385634716289157E-13</v>
       </c>
       <c r="N15">
         <v>-3.518777177257272E-08</v>
       </c>
       <c r="O15">
-        <v>8.385634720274176E-13</v>
+        <v>8.385634714720165E-13</v>
       </c>
       <c r="P15">
-        <v>-3.518777177257187E-08</v>
+        <v>-3.518777177257229E-08</v>
       </c>
       <c r="Q15">
-        <v>8.385634720865458E-13</v>
+        <v>8.385634716591216E-13</v>
       </c>
       <c r="R15">
-        <v>-3.518777177257272E-08</v>
+        <v>-3.518777177257356E-08</v>
       </c>
       <c r="S15">
         <v>1.469155418825993E-05</v>
@@ -15010,7 +15010,7 @@
         <v>6.828997942065139E-21</v>
       </c>
       <c r="AC15">
-        <v>6.615538801775157E-21</v>
+        <v>5.42365719446819E-21</v>
       </c>
       <c r="AD15">
         <v>6.828997942065139E-21</v>
@@ -15372,40 +15372,40 @@
         <v>-3.0455757173399E-07</v>
       </c>
       <c r="G19">
-        <v>1.546320502672822E-14</v>
+        <v>1.546320503044705E-14</v>
       </c>
       <c r="H19">
         <v>2.401860819113988E-07</v>
       </c>
       <c r="I19">
-        <v>1.54632050333913E-14</v>
+        <v>1.546320502967982E-14</v>
       </c>
       <c r="J19">
         <v>2.401860819113988E-07</v>
       </c>
       <c r="K19">
-        <v>1.546320503764623E-14</v>
+        <v>1.546320505103275E-14</v>
       </c>
       <c r="L19">
-        <v>2.401860819113987E-07</v>
+        <v>2.401860819113988E-07</v>
       </c>
       <c r="M19">
-        <v>5.77605298323833E-15</v>
+        <v>5.776052986957156E-15</v>
       </c>
       <c r="N19">
         <v>-6.437148982259122E-08</v>
       </c>
       <c r="O19">
-        <v>5.776052989856248E-15</v>
+        <v>5.776052986144771E-15</v>
       </c>
       <c r="P19">
         <v>-6.437148982259111E-08</v>
       </c>
       <c r="Q19">
-        <v>5.776052993994E-15</v>
+        <v>5.776053007380515E-15</v>
       </c>
       <c r="R19">
-        <v>-6.437148982259127E-08</v>
+        <v>-6.437148982259122E-08</v>
       </c>
       <c r="S19">
         <v>1.207126072008056E-06</v>
@@ -15417,13 +15417,13 @@
         <v>1.207126072008056E-06</v>
       </c>
       <c r="V19">
-        <v>9.519871025048391E-07</v>
+        <v>9.519871025048392E-07</v>
       </c>
       <c r="W19">
         <v>1.207126072008056E-06</v>
       </c>
       <c r="X19">
-        <v>9.51987102504839E-07</v>
+        <v>9.519871025048392E-07</v>
       </c>
       <c r="Y19">
         <v>1.207126072008056E-06</v>
@@ -15438,7 +15438,7 @@
         <v>5.701765022546593E-22</v>
       </c>
       <c r="AC19">
-        <v>3.817525904165956E-22</v>
+        <v>4.268123713790712E-22</v>
       </c>
       <c r="AD19">
         <v>5.701765022546593E-22</v>
@@ -16335,37 +16335,37 @@
         <v>-4.163284895864844E-07</v>
       </c>
       <c r="G28">
-        <v>-3.364627053399225E-15</v>
+        <v>-3.3646270690886E-15</v>
       </c>
       <c r="H28">
-        <v>3.671337806853408E-07</v>
+        <v>3.67133780685341E-07</v>
       </c>
       <c r="I28">
-        <v>-3.364627006562612E-15</v>
+        <v>-3.364627044550235E-15</v>
       </c>
       <c r="J28">
-        <v>3.671337806853408E-07</v>
+        <v>3.671337806853409E-07</v>
       </c>
       <c r="K28">
-        <v>-3.364627046693854E-15</v>
+        <v>-3.364627073378706E-15</v>
       </c>
       <c r="L28">
         <v>3.671337806853409E-07</v>
       </c>
       <c r="M28">
-        <v>2.67646512977569E-15</v>
+        <v>2.676465114086314E-15</v>
       </c>
       <c r="N28">
-        <v>-4.919470890114354E-08</v>
+        <v>-4.919470890114343E-08</v>
       </c>
       <c r="O28">
-        <v>2.676465126709616E-15</v>
+        <v>2.676465088721993E-15</v>
       </c>
       <c r="P28">
-        <v>-4.919470890114349E-08</v>
+        <v>-4.919470890114343E-08</v>
       </c>
       <c r="Q28">
-        <v>2.676465125933158E-15</v>
+        <v>2.676465099248306E-15</v>
       </c>
       <c r="R28">
         <v>-4.919470890114349E-08</v>
@@ -16374,13 +16374,13 @@
         <v>1.650134608014093E-06</v>
       </c>
       <c r="T28">
-        <v>1.455149405668424E-06</v>
+        <v>1.455149405668425E-06</v>
       </c>
       <c r="U28">
         <v>1.650134608014093E-06</v>
       </c>
       <c r="V28">
-        <v>1.455149405668424E-06</v>
+        <v>1.455149405668425E-06</v>
       </c>
       <c r="W28">
         <v>1.650134608014093E-06</v>
@@ -16401,7 +16401,7 @@
         <v>7.70811616981557E-22</v>
       </c>
       <c r="AC28">
-        <v>7.70811616981557E-22</v>
+        <v>6.696383416322138E-22</v>
       </c>
       <c r="AD28">
         <v>7.70811616981557E-22</v>
@@ -16986,28 +16986,28 @@
         <v>-1.678572011906128E-15</v>
       </c>
       <c r="J34">
-        <v>-1.073291310572821E-16</v>
+        <v>-1.073291310572819E-16</v>
       </c>
       <c r="K34">
         <v>-1.678572011906128E-15</v>
       </c>
       <c r="L34">
-        <v>-1.073291310572822E-16</v>
+        <v>-1.073291310572821E-16</v>
       </c>
       <c r="M34">
-        <v>1.93502587532082E-16</v>
+        <v>1.935025875320822E-16</v>
       </c>
       <c r="N34">
         <v>-7.382887768057386E-08</v>
       </c>
       <c r="O34">
-        <v>1.935025867865315E-16</v>
+        <v>1.935025867865319E-16</v>
       </c>
       <c r="P34">
         <v>-7.382887768057384E-08</v>
       </c>
       <c r="Q34">
-        <v>1.935025873017474E-16</v>
+        <v>1.935025873017476E-16</v>
       </c>
       <c r="R34">
         <v>-7.382887768057384E-08</v>
@@ -17016,19 +17016,19 @@
         <v>2.926237045073539E-07</v>
       </c>
       <c r="T34">
-        <v>6.666673621692231E-15</v>
+        <v>6.666673621692228E-15</v>
       </c>
       <c r="U34">
         <v>2.926237045073539E-07</v>
       </c>
       <c r="V34">
-        <v>6.666673621692229E-15</v>
+        <v>6.666673621692227E-15</v>
       </c>
       <c r="W34">
         <v>2.926237045073538E-07</v>
       </c>
       <c r="X34">
-        <v>6.666673621692229E-15</v>
+        <v>6.666673621692228E-15</v>
       </c>
       <c r="Y34">
         <v>2.926237045073539E-07</v>
@@ -17043,7 +17043,7 @@
         <v>1.183764530776631E-22</v>
       </c>
       <c r="AC34">
-        <v>2.844278442983297E-30</v>
+        <v>3.179999972723955E-30</v>
       </c>
       <c r="AD34">
         <v>1.183764530776631E-22</v>
@@ -17304,7 +17304,7 @@
         <v>1.489355308891312E-15</v>
       </c>
       <c r="I37">
-        <v>3.016341320186944E-15</v>
+        <v>3.016341320186945E-15</v>
       </c>
       <c r="J37">
         <v>1.489355308891312E-15</v>
@@ -17322,13 +17322,13 @@
         <v>-2.120652541326928E-08</v>
       </c>
       <c r="O37">
-        <v>4.965158769486718E-16</v>
+        <v>4.965158769486726E-16</v>
       </c>
       <c r="P37">
         <v>-2.120652541326928E-08</v>
       </c>
       <c r="Q37">
-        <v>4.965158747757063E-16</v>
+        <v>4.965158747757067E-16</v>
       </c>
       <c r="R37">
         <v>-2.120652541326928E-08</v>
@@ -17343,7 +17343,7 @@
         <v>8.40529160458826E-08</v>
       </c>
       <c r="V37">
-        <v>1.333334724338445E-14</v>
+        <v>1.333334724338446E-14</v>
       </c>
       <c r="W37">
         <v>8.405291604588259E-08</v>
@@ -17364,7 +17364,7 @@
         <v>2.385953690103722E-23</v>
       </c>
       <c r="AC37">
-        <v>6.161200629337837E-30</v>
+        <v>3.944304526105059E-30</v>
       </c>
       <c r="AD37">
         <v>2.385953690103722E-23</v>
@@ -17411,7 +17411,7 @@
         <v>1.489355308891312E-15</v>
       </c>
       <c r="I38">
-        <v>3.016341320186944E-15</v>
+        <v>3.016341320186945E-15</v>
       </c>
       <c r="J38">
         <v>1.489355308891312E-15</v>
@@ -17429,13 +17429,13 @@
         <v>-2.120652541326928E-08</v>
       </c>
       <c r="O38">
-        <v>4.965158769486718E-16</v>
+        <v>4.965158769486726E-16</v>
       </c>
       <c r="P38">
         <v>-2.120652541326928E-08</v>
       </c>
       <c r="Q38">
-        <v>4.965158747757063E-16</v>
+        <v>4.965158747757067E-16</v>
       </c>
       <c r="R38">
         <v>-2.120652541326928E-08</v>
@@ -17450,7 +17450,7 @@
         <v>8.40529160458826E-08</v>
       </c>
       <c r="V38">
-        <v>1.333334724338445E-14</v>
+        <v>1.333334724338446E-14</v>
       </c>
       <c r="W38">
         <v>8.405291604588259E-08</v>
@@ -17471,7 +17471,7 @@
         <v>2.385953690103722E-23</v>
       </c>
       <c r="AC38">
-        <v>6.161200629337837E-30</v>
+        <v>3.944304526105059E-30</v>
       </c>
       <c r="AD38">
         <v>2.385953690103722E-23</v>
@@ -17512,40 +17512,40 @@
         <v>-3.122034246129728E-06</v>
       </c>
       <c r="G39">
-        <v>4.433531780513464E-14</v>
+        <v>4.433531774563342E-14</v>
       </c>
       <c r="H39">
         <v>3.105757728560394E-06</v>
       </c>
       <c r="I39">
-        <v>4.433531802752191E-14</v>
+        <v>4.43353178423881E-14</v>
       </c>
       <c r="J39">
         <v>3.105757728560394E-06</v>
       </c>
       <c r="K39">
-        <v>4.433531768447684E-14</v>
+        <v>4.433531768424148E-14</v>
       </c>
       <c r="L39">
         <v>3.105757728560394E-06</v>
       </c>
       <c r="M39">
-        <v>1.71890651312067E-13</v>
+        <v>1.718906512525658E-13</v>
       </c>
       <c r="N39">
+        <v>-1.627651756933489E-08</v>
+      </c>
+      <c r="O39">
+        <v>1.718906511086426E-13</v>
+      </c>
+      <c r="P39">
         <v>-1.627651756933447E-08</v>
       </c>
-      <c r="O39">
-        <v>1.718906512937764E-13</v>
-      </c>
-      <c r="P39">
-        <v>-1.627651756933404E-08</v>
-      </c>
       <c r="Q39">
-        <v>1.71890651081886E-13</v>
+        <v>1.718906510816506E-13</v>
       </c>
       <c r="R39">
-        <v>-1.627651756933447E-08</v>
+        <v>-1.627651756933489E-08</v>
       </c>
       <c r="S39">
         <v>1.237430587145511E-05</v>
@@ -17578,10 +17578,10 @@
         <v>5.357106733057711E-21</v>
       </c>
       <c r="AC39">
-        <v>6.828997942065139E-21</v>
+        <v>5.42365719446819E-21</v>
       </c>
       <c r="AD39">
-        <v>6.828997942065139E-21</v>
+        <v>5.42365719446819E-21</v>
       </c>
       <c r="AE39">
         <v>0.001237430587145511</v>
@@ -18582,46 +18582,46 @@
         <v>-9.565246496679704E-07</v>
       </c>
       <c r="G49">
-        <v>1.664029020927117E-14</v>
+        <v>1.66402900870125E-14</v>
       </c>
       <c r="H49">
-        <v>9.298359107001321E-07</v>
+        <v>9.29835910700132E-07</v>
       </c>
       <c r="I49">
-        <v>1.66402901558524E-14</v>
+        <v>1.664029009297723E-14</v>
       </c>
       <c r="J49">
-        <v>9.298359107001321E-07</v>
+        <v>9.298359107001318E-07</v>
       </c>
       <c r="K49">
-        <v>1.664029025071739E-14</v>
+        <v>1.66402901437427E-14</v>
       </c>
       <c r="L49">
-        <v>9.29835910700132E-07</v>
+        <v>9.298359107001319E-07</v>
       </c>
       <c r="M49">
-        <v>4.338064104374283E-14</v>
+        <v>4.338064092148416E-14</v>
       </c>
       <c r="N49">
+        <v>-2.66887389678386E-08</v>
+      </c>
+      <c r="O49">
+        <v>4.338064094763882E-14</v>
+      </c>
+      <c r="P49">
+        <v>-2.66887389678386E-08</v>
+      </c>
+      <c r="Q49">
+        <v>4.338064095494359E-14</v>
+      </c>
+      <c r="R49">
         <v>-2.668873896783849E-08</v>
-      </c>
-      <c r="O49">
-        <v>4.338064101051399E-14</v>
-      </c>
-      <c r="P49">
-        <v>-2.668873896783828E-08</v>
-      </c>
-      <c r="Q49">
-        <v>4.338064106191828E-14</v>
-      </c>
-      <c r="R49">
-        <v>-2.668873896783839E-08</v>
       </c>
       <c r="S49">
         <v>3.791222963057501E-06</v>
       </c>
       <c r="T49">
-        <v>3.685441072119237E-06</v>
+        <v>3.685441072119236E-06</v>
       </c>
       <c r="U49">
         <v>3.791222963057501E-06</v>
@@ -18633,7 +18633,7 @@
         <v>3.791222963057501E-06</v>
       </c>
       <c r="X49">
-        <v>3.685441072119237E-06</v>
+        <v>3.685441072119236E-06</v>
       </c>
       <c r="Y49">
         <v>3.791222963057501E-06</v>
@@ -18648,10 +18648,10 @@
         <v>1.527010361666382E-21</v>
       </c>
       <c r="AC49">
-        <v>1.355914298617048E-21</v>
+        <v>1.707249485516285E-21</v>
       </c>
       <c r="AD49">
-        <v>1.527010361666382E-21</v>
+        <v>1.707249485516285E-21</v>
       </c>
       <c r="AE49">
         <v>0.0003791222963057501</v>
@@ -18903,40 +18903,40 @@
         <v>-8.667014355807247E-07</v>
       </c>
       <c r="G52">
-        <v>7.617021865244434E-14</v>
+        <v>7.617021863756904E-14</v>
       </c>
       <c r="H52">
-        <v>7.160644053156433E-07</v>
+        <v>7.160644053156432E-07</v>
       </c>
       <c r="I52">
-        <v>7.617021869844858E-14</v>
+        <v>7.617021860588164E-14</v>
       </c>
       <c r="J52">
-        <v>7.160644053156432E-07</v>
+        <v>7.160644053156431E-07</v>
       </c>
       <c r="K52">
-        <v>7.617021862055221E-14</v>
+        <v>7.61702186204933E-14</v>
       </c>
       <c r="L52">
-        <v>7.160644053156432E-07</v>
+        <v>7.160644053156431E-07</v>
       </c>
       <c r="M52">
-        <v>1.736403310187715E-13</v>
+        <v>1.736403310038961E-13</v>
       </c>
       <c r="N52">
-        <v>-1.506370302650816E-07</v>
+        <v>-1.506370302650817E-07</v>
       </c>
       <c r="O52">
-        <v>1.736403311010227E-13</v>
+        <v>1.736403310084557E-13</v>
       </c>
       <c r="P52">
-        <v>-1.506370302650816E-07</v>
+        <v>-1.506370302650817E-07</v>
       </c>
       <c r="Q52">
-        <v>1.736403309729227E-13</v>
+        <v>1.736403309728638E-13</v>
       </c>
       <c r="R52">
-        <v>-1.506370302650816E-07</v>
+        <v>-1.506370302650817E-07</v>
       </c>
       <c r="S52">
         <v>3.435205105757672E-06</v>
@@ -18969,10 +18969,10 @@
         <v>1.339276683264428E-21</v>
       </c>
       <c r="AC52">
-        <v>1.541623233963114E-21</v>
+        <v>1.140353004509319E-21</v>
       </c>
       <c r="AD52">
-        <v>1.541623233963114E-21</v>
+        <v>1.339276683264428E-21</v>
       </c>
       <c r="AE52">
         <v>0.0003435205105757671</v>
@@ -19331,37 +19331,37 @@
         <v>-1.042485466618069E-07</v>
       </c>
       <c r="G56">
-        <v>4.846898525573863E-15</v>
+        <v>4.846898531355616E-15</v>
       </c>
       <c r="H56">
-        <v>6.153061952351359E-08</v>
+        <v>6.153061952351357E-08</v>
       </c>
       <c r="I56">
-        <v>4.846898528845138E-15</v>
+        <v>4.846898532665721E-15</v>
       </c>
       <c r="J56">
         <v>6.153061952351356E-08</v>
       </c>
       <c r="K56">
-        <v>4.846898526073012E-15</v>
+        <v>4.846898529416022E-15</v>
       </c>
       <c r="L56">
         <v>6.153061952351356E-08</v>
       </c>
       <c r="M56">
-        <v>2.422157075321128E-16</v>
+        <v>2.42215713313866E-16</v>
       </c>
       <c r="N56">
-        <v>-4.271792713829331E-08</v>
+        <v>-4.271792713829332E-08</v>
       </c>
       <c r="O56">
-        <v>2.422157151722022E-16</v>
+        <v>2.422157189927857E-16</v>
       </c>
       <c r="P56">
         <v>-4.271792713829332E-08</v>
       </c>
       <c r="Q56">
-        <v>2.422157098685886E-16</v>
+        <v>2.422157132115989E-16</v>
       </c>
       <c r="R56">
         <v>-4.271792713829331E-08</v>
@@ -19397,7 +19397,7 @@
         <v>1.908762952082978E-22</v>
       </c>
       <c r="AC56">
-        <v>1.183764530776631E-22</v>
+        <v>1.303485476709979E-22</v>
       </c>
       <c r="AD56">
         <v>1.908762952082978E-22</v>
@@ -19759,58 +19759,58 @@
         <v>-1.462137653600647E-06</v>
       </c>
       <c r="G60">
-        <v>2.800192004461799E-14</v>
+        <v>2.800192007436861E-14</v>
       </c>
       <c r="H60">
         <v>1.450391829951657E-06</v>
       </c>
       <c r="I60">
-        <v>2.800192003943349E-14</v>
+        <v>2.800192010230869E-14</v>
       </c>
       <c r="J60">
         <v>1.450391829951657E-06</v>
       </c>
       <c r="K60">
-        <v>2.800191997397193E-14</v>
+        <v>2.800191997408969E-14</v>
       </c>
       <c r="L60">
         <v>1.450391829951657E-06</v>
       </c>
       <c r="M60">
-        <v>2.635435778647017E-14</v>
+        <v>2.635435781622079E-14</v>
       </c>
       <c r="N60">
-        <v>-1.174582364899085E-08</v>
+        <v>-1.174582364899063E-08</v>
       </c>
       <c r="O60">
-        <v>2.635435771322284E-14</v>
+        <v>2.635435777609803E-14</v>
       </c>
       <c r="P60">
-        <v>-1.174582364899042E-08</v>
+        <v>-1.174582364899021E-08</v>
       </c>
       <c r="Q60">
-        <v>2.635435775855543E-14</v>
+        <v>2.635435775867319E-14</v>
       </c>
       <c r="R60">
-        <v>-1.174582364899021E-08</v>
+        <v>-1.174582364899E-08</v>
       </c>
       <c r="S60">
         <v>5.795239627396608E-06</v>
       </c>
       <c r="T60">
-        <v>5.748684568969653E-06</v>
+        <v>5.748684568969654E-06</v>
       </c>
       <c r="U60">
         <v>5.795239627396607E-06</v>
       </c>
       <c r="V60">
-        <v>5.748684568969652E-06</v>
+        <v>5.748684568969654E-06</v>
       </c>
       <c r="W60">
         <v>5.795239627396606E-06</v>
       </c>
       <c r="X60">
-        <v>5.748684568969653E-06</v>
+        <v>5.748684568969654E-06</v>
       </c>
       <c r="Y60">
         <v>5.795239627396608E-06</v>
@@ -19866,40 +19866,40 @@
         <v>-6.499652526229891E-07</v>
       </c>
       <c r="G61">
-        <v>1.48549857667888E-14</v>
+        <v>1.485498578166412E-14</v>
       </c>
       <c r="H61">
-        <v>5.956738589253857E-07</v>
+        <v>5.956738589253859E-07</v>
       </c>
       <c r="I61">
-        <v>1.485498583174313E-14</v>
+        <v>1.485498578633259E-14</v>
       </c>
       <c r="J61">
-        <v>5.956738589253856E-07</v>
+        <v>5.956738589253859E-07</v>
       </c>
       <c r="K61">
-        <v>1.485498580877439E-14</v>
+        <v>1.485498580889218E-14</v>
       </c>
       <c r="L61">
-        <v>5.956738589253856E-07</v>
+        <v>5.956738589253859E-07</v>
       </c>
       <c r="M61">
-        <v>3.89525962790702E-14</v>
+        <v>3.895259629394551E-14</v>
       </c>
       <c r="N61">
-        <v>-5.429139369760349E-08</v>
+        <v>-5.429139369760327E-08</v>
       </c>
       <c r="O61">
-        <v>3.895259635919078E-14</v>
+        <v>3.895259631378024E-14</v>
       </c>
       <c r="P61">
-        <v>-5.429139369760359E-08</v>
+        <v>-5.429139369760327E-08</v>
       </c>
       <c r="Q61">
-        <v>3.895259629703779E-14</v>
+        <v>3.895259629715558E-14</v>
       </c>
       <c r="R61">
-        <v>-5.429139369760349E-08</v>
+        <v>-5.429139369760317E-08</v>
       </c>
       <c r="S61">
         <v>2.576162660292384E-06</v>
@@ -19917,7 +19917,7 @@
         <v>2.576162660292384E-06</v>
       </c>
       <c r="X61">
-        <v>2.36097657774351E-06</v>
+        <v>2.360976577743511E-06</v>
       </c>
       <c r="Y61">
         <v>2.576162660292384E-06</v>
@@ -19932,10 +19932,10 @@
         <v>7.635051808331912E-22</v>
       </c>
       <c r="AC61">
-        <v>1.355914298617048E-21</v>
+        <v>6.352747104407253E-22</v>
       </c>
       <c r="AD61">
-        <v>1.355914298617048E-21</v>
+        <v>7.635051808331912E-22</v>
       </c>
       <c r="AE61">
         <v>0.0002576162660292384</v>
@@ -20187,40 +20187,40 @@
         <v>-5.056687886386191E-07</v>
       </c>
       <c r="G64">
-        <v>4.258272511395263E-15</v>
+        <v>4.258272557649285E-15</v>
       </c>
       <c r="H64">
-        <v>4.414413341201994E-07</v>
+        <v>4.414413341201993E-07</v>
       </c>
       <c r="I64">
-        <v>4.258272477908243E-15</v>
+        <v>4.258272531614648E-15</v>
       </c>
       <c r="J64">
         <v>4.414413341201993E-07</v>
       </c>
       <c r="K64">
-        <v>4.258272521364438E-15</v>
+        <v>4.258272548049223E-15</v>
       </c>
       <c r="L64">
         <v>4.414413341201993E-07</v>
       </c>
       <c r="M64">
-        <v>2.603740688526934E-14</v>
+        <v>2.603740693152336E-14</v>
       </c>
       <c r="N64">
+        <v>-6.422745451841986E-08</v>
+      </c>
+      <c r="O64">
+        <v>2.603740689895538E-14</v>
+      </c>
+      <c r="P64">
+        <v>-6.422745451841991E-08</v>
+      </c>
+      <c r="Q64">
+        <v>2.603740692852827E-14</v>
+      </c>
+      <c r="R64">
         <v>-6.422745451841981E-08</v>
-      </c>
-      <c r="O64">
-        <v>2.603740684524897E-14</v>
-      </c>
-      <c r="P64">
-        <v>-6.422745451841986E-08</v>
-      </c>
-      <c r="Q64">
-        <v>2.603740690184348E-14</v>
-      </c>
-      <c r="R64">
-        <v>-6.422745451841975E-08</v>
       </c>
       <c r="S64">
         <v>2.004237970465074E-06</v>
@@ -20253,7 +20253,7 @@
         <v>8.536247427581424E-22</v>
       </c>
       <c r="AC64">
-        <v>7.635051808331912E-22</v>
+        <v>8.536247427581424E-22</v>
       </c>
       <c r="AD64">
         <v>8.536247427581424E-22</v>
@@ -21043,40 +21043,40 @@
         <v>-1.003292857870303E-07</v>
       </c>
       <c r="G72">
-        <v>-4.997891702740463E-16</v>
+        <v>-4.997891712037536E-16</v>
       </c>
       <c r="H72">
-        <v>4.548126437252821E-08</v>
+        <v>4.54812643725282E-08</v>
       </c>
       <c r="I72">
-        <v>-4.99789162728325E-16</v>
+        <v>-4.997891685137593E-16</v>
       </c>
       <c r="J72">
-        <v>4.54812643725282E-08</v>
+        <v>4.548126437252819E-08</v>
       </c>
       <c r="K72">
-        <v>-4.99789170585418E-16</v>
+        <v>-4.997891705890997E-16</v>
       </c>
       <c r="L72">
-        <v>4.54812643725282E-08</v>
+        <v>4.548126437252819E-08</v>
       </c>
       <c r="M72">
-        <v>1.56858815965275E-15</v>
+        <v>1.568588158723043E-15</v>
       </c>
       <c r="N72">
-        <v>-5.484802141450205E-08</v>
+        <v>-5.484802141450206E-08</v>
       </c>
       <c r="O72">
-        <v>1.56858816471452E-15</v>
+        <v>1.568588158929086E-15</v>
       </c>
       <c r="P72">
         <v>-5.484802141450206E-08</v>
       </c>
       <c r="Q72">
-        <v>1.568588153739376E-15</v>
+        <v>1.568588153735694E-15</v>
       </c>
       <c r="R72">
-        <v>-5.484802141450207E-08</v>
+        <v>-5.484802141450208E-08</v>
       </c>
       <c r="S72">
         <v>3.976590326634308E-07</v>
@@ -21109,7 +21109,7 @@
         <v>1.674095854080535E-22</v>
       </c>
       <c r="AC72">
-        <v>1.067030928447678E-22</v>
+        <v>7.127206278183242E-23</v>
       </c>
       <c r="AD72">
         <v>1.674095854080535E-22</v>
@@ -22006,58 +22006,58 @@
         <v>-1.312429624333276E-06</v>
       </c>
       <c r="G81">
-        <v>5.522440831133271E-14</v>
+        <v>5.522440834108333E-14</v>
       </c>
       <c r="H81">
         <v>1.276077522638798E-06</v>
       </c>
       <c r="I81">
-        <v>5.522440840051138E-14</v>
+        <v>5.522440834112792E-14</v>
       </c>
       <c r="J81">
         <v>1.276077522638798E-06</v>
       </c>
       <c r="K81">
-        <v>5.522440841754546E-14</v>
+        <v>5.522440841766324E-14</v>
       </c>
       <c r="L81">
         <v>1.276077522638798E-06</v>
       </c>
       <c r="M81">
-        <v>6.540600522159224E-14</v>
+        <v>6.540600525134286E-14</v>
       </c>
       <c r="N81">
+        <v>-3.635210169447827E-08</v>
+      </c>
+      <c r="O81">
+        <v>6.540600508005064E-14</v>
+      </c>
+      <c r="P81">
+        <v>-3.635210169447827E-08</v>
+      </c>
+      <c r="Q81">
+        <v>6.54060052983653E-14</v>
+      </c>
+      <c r="R81">
         <v>-3.635210169447848E-08</v>
-      </c>
-      <c r="O81">
-        <v>6.540600513943411E-14</v>
-      </c>
-      <c r="P81">
-        <v>-3.635210169447869E-08</v>
-      </c>
-      <c r="Q81">
-        <v>6.540600529824752E-14</v>
-      </c>
-      <c r="R81">
-        <v>-3.635210169447869E-08</v>
       </c>
       <c r="S81">
         <v>5.201865948589152E-06</v>
       </c>
       <c r="T81">
-        <v>5.057782909005803E-06</v>
+        <v>5.057782909005804E-06</v>
       </c>
       <c r="U81">
         <v>5.201865948589152E-06</v>
       </c>
       <c r="V81">
-        <v>5.057782909005802E-06</v>
+        <v>5.057782909005804E-06</v>
       </c>
       <c r="W81">
         <v>5.201865948589152E-06</v>
       </c>
       <c r="X81">
-        <v>5.057782909005803E-06</v>
+        <v>5.057782909005804E-06</v>
       </c>
       <c r="Y81">
         <v>5.201865948589152E-06</v>
@@ -22072,10 +22072,10 @@
         <v>2.395770963567772E-21</v>
       </c>
       <c r="AC81">
-        <v>2.711828597234095E-21</v>
+        <v>2.117582368135751E-21</v>
       </c>
       <c r="AD81">
-        <v>2.711828597234095E-21</v>
+        <v>2.395770963567772E-21</v>
       </c>
       <c r="AE81">
         <v>0.0005201865948589152</v>
@@ -22327,37 +22327,37 @@
         <v>-1.059873659923186E-06</v>
       </c>
       <c r="G84">
-        <v>5.489218117003696E-14</v>
+        <v>5.489218107752891E-14</v>
       </c>
       <c r="H84">
         <v>1.021359342464282E-06</v>
       </c>
       <c r="I84">
-        <v>5.489218125168786E-14</v>
+        <v>5.489218119055853E-14</v>
       </c>
       <c r="J84">
         <v>1.021359342464282E-06</v>
       </c>
       <c r="K84">
-        <v>5.489218115944323E-14</v>
+        <v>5.489218105258628E-14</v>
       </c>
       <c r="L84">
         <v>1.021359342464282E-06</v>
       </c>
       <c r="M84">
-        <v>4.568978305096886E-14</v>
+        <v>4.568978295846081E-14</v>
       </c>
       <c r="N84">
+        <v>-3.851431745890348E-08</v>
+      </c>
+      <c r="O84">
+        <v>4.568978308141749E-14</v>
+      </c>
+      <c r="P84">
         <v>-3.851431745890369E-08</v>
       </c>
-      <c r="O84">
-        <v>4.568978314254683E-14</v>
-      </c>
-      <c r="P84">
-        <v>-3.85143174589039E-08</v>
-      </c>
       <c r="Q84">
-        <v>4.568978301991004E-14</v>
+        <v>4.56897829130531E-14</v>
       </c>
       <c r="R84">
         <v>-3.85143174589039E-08</v>
@@ -22372,7 +22372,7 @@
         <v>4.200850471524607E-06</v>
       </c>
       <c r="V84">
-        <v>4.048197429863089E-06</v>
+        <v>4.04819742986309E-06</v>
       </c>
       <c r="W84">
         <v>4.200850471524607E-06</v>
@@ -22393,10 +22393,10 @@
         <v>2.251020934375898E-21</v>
       </c>
       <c r="AC84">
-        <v>1.894023249242609E-21</v>
+        <v>2.395770963567772E-21</v>
       </c>
       <c r="AD84">
-        <v>2.251020934375898E-21</v>
+        <v>2.395770963567772E-21</v>
       </c>
       <c r="AE84">
         <v>0.0004200850471524608</v>
@@ -22434,52 +22434,52 @@
         <v>-1.503313509566491E-07</v>
       </c>
       <c r="G85">
-        <v>3.401205855898522E-15</v>
+        <v>3.401205863539689E-15</v>
       </c>
       <c r="H85">
+        <v>8.957851815434385E-08</v>
+      </c>
+      <c r="I85">
+        <v>3.40120585840176E-15</v>
+      </c>
+      <c r="J85">
         <v>8.957851815434384E-08</v>
       </c>
-      <c r="I85">
-        <v>3.401205854472059E-15</v>
-      </c>
-      <c r="J85">
-        <v>8.957851815434383E-08</v>
-      </c>
       <c r="K85">
-        <v>3.401205850819109E-15</v>
+        <v>3.40120585750503E-15</v>
       </c>
       <c r="L85">
-        <v>8.957851815434385E-08</v>
+        <v>8.957851815434388E-08</v>
       </c>
       <c r="M85">
-        <v>3.876194436098119E-15</v>
+        <v>3.876194443739286E-15</v>
       </c>
       <c r="N85">
-        <v>-6.075283280230525E-08</v>
+        <v>-6.075283280230524E-08</v>
       </c>
       <c r="O85">
-        <v>3.876194423082739E-15</v>
+        <v>3.87619442701244E-15</v>
       </c>
       <c r="P85">
-        <v>-6.075283280230524E-08</v>
+        <v>-6.075283280230523E-08</v>
       </c>
       <c r="Q85">
-        <v>3.876194433155184E-15</v>
+        <v>3.876194439841104E-15</v>
       </c>
       <c r="R85">
-        <v>-6.075283280230521E-08</v>
+        <v>-6.075283280230519E-08</v>
       </c>
       <c r="S85">
         <v>5.958441561770106E-07</v>
       </c>
       <c r="T85">
-        <v>3.550479396822889E-07</v>
+        <v>3.55047939682289E-07</v>
       </c>
       <c r="U85">
         <v>5.958441561770106E-07</v>
       </c>
       <c r="V85">
-        <v>3.550479396822889E-07</v>
+        <v>3.55047939682289E-07</v>
       </c>
       <c r="W85">
         <v>5.958441561770106E-07</v>
@@ -22500,7 +22500,7 @@
         <v>2.994713704459715E-22</v>
       </c>
       <c r="AC85">
-        <v>1.674095854080535E-22</v>
+        <v>1.425441255636648E-22</v>
       </c>
       <c r="AD85">
         <v>2.994713704459715E-22</v>
@@ -22969,37 +22969,37 @@
         <v>-8.782926334944091E-08</v>
       </c>
       <c r="G90">
-        <v>1.409348812191675E-15</v>
+        <v>1.409348809300799E-15</v>
       </c>
       <c r="H90">
         <v>5.525474109015894E-08</v>
       </c>
       <c r="I90">
-        <v>1.409348819982377E-15</v>
+        <v>1.409348813269076E-15</v>
       </c>
       <c r="J90">
         <v>5.525474109015894E-08</v>
       </c>
       <c r="K90">
-        <v>1.409348816125133E-15</v>
+        <v>1.409348812785854E-15</v>
       </c>
       <c r="L90">
         <v>5.525474109015894E-08</v>
       </c>
       <c r="M90">
-        <v>1.678526081612992E-16</v>
+        <v>1.678526052704228E-16</v>
       </c>
       <c r="N90">
         <v>-3.257452225928199E-08</v>
       </c>
       <c r="O90">
-        <v>1.678526095599232E-16</v>
+        <v>1.678526028466222E-16</v>
       </c>
       <c r="P90">
         <v>-3.257452225928198E-08</v>
       </c>
       <c r="Q90">
-        <v>1.678526127294998E-16</v>
+        <v>1.678526093902203E-16</v>
       </c>
       <c r="R90">
         <v>-3.257452225928198E-08</v>
@@ -23035,7 +23035,7 @@
         <v>1.674095854080535E-22</v>
       </c>
       <c r="AC90">
-        <v>9.54381476041489E-23</v>
+        <v>8.474464366356547E-23</v>
       </c>
       <c r="AD90">
         <v>1.674095854080535E-22</v>
@@ -23718,37 +23718,37 @@
         <v>-6.850701310474107E-07</v>
       </c>
       <c r="G97">
-        <v>3.518529474006024E-14</v>
+        <v>3.518529469380622E-14</v>
       </c>
       <c r="H97">
-        <v>6.240930452282595E-07</v>
+        <v>6.240930452282596E-07</v>
       </c>
       <c r="I97">
-        <v>3.518529475401884E-14</v>
+        <v>3.518529470773535E-14</v>
       </c>
       <c r="J97">
         <v>6.240930452282595E-07</v>
       </c>
       <c r="K97">
-        <v>3.518529477815934E-14</v>
+        <v>3.518529472473087E-14</v>
       </c>
       <c r="L97">
         <v>6.240930452282596E-07</v>
       </c>
       <c r="M97">
-        <v>4.757224002960469E-14</v>
+        <v>4.757223998335067E-14</v>
       </c>
       <c r="N97">
-        <v>-6.09770858191514E-08</v>
+        <v>-6.097708581915129E-08</v>
       </c>
       <c r="O97">
-        <v>4.757224016223348E-14</v>
+        <v>4.757224011594999E-14</v>
       </c>
       <c r="P97">
         <v>-6.097708581915129E-08</v>
       </c>
       <c r="Q97">
-        <v>4.757224005679184E-14</v>
+        <v>4.757224000336337E-14</v>
       </c>
       <c r="R97">
         <v>-6.097708581915118E-08</v>
@@ -23784,10 +23784,10 @@
         <v>9.470116246213047E-22</v>
       </c>
       <c r="AC97">
-        <v>9.470116246213047E-22</v>
+        <v>1.140353004509319E-21</v>
       </c>
       <c r="AD97">
-        <v>9.470116246213047E-22</v>
+        <v>1.140353004509319E-21</v>
       </c>
       <c r="AE97">
         <v>0.0002715302018785667</v>
@@ -24681,40 +24681,40 @@
         <v>-3.662751725428844E-07</v>
       </c>
       <c r="G106">
-        <v>1.492872693371531E-14</v>
+        <v>1.492872694115297E-14</v>
       </c>
       <c r="H106">
-        <v>2.88442277219064E-07</v>
+        <v>2.884422772190641E-07</v>
       </c>
       <c r="I106">
-        <v>1.492872692506661E-14</v>
+        <v>1.492872693292601E-14</v>
       </c>
       <c r="J106">
         <v>2.88442277219064E-07</v>
       </c>
       <c r="K106">
-        <v>1.492872693122903E-14</v>
+        <v>1.492872695797273E-14</v>
       </c>
       <c r="L106">
-        <v>2.88442277219064E-07</v>
+        <v>2.884422772190641E-07</v>
       </c>
       <c r="M106">
-        <v>1.590018868255118E-14</v>
+        <v>1.590018868998884E-14</v>
       </c>
       <c r="N106">
-        <v>-7.78328953238204E-08</v>
+        <v>-7.783289532382035E-08</v>
       </c>
       <c r="O106">
-        <v>1.590018866652252E-14</v>
+        <v>1.590018867438193E-14</v>
       </c>
       <c r="P106">
         <v>-7.783289532382035E-08</v>
       </c>
       <c r="Q106">
-        <v>1.59001886793768E-14</v>
+        <v>1.59001887061205E-14</v>
       </c>
       <c r="R106">
-        <v>-7.78328953238204E-08</v>
+        <v>-7.783289532382035E-08</v>
       </c>
       <c r="S106">
         <v>1.451745812299579E-06</v>
@@ -24747,7 +24747,7 @@
         <v>5.701765022546593E-22</v>
       </c>
       <c r="AC106">
-        <v>5.293955920339377E-22</v>
+        <v>4.735058123106524E-22</v>
       </c>
       <c r="AD106">
         <v>5.701765022546593E-22</v>
@@ -26105,28 +26105,28 @@
         <v>-0.003678293979755535</v>
       </c>
       <c r="K2">
-        <v>0.003683046677185271</v>
+        <v>0.003683046677185272</v>
       </c>
       <c r="L2">
-        <v>-0.003678293979755535</v>
+        <v>-0.003678293979755536</v>
       </c>
       <c r="M2">
         <v>0.00368304667718527</v>
       </c>
       <c r="N2">
-        <v>3.68304880146459E-07</v>
+        <v>3.683048801460254E-07</v>
       </c>
       <c r="O2">
-        <v>3.664587298219616E-06</v>
+        <v>3.66458729822005E-06</v>
       </c>
       <c r="P2">
-        <v>3.683048801460254E-07</v>
+        <v>3.68304880145158E-07</v>
       </c>
       <c r="Q2">
-        <v>3.664587298220483E-06</v>
+        <v>3.664587298221351E-06</v>
       </c>
       <c r="R2">
-        <v>3.683048801447243E-07</v>
+        <v>3.68304880143857E-07</v>
       </c>
       <c r="S2">
         <v>3.66458729822005E-06</v>
